--- a/tunnepyora.xlsx
+++ b/tunnepyora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/B0448A65-F12A-40B7-B31D-00B325476E7D/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2833" documentId="8_{62920A7E-06B9-244E-861B-F76490E68AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{922F1E94-A6BB-C549-A6E4-9BFFA88F70C0}"/>
+  <xr:revisionPtr revIDLastSave="3132" documentId="8_{62920A7E-06B9-244E-861B-F76490E68AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A692E6-2B78-4944-9590-8F3D6EA63B2B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$B$1:$B$114</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6333" uniqueCount="2538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6914" uniqueCount="3072">
   <si>
     <t>Arvostettu</t>
   </si>
@@ -7660,6 +7661,1581 @@
   </si>
   <si>
     <t>Tympeys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohjaaja (punainen) on ekstravertti ajattelija. He ovat tuloshakuisia, itsevarmoja ja hyviä päätöksenteossa. Johtaja haluaa pitää järjestyksen tiimissään ja käyttää mieluummin kovaa dataa tuottavuuden ja edistymisen mittaamiseen. He pitävät myös kilpailusta ja hallinnasta ja pyrkivät aina menestykseen. Heidän suurin pelkonsa on hallinnan menettäminen ja/tai epäonnistuminen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivaattori (oranssi)on ekstravertti intuitiivinen henkilö. Nämä ovat positiivisia ajattelijoita, innostuneita ihmisiä, jotka haluavat motivoida muita ihmisiä eteenpäin. Heillä on lahja löytää yhteyksiä eri tapahtumien välillä ja kääntää ne uusiksi mahdollisuuksiksi. Kuten seikkailu ja rajattomat mahdollisuudet ja pyrkiä arvovaltaa ja kunnioitusta. Heidän suurin pelkonsa on joutua rajoitetuksi tai menettää kunnioitus. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspiraattori (keltainen)on ekstravertti tuntevainen. Nämä ovat luovia ja vakuuttavia ihmisiä, joilla on ihmistaitoja. He eivät ole vain hyviä jakamaan omia tunteitaan, vaan heillä on myös lahja lukea, mitä muut ihmiset saattavat tarvita tyydyttääkseen. Inspiroijat ovat ihmisiä, jotka varmistavat, että kaikki ryhmässä viihtyvät, ja he rakastavat vuorovaikutusta. Innostajat tavoittelevat hyväksyntää ja suosiota, ja he pelkäävät hylkäämistä ja yksinäisyyttä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttaja (kalkki) on todellinen tunto. He auttavat muita, jakavat ideoita ja ovat joustavimpia. Auttajat nauttivat läheisyydestä ja kiintymyksestä, pyrkivät ihmissuhteisiin ja haluavat muuttaa maailmaa. Heidän suurimmat pelkonsa ovat hylätyksi tuleminen tai eristäytyminen. Auttajat saavat yleensä korkeat pisteet joko introvertti-intuition tai ekstravertti-aistin yhdistelmässä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tukija (vihreä)on introvertti tunteva. Nämä ovat hyviä kuuntelijoita, jotka ovat uskollisia joukkueelle ja haluavat työskennellä ryhmässä. Heidän lahjansa on yksinkertaisesti tietää, mikä on oikein tai väärin, ja tietää, mikä ajaa ihmisiä kuuntelemalla heidän sisuaan. He rakastavat tämän lahjan käyttämistä muiden auttamiseen ja pyrkivät harmoniaan ja hyväksyntään. Heidän suurimmat pelkonsa ovat konfliktit ja muutos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordinaattori (vaaleansininen) on henkilö, joka saa korkeat pisteet sisäänpäinkääntymisessä ja aistimisessa. Hän on kuningas sekä ajanhallinnassa että suunnittelussa. He ovat yleensä hyviä oppimaan aiemmista kokemuksista estääkseen saman ongelman toistumisen. Koordinaattorit rakastavat rakennetta ja turvallisuutta ja pyrkivät oikeellisuuteen. He pelkäävät riskejä ja kaaosta. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarkkailija (sininen)on introvertti ajattelija ja hän on hyvä määrittämään rakenteita, analysoimaan dataa ja tunnettu tietämystään myytävästä tuotteesta. Tarkkailijat nauttivat idean tai ongelman ytimeen perehtymisestä ja täsmällisen oikean terminologian löytämisestä viestiäkseen siitä. He rakastavat logiikkaa ja tosiasioita, pyrkivät ymmärrykseen ja objektiiviseen totuuteen. He pelkäävät hämmennystä ja ajanpainetta. </t>
+  </si>
+  <si>
+    <t>Reformer (violetti) on todellinen ajattelija. He ovat määrätietoisia työtovereita, jotka ovat hyviä seuraamaan suoritustaan ​​ja ovat yleensä erittäin kurinalaisia. He rakastavat ongelmien ratkaisemista, tavoittelevat täydellisyyttä ja erinomaisuutta ja pelkäävät siksi, että työtä ei tehdä kunnolla. Uudistajat saavat yleensä korkeat pisteet joko introvertti-intuitiossa tai ekstraverttisissä aistimuksissa.</t>
+  </si>
+  <si>
+    <t>Kylmää sinistä näyttää joku, joka on erittäin vaativa, joka haluaa kaiken tekemisensä olevan korkeatasoista, joka on varovainen ja huomaavainen. He ovat tietoisia toimissaan ja työskentelevät muodollisen rakenteen puitteissa. Ryhmässä he pyrkivät ymmärrykseen, ja muut voivat nähdä heidät ajattelevaisina ja analyyttisinä, mutta joskus etäisinä ja tunteettomana.</t>
+  </si>
+  <si>
+    <t>Maanvihreää näyttää joku, joka välittää ja kannustaa ja joka arvostaa vakautta ja muiden tukemista. He jakavat mielellään muiden kanssa ja ovat kärsivällisiä opettaessaan uutta taitoa. Heidän perimmäisenä tavoitteenaan on harmonia ja ryhmässä he edistävät konsensusta. Muut pitävät heitä miellyttävinä ja rentoina, mutta heitä voidaan myös pitää lempeinä ja tottelevaisina.</t>
+  </si>
+  <si>
+    <t>Auringonpaistetta näyttää henkilö, joka on hauska ja rakastaa vuorovaikutusta muiden kanssa. He arvostavat seurustelua ja ovat innostuneita toisten seurassa, varsinkin kun he osoittavat taitojaan. Ryhmässä työskennellessä he kaipaavat tunnustusta. Ne ovat dynaamisia ja spontaaneja, mikä voi saada muut pitämään ne epäjärjestyneinä.</t>
+  </si>
+  <si>
+    <t>Tulisen punaista näyttää joku, joka on toiminnanhaluinen, varma ja luottavainen. He nauttivat haasteista ja ovat usein kilpailukykyisiä ja päättäväisiä menestyäkseen. Tämä päättäväisyys tarkoittaa, että heidän päämääränsä on saavutus ja haasteiden voittaminen, mutta heidän yksimielisyys voi joskus saada muut näkemään heidät kärsimättöminä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ohjaaja (tulisenpunainen) </t>
+  </si>
+  <si>
+    <t>Ekstravertoitu ajattelu</t>
+  </si>
+  <si>
+    <t>Ohjaaja on henkilö, joka keskittyy ensisijaisesti tuloksiin. Heidän tärkein prioriteettinsa on saada tärkein tekemänsä tehtävä korkealle tasolle ja ajallaan, eivätkä he pelkää tehdä suuria päätöksiä ja toteuttaa niitä itsevarmasti. Nämä ominaisuudet tekevät heistä erinomaisia ​​johtajia, mutta heidän on oltava varovaisia, jotta he eivät tule esiin työntyneiltä tai kärsimättömiltä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivaattori (tulisenpunainen ja auringonkeltainen) </t>
+  </si>
+  <si>
+    <t>Ekstravertoitu intuitio</t>
+  </si>
+  <si>
+    <t>Motivaattorilla on sama halu saavuttaa tuloksia kuin ohjaajalla, mutta tätä lieventää positiivisen ajattelun ja hauskanpidon korostaminen. Tällä henkilöllä on korkea innostus ja hän voi motivoida ryhmää ottamaan vastaan ​​tehtävän tai voittamaan haasteen. Heidän kykynsä innostaa ihmisiä toteuttamaan suunnitelmia tekee heistä hyvin sopivia rooleihin, joissa he innostavat henkilöstöään saavuttamaan tavoitteensa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspiraattori (auringonpaisteen keltainen) </t>
+  </si>
+  <si>
+    <t>Ekstravertoitu tunne</t>
+  </si>
+  <si>
+    <t>Inspiraattorin suurin vahvuus on hänen ihmistaitonsa, sillä he nauttivat muiden seurasta ja heillä on hyvä käsitys siitä, kuinka motivoida ja inspiroida heitä. Mutta he eivät ole vain cheerleadereita – he ovat luovia tyyppejä, jotka voivat löytää ihmislähtöisiä ratkaisuja ongelmiin, joita muut eivät ehkä ajattele. Heidän taivuttelukykynsä voi tehdä heistä hyviä myyjiä sekä luovan tiimin jäseniä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auttaja (auringonpaisteen keltainen ja maanvihreä) </t>
+  </si>
+  <si>
+    <t>Introvertti intuitio ulkopuolisella aistilla Auttajalla</t>
+  </si>
+  <si>
+    <t>on inspiroijan sosiaalisia puolia, mutta myös maadoittuneempi, välittävä puoli. Villin luovuuden sijaan heillä on vakaampi, tukevampi ja käytännöllisempi lähestymistapa. He nauttivat ennen kaikkea muiden auttamisesta ja ovat valmiita olemaan joustavia ja näkemään muiden näkemykset. Heidän taitonsa jakaa ideoita tekee heistä erinomaisia ​​välittäjiä, koska he ovat hyviä auttamaan ryhmää rakentamaan konsensusta.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kannattaja (maanvihreä) </t>
+  </si>
+  <si>
+    <t>Introvertti Feeling</t>
+  </si>
+  <si>
+    <t>Kannattaja on henkilö, joka haluaa pysyä poissa valokeilasta ja helpottaa ryhmän työtä. He ovat erinomaisia ​​kuuntelijoita ja voivat empatiaa muita kohtaan, joten heistä tulee hyviä ohjaajia. He ovat erittäin uskollisia tiimilleen ja haluavat työskennellä tukeen muita ja ryhmää sen sijaan, että he ajavat tuloksia yksin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koordinaattori (maanvihreä ja viileä sininen) </t>
+  </si>
+  <si>
+    <t>Introvertti aistiminen</t>
+  </si>
+  <si>
+    <t>Koordinaattori on hyvin organisoitunut ja painottaa suunnittelua ja ajanhallintaa. Heillä on käytännöllinen lähestymistapa siihen, mitä voidaan saavuttaa ja mitä toimenpiteitä suunnitelman toteuttaminen edellyttää. He ovat erinomaisia ​​hallintohenkilöstöä ja projektipäälliköitä.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tarkkailija (kylmänsininen) </t>
+  </si>
+  <si>
+    <t>Introvertti ajattelu</t>
+  </si>
+  <si>
+    <t>Tarkkailija on yksityiskohtiin suuntautunut ja välittää siitä, että kaikki on oikein ja korkeatasoisesti määriteltyä. He ovat vahvoja analysoinnissa ja sääntöjen tai ohjeiden noudattamisessa, joten he sopivat hyvin testaus- tai noudattamisrooleihin ja oikeastaan ​​kaikkiin rooleihin, jotka vaativat analyyttistä ja käytännön ajattelua. Soveltuu usein erinomaisesti juridisiin, taloudellisiin ja teknologisiin harrastuksiin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reformer (kylmä sininen ja tulipunainen) </t>
+  </si>
+  <si>
+    <t>Extraverted Sensing introverted intuition kanssa</t>
+  </si>
+  <si>
+    <t>Uudistaja haluaa sekä korkeita standardeja että vahvoja tuloksia, mikä tekee heistä erittäin määrätietoisia. Heillä on vahvuus suorituskyvyn ja kurinalaisuuden seurannassa, joten he sopivat hyvin rooleihin, joissa päätökset voidaan joutua tekemään logiikan ja datan perusteella ihmisten ja suhteiden sijaan.</t>
+  </si>
+  <si>
+    <t>Jos tämä ensimmäinen yleiskatsaus on herättänyt kiinnostuksesi ja haluat tietää enemmän Jungin persoonallisuustyypeistä, palaa pian takaisin, sillä se on seuraavan postauksen aihe. Voit myös lukea lisää osoitteessa www.scottstedtalk.com .</t>
+  </si>
+  <si>
+    <t>Johtaja| Ekstravertoitu ajattelu| Tuloskeskeinen, päättäväinen, itsevarma</t>
+  </si>
+  <si>
+    <t>Motivaattori | Ekstravertoitu intuitio | Rohkeutta, innostusta, positiivista ajattelua</t>
+  </si>
+  <si>
+    <t>Inspiraattori | Ekstravertoitu tunne | Vakuuttava, luova, ihmisten taidot</t>
+  </si>
+  <si>
+    <t>Apulainen | Introvertti intuitio ja ekstravertti aistiminen | Joustava ja auttaa muita, jaettu ideoita</t>
+  </si>
+  <si>
+    <t>Tukija| Introvertti tunne| Kuuntelee, uskollinen, tiimillinen lähestymistapa</t>
+  </si>
+  <si>
+    <t>Koordinaattori | Introverttitunnistus | Suunnittelu, organisointi, ajanhallinta</t>
+  </si>
+  <si>
+    <t>Tarkkailija | Introvertti ajattelu | Asettaa standardeja, tuotetuntemusta, analysointia</t>
+  </si>
+  <si>
+    <t>Uudistaja | Ekstravertti aistiminen sisäänpäin kääntyneellä intuitiolla | Päättäväisyys, suorituskyvyn seuranta, kurinalaisuus</t>
+  </si>
+  <si>
+    <t>Punaiset ovat ekstravertit ajattelijat. Heidän vahvuuksiaan ovat objektiivinen ajattelu, kyky erottaa tehtävät ihmisestä ja he ovat kilpailukykyisiä. Heidän mottonsa on: Tehdään se nyt, ja hyvänä päivänä punaiset ihmiset ovat päättäneet saavuttaa tuloksia. He ovat hyviä ohjaamaan tiimiä ohjeiden perusteella.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Punaisten ihmisten stressitilanteet syntyvät keskittymiskyvyttömyydestä tai kun päätöksen tekeminen kestää hetken. Kun punaiset ihmiset kokevat stressiä, he muuttuvat kärsimättömiksi, ärsyyntyneiksi tai jopa aggressiivisiksi. On tärkeää antaa heille hallinta, kun näin tapahtuu, tekemällä päätös (tai jopa antamalla heidän tehdä se) tai kutsumalla aikakatkaisu. </t>
+  </si>
+  <si>
+    <t>Keltaiset ihmiset ovat ekstravertteja tunteita. Punaisiin ihmisiin verrattuna he ovat henkilökohtaisemmin mukana tekemissään päätöksissä ja ovat hyviä motivoimaan muita. Heidän mottonsa on: Tehdään se yhdessä, ja hyvänä päivänä he osaavat motivoida muita innostuneisuudellaan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keltaiset kokevat stressiä, kun heidän joustavuus on rajoitettua, kun ei ole vuorovaikutusta tai mahdollisuutta pitää hauskaa. Keltaiset ihmiset reagoivat stressiin olemalla ylireagointia tai yrittämällä painostaa itseään monilla argumenteilla. Päästäkseen pois tilanteesta, keltaisten ihmisten on saatava tilaa liikkua, pelastaa kasvonsa tai voit yksinkertaisesti häiritä heidän huomionsa vaihtamalla aihetta. </t>
+  </si>
+  <si>
+    <t>Vihreät ihmiset ovat introvertteja. He pyrkivät epävirallisessa ympäristössä ja he ovat työtovereita, jotka varmistavat, että tiimin jäsenten väliset suhteet ovat kunnossa. Heidän mottonsa on: Tehdään huolella, ja hyväna päivänä he ovat kärsivällisiä, rentoa, rohkaisevia ja haluavat jakaa tietoa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vihreät ihmiset kokevat stressiä, kun ihmisiä kohdellaan epäoikeudenmukaisesti, kun arvot ovat vaakalaudalla tai kun heillä on aikapainetta. He reagoivat stressiin olemalla itsepäisiä, vastustuskykyisiä tai vetäytymällä keskustelusta. Auttaaksesi vihreitä ihmisiä pääsemään pois stressaavasta tilanteesta, sinun on palautettava ihmisten välinen luottamus henkilökohtaisen kontaktin avulla. </t>
+  </si>
+  <si>
+    <t>Siniset ihmiset, neljäs ja viimeinen persoonallisuustyyppi, ovat tehtävälähtöisiä introvertteja ajattelijoita. He ovat vahvoja seuraamaan prosesseja ja standardeja, ja ovat yleensä vahvoja analytiikassa, tarkkaillen yksityiskohtia. Heidän mottonsa on: Tehdään se oikein, ja hyvänä päivänä siniset ihmiset ovat muodollisia, tarkkoja, huolellisia ja kysyvät paljon.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siniset ihmiset kokevat stressiä, kun he ajattelevat, että huonoa työtä tehdään, tietoa puuttuu tai kun tehtäviä kiirehditään. He vastaavat tähän stressiin kysymällä lisää kysymyksiä, mikä voi johtaa keskusteluihin monista pienistä yksityiskohdista. </t>
+  </si>
+  <si>
+    <t>Auttaa sinistä ih</t>
+  </si>
+  <si>
+    <t>Cautious</t>
+  </si>
+  <si>
+    <t>Precise</t>
+  </si>
+  <si>
+    <t>Deliberate</t>
+  </si>
+  <si>
+    <t>Questioning</t>
+  </si>
+  <si>
+    <t>Formal</t>
+  </si>
+  <si>
+    <t>Encouraging</t>
+  </si>
+  <si>
+    <t>Sharing</t>
+  </si>
+  <si>
+    <t>Patient</t>
+  </si>
+  <si>
+    <t>EARTH GREEN</t>
+  </si>
+  <si>
+    <t>FIERY RED</t>
+  </si>
+  <si>
+    <t>Competitive</t>
+  </si>
+  <si>
+    <t>Demanding</t>
+  </si>
+  <si>
+    <t>Strong-Willed</t>
+  </si>
+  <si>
+    <t>Purposeful</t>
+  </si>
+  <si>
+    <t>Sociable</t>
+  </si>
+  <si>
+    <t>Demonstrative</t>
+  </si>
+  <si>
+    <t>Enthousiastic</t>
+  </si>
+  <si>
+    <t>Stuffy</t>
+  </si>
+  <si>
+    <t>Indecisive</t>
+  </si>
+  <si>
+    <t>Cold</t>
+  </si>
+  <si>
+    <t>Reserved</t>
+  </si>
+  <si>
+    <t>Docile</t>
+  </si>
+  <si>
+    <t>Bland</t>
+  </si>
+  <si>
+    <t>Plodding</t>
+  </si>
+  <si>
+    <t>Reliant</t>
+  </si>
+  <si>
+    <t>Stubborn</t>
+  </si>
+  <si>
+    <t>Controlling</t>
+  </si>
+  <si>
+    <t>Driving</t>
+  </si>
+  <si>
+    <t>Overbearing</t>
+  </si>
+  <si>
+    <t>Intolerant</t>
+  </si>
+  <si>
+    <t>Excitable</t>
+  </si>
+  <si>
+    <t>Indiscreet</t>
+  </si>
+  <si>
+    <t>Flamboyant</t>
+  </si>
+  <si>
+    <t>Hasty</t>
+  </si>
+  <si>
+    <t>Good day</t>
+  </si>
+  <si>
+    <t>Bad day</t>
+  </si>
+  <si>
+    <t>SUNSHINE YELLOW</t>
+  </si>
+  <si>
+    <t>COOL BLUE</t>
+  </si>
+  <si>
+    <t>Varovainen</t>
+  </si>
+  <si>
+    <t>Tarkka</t>
+  </si>
+  <si>
+    <t>Muodollinen</t>
+  </si>
+  <si>
+    <t>Vaativa</t>
+  </si>
+  <si>
+    <t>Vahvatahtoinen</t>
+  </si>
+  <si>
+    <t>Tarkoituksenmukainen</t>
+  </si>
+  <si>
+    <t>Seurallinen</t>
+  </si>
+  <si>
+    <t>Huono päivä</t>
+  </si>
+  <si>
+    <t>Kylmä</t>
+  </si>
+  <si>
+    <t>Sopeutuva</t>
+  </si>
+  <si>
+    <t>Itsepäinen</t>
+  </si>
+  <si>
+    <t>Suvaitsematon</t>
+  </si>
+  <si>
+    <t>Tahditon</t>
+  </si>
+  <si>
+    <t>Mahtipontinen</t>
+  </si>
+  <si>
+    <t>Hätäinen</t>
+  </si>
+  <si>
+    <t>Hyvä päivä</t>
+  </si>
+  <si>
+    <t>Punnitseva</t>
+  </si>
+  <si>
+    <t>Kyseenalaistava</t>
+  </si>
+  <si>
+    <t>Kannustava</t>
+  </si>
+  <si>
+    <t>Jakava</t>
+  </si>
+  <si>
+    <t>Kärsivällinen</t>
+  </si>
+  <si>
+    <t>Kilpaileva</t>
+  </si>
+  <si>
+    <t>Aikaansaava</t>
+  </si>
+  <si>
+    <t>Tylsä</t>
+  </si>
+  <si>
+    <t>Varautunut</t>
+  </si>
+  <si>
+    <t>Vaisu</t>
+  </si>
+  <si>
+    <t>Yksitoikkoinen</t>
+  </si>
+  <si>
+    <t>Hillitsevä</t>
+  </si>
+  <si>
+    <t>Pakottava</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se, onko joku INTROVERTI TAI EXTRAVERTI , on Carl Jungin kuvaama ensimmäinen akseli, jolla ei ole mitään tekemistä äänekkäämisen tai ujouden kanssa, kuten useimmat ihmiset ajattelevat, vaan pikemminkin energiatasojen lataamistapaan. Tarvitsetko aikaa itsellesi? Vai pidätkö mieluummin hengailua ryhmän kanssa saadaksesi energiaa takaisin? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introvertithaluavat käyttää energiaansa käsitteiden ja ideoiden miettimiseen. He eivät tarvitse monia ulkoisia ärsykkeitä ja ovat siksi nopeasti "ylistimuloituja". He ajattelevat ennen tekoa, etsivät hiljaisuutta, kun heidän on keskityttävä, ja haluavat ymmärtää maailmaa sen muuttamisen sijaan. Introvertit kommunikoivat mieluummin tekstillä kuin puheella, koska he voivat silloin tarkkaan miettiä, miten he haluaisivat ilmaista itseään. Introvertit eivät myöskään yleensä pidä äkillisistä muutoksista. Suuren ryhmän edessä esiintyminen on usein introvertille väsyttävää, ja introvertin kouluttajan haasteena olisi löytää tarpeeksi rauhaa ja hiljaisuutta latautuakseen. Lopulta heidän on vaikea mainostaa itseään. </t>
+  </si>
+  <si>
+    <t>Ekstravertittoisaalta saada enemmän energiaa muilta ihmisiltä ja mielellään kuluttaa energiaa asioiden tekemiseen ja ihmisten kanssa viettämiseen. He tarvitsevat ulkoisia ärsykkeitä esiintyäkseen ja mieluummin vain kokeilevat jotain sen sijaan, että ajattelevat sitä liikaa. Ekstravertit haluavat pitää itsensä kiireisinä ja kyllästyvät, kun he eivät ole. He ovat hyviä neuvottelemaan ja jättävät itsestään hyvän ensivaikutelman. Ekstravertin haasteita ovat kuunteleminen (etenkin introverttien, joille on annettava mahdollisuus) ja yksityiskohtien tarkkailu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toinen akseli, joka määrittää, mihin neljännekseen persoonallisuutesi sopii, on AJATTELU VS. TUNNE . Tällä spektrillä Jung kuvaa tapaa, jolla ihmiset tekevät päätöksiä: logiikkaan (ajattelu) tai ihmisiin ja heidän tunteisiinsa (tunne) perustuen. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ajattelijat ovat ihmisiä, jotka aloittavat ajattelunsa logiikasta (päästään). He näkevät maailman mustavalkoisena ja voivat siksi tehdä nopeita päätöksiä tämänhetkisen tiedon perusteella. Arvo asetetaan arvojen yläpuolelle ja totuuden kertominen on tärkeämpää kuin tahdikkaasti neuvotteleminen. Koska ajattelijat eivät yleensä näytä tunteita liikaa, kaupankäynti ajattelijan kanssa on nopeaa ja tehokasta. Huono puoli on, että ajattelijan kanssa asioiminen on jotain, jonka tuntejat pitävät kylmänä tai sydämettömänä. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunturittoisaalta perustavat päätöksensä pikemminkin vatsaan (sydämeensä) ja ottavat huomioon henkilökohtaiset suhteensa kommunikoinnissa. Arvot asetetaan arvon yläpuolelle ja päätökset tehdään sen mukaan, mitä se merkitsee muille asianosaisille, ei pelkkien tosiasioiden perusteella. Taktisuus on tärkeämpää kuin kova totuus, ja siksi tunteja voi joskus jättää huomiotta tämän epämiellyttävän totuuden. Tunteiden ajatellaan olevan "emotionaalisia" ja "epäluotettavia". </t>
+  </si>
+  <si>
+    <t>Factual</t>
+  </si>
+  <si>
+    <t>Diligent</t>
+  </si>
+  <si>
+    <t>Structured</t>
+  </si>
+  <si>
+    <t>Supportive</t>
+  </si>
+  <si>
+    <t>Reliable</t>
+  </si>
+  <si>
+    <t>Valuing</t>
+  </si>
+  <si>
+    <t>Efficient</t>
+  </si>
+  <si>
+    <t>Interactive</t>
+  </si>
+  <si>
+    <t>Action-oriented</t>
+  </si>
+  <si>
+    <t>Objective</t>
+  </si>
+  <si>
+    <t>Consistent</t>
+  </si>
+  <si>
+    <t>Fast Pacen</t>
+  </si>
+  <si>
+    <t>Ahkera</t>
+  </si>
+  <si>
+    <t>Johdonmukainen</t>
+  </si>
+  <si>
+    <t>Luotettava</t>
+  </si>
+  <si>
+    <t>Tehokas</t>
+  </si>
+  <si>
+    <t>Toimintasuuntautunut</t>
+  </si>
+  <si>
+    <t>Vastavuoroinen</t>
+  </si>
+  <si>
+    <t>Nopeatempoinen</t>
+  </si>
+  <si>
+    <t>Keskittynyt</t>
+  </si>
+  <si>
+    <t>Arvostava</t>
+  </si>
+  <si>
+    <t>Avustava</t>
+  </si>
+  <si>
+    <t>Järjestelmällinen</t>
+  </si>
+  <si>
+    <t>Puolueeton</t>
+  </si>
+  <si>
+    <t>Asiallinen</t>
+  </si>
+  <si>
+    <t>Jung’s 8 Personality Types</t>
+  </si>
+  <si>
+    <t>Jung formulated eight personality types, which are the basis for the Briggs Myers' 16 personalities.  The eight types are:</t>
+  </si>
+  <si>
+    <t>Extraverted Thinking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introverted Thinking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraverted Feeling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introverted Feeling </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extraverted Sensation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introverted Sensation </t>
+  </si>
+  <si>
+    <t>Extraverted Intuition</t>
+  </si>
+  <si>
+    <t>Introverted Intuition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You’ll notice the absence of Judging and Perceiving. Jung made no mention of these traits and they were added later in Myers and Briggs' system. </t>
+  </si>
+  <si>
+    <t>The Basics of Myers &amp; Briggs' Personality Theory</t>
+  </si>
+  <si>
+    <t>The Myers-Briggs system describes a person’s personality through four opposing personality functions, variously known as dichotomies, preferences or scales. The first three preferences are based on the writings of Jung; Katherine Cook Briggs added the final preference, Judging versus Perceiving, based on her own observations.</t>
+  </si>
+  <si>
+    <t>Extraversion vs. Introversion: How do you gain energy? Extraverts like to be with others and gain energy from people and the environment. Introverts gain energy from alone-time and need periods of quiet reflection throughout the day.</t>
+  </si>
+  <si>
+    <t>Sensing vs. Intuition: How do you collect information? Sensors gather facts from their immediate environment and rely on the things they can see, feel and hear. Intuitives look more at the overall context and think about patterns, meaning, and connections.</t>
+  </si>
+  <si>
+    <t>Thinking vs. Feeling: How do you make decisions? Thinkers look for the logically correct solution, whereas Feelers make decisions based on their emotions, values, and the needs of others.</t>
+  </si>
+  <si>
+    <t>Judging vs. Perceiving: How do you organize your environment? Judgers prefer structure and like things to be clearly regulated, whereas Perceivers like things to be open and flexible and are reluctant to commit themselves.</t>
+  </si>
+  <si>
+    <t>ENTJ</t>
+  </si>
+  <si>
+    <t>The Commander</t>
+  </si>
+  <si>
+    <t>Strategic leaders, motivated to organize change</t>
+  </si>
+  <si>
+    <t>INTJ</t>
+  </si>
+  <si>
+    <t>The Mastermind</t>
+  </si>
+  <si>
+    <t>Analytical problem-solvers, eager to improve systems and processes</t>
+  </si>
+  <si>
+    <t>ENTP</t>
+  </si>
+  <si>
+    <t>The Visionary</t>
+  </si>
+  <si>
+    <t>Inspired innovators, seeking new solutions to challenging problems</t>
+  </si>
+  <si>
+    <t>INTP</t>
+  </si>
+  <si>
+    <t>The Architect</t>
+  </si>
+  <si>
+    <t>Philosophical innovators, fascinated by logical analysis</t>
+  </si>
+  <si>
+    <t>ENFJ</t>
+  </si>
+  <si>
+    <t>The Teacher</t>
+  </si>
+  <si>
+    <t>Idealist organizers, driven to do what is best for humanity</t>
+  </si>
+  <si>
+    <t>INFJ</t>
+  </si>
+  <si>
+    <t>The Counselor</t>
+  </si>
+  <si>
+    <t>Creative nurturers, driven by a strong sense of personal integrity</t>
+  </si>
+  <si>
+    <t>ENFP</t>
+  </si>
+  <si>
+    <t>The Champion</t>
+  </si>
+  <si>
+    <t>People-centered creators, motivated by possibilities and potential</t>
+  </si>
+  <si>
+    <t>INFP</t>
+  </si>
+  <si>
+    <t>The Healer</t>
+  </si>
+  <si>
+    <t>Imaginative idealists, guided by their own values and beliefs</t>
+  </si>
+  <si>
+    <t>ESTJ</t>
+  </si>
+  <si>
+    <t>The Supervisor</t>
+  </si>
+  <si>
+    <t>Hardworking traditionalists, taking charge to get things done</t>
+  </si>
+  <si>
+    <t>ISTJ</t>
+  </si>
+  <si>
+    <t>The Inspector</t>
+  </si>
+  <si>
+    <t>Responsible organizers, driven to create order out of chaos</t>
+  </si>
+  <si>
+    <t>ESFJ</t>
+  </si>
+  <si>
+    <t>The Provider</t>
+  </si>
+  <si>
+    <t>Conscientious helpers, dedicated to their duties to others</t>
+  </si>
+  <si>
+    <t>ISFJ</t>
+  </si>
+  <si>
+    <t>The Protector</t>
+  </si>
+  <si>
+    <t>Industrious caretakers, loyal to traditions and institutions</t>
+  </si>
+  <si>
+    <t>ESTP</t>
+  </si>
+  <si>
+    <t>The Dynamo</t>
+  </si>
+  <si>
+    <t>Energetic thrillseekers, ready to push boundaries and dive into action</t>
+  </si>
+  <si>
+    <t>ISTP</t>
+  </si>
+  <si>
+    <t>The Craftsperson</t>
+  </si>
+  <si>
+    <t>Observant troubleshooters, solving practical problems</t>
+  </si>
+  <si>
+    <t>ESFP</t>
+  </si>
+  <si>
+    <t>The Entertainer</t>
+  </si>
+  <si>
+    <t>Vivacious entertainers, loving life and charming those around them</t>
+  </si>
+  <si>
+    <t>ISFP</t>
+  </si>
+  <si>
+    <t>The Composer</t>
+  </si>
+  <si>
+    <t>Gentle caretakers, enjoying the moment with low-key enthusiasm</t>
+  </si>
+  <si>
+    <t>Thinking</t>
+  </si>
+  <si>
+    <t>analytical,</t>
+  </si>
+  <si>
+    <t>strategic, plans,</t>
+  </si>
+  <si>
+    <t>implements,</t>
+  </si>
+  <si>
+    <t>organises others</t>
+  </si>
+  <si>
+    <t>Feeling</t>
+  </si>
+  <si>
+    <t>sociable,</t>
+  </si>
+  <si>
+    <t>sentimental,</t>
+  </si>
+  <si>
+    <t>contemplative,</t>
+  </si>
+  <si>
+    <t>discovering,</t>
+  </si>
+  <si>
+    <t>enigmatic, self-</t>
+  </si>
+  <si>
+    <t>self-knowledge</t>
+  </si>
+  <si>
+    <t>inner intensity</t>
+  </si>
+  <si>
+    <t>Sensation</t>
+  </si>
+  <si>
+    <t>practical, hands-</t>
+  </si>
+  <si>
+    <t>on, pleasure-</t>
+  </si>
+  <si>
+    <t>seeking, hard-</t>
+  </si>
+  <si>
+    <t>headed</t>
+  </si>
+  <si>
+    <t>iNtuition</t>
+  </si>
+  <si>
+    <t>adventurous,</t>
+  </si>
+  <si>
+    <t>innovative, seeks</t>
+  </si>
+  <si>
+    <t>novelty,</t>
+  </si>
+  <si>
+    <t>proposes change</t>
+  </si>
+  <si>
+    <t>obsessive,</t>
+  </si>
+  <si>
+    <t>detached,</t>
+  </si>
+  <si>
+    <t>connoisseur,</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>idealistic,</t>
+  </si>
+  <si>
+    <t>visionary,</t>
+  </si>
+  <si>
+    <t>esoteric,</t>
+  </si>
+  <si>
+    <t>mystical, aloof</t>
+  </si>
+  <si>
+    <t xml:space="preserve">theoretical, seeks </t>
+  </si>
+  <si>
+    <t>contained, seeks</t>
+  </si>
+  <si>
+    <t>seeks personal</t>
+  </si>
+  <si>
+    <t>and social success</t>
+  </si>
+  <si>
+    <t>inaccessible,</t>
+  </si>
+  <si>
+    <t>intense,</t>
+  </si>
+  <si>
+    <t>Extrovert</t>
+  </si>
+  <si>
+    <t>Introvert</t>
+  </si>
+  <si>
+    <t>Ruler</t>
+  </si>
+  <si>
+    <t>Creator/Artist</t>
+  </si>
+  <si>
+    <t>Sage</t>
+  </si>
+  <si>
+    <t>Innocent</t>
+  </si>
+  <si>
+    <t>Explorer</t>
+  </si>
+  <si>
+    <t>Rebel</t>
+  </si>
+  <si>
+    <t>Hero</t>
+  </si>
+  <si>
+    <t>Wizard</t>
+  </si>
+  <si>
+    <t>Jester</t>
+  </si>
+  <si>
+    <t>Everyman</t>
+  </si>
+  <si>
+    <t>Lover</t>
+  </si>
+  <si>
+    <t>Caregiver</t>
+  </si>
+  <si>
+    <t>The 4 Cardinal Orientations</t>
+  </si>
+  <si>
+    <t>The 4 cardinal orientations that the archetypes are seeking to realise are:</t>
+  </si>
+  <si>
+    <t>Ego – Leave a Mark on the World</t>
+  </si>
+  <si>
+    <t>Order – Provide Structure to the World</t>
+  </si>
+  <si>
+    <t>Social – Connect to others</t>
+  </si>
+  <si>
+    <t>Freedom – Yearn for Paradise</t>
+  </si>
+  <si>
+    <t>Detailed Description of Desires, Fears and Talents of each of the 12 Archetypes</t>
+  </si>
+  <si>
+    <t>The Ego Types</t>
+  </si>
+  <si>
+    <t>1. The Innocent</t>
+  </si>
+  <si>
+    <t>Motto: Free to be you and me</t>
+  </si>
+  <si>
+    <t>Core desire: to get to paradise</t>
+  </si>
+  <si>
+    <t>Goal: to be happy</t>
+  </si>
+  <si>
+    <t>Greatest fear: to be punished for doing something bad or wrong</t>
+  </si>
+  <si>
+    <t>Strategy: to do things right</t>
+  </si>
+  <si>
+    <t>Weakness: boring for all their naive innocence</t>
+  </si>
+  <si>
+    <t>Talent: faith and optimism</t>
+  </si>
+  <si>
+    <t>The Innocent is also known as: Utopian, traditionalist, naive, mystic, saint, romantic, dreamer.</t>
+  </si>
+  <si>
+    <t>2. The Everyman</t>
+  </si>
+  <si>
+    <t>Motto: All men and women are created equal</t>
+  </si>
+  <si>
+    <t>Core Desire: connecting with others</t>
+  </si>
+  <si>
+    <t>Goal: to belong</t>
+  </si>
+  <si>
+    <t>Greatest fear: to be left out or to stand out from the crowd</t>
+  </si>
+  <si>
+    <t>Strategy: develop ordinary solid virtues, be down to earth, the common touch</t>
+  </si>
+  <si>
+    <t>Weakness: losing one’s own self in an effort to blend in or for the sake of superficial relationships</t>
+  </si>
+  <si>
+    <t>Talent: realism, empathy, lack of pretense</t>
+  </si>
+  <si>
+    <t>The Everyman is also known as: The good old boy, regular guy/girl, the person next door, the realist, the working stiff, the solid citizen, the good neighbor, the silent majority.</t>
+  </si>
+  <si>
+    <t>3. The Hero</t>
+  </si>
+  <si>
+    <t>Motto: Where there’s a will, there’s a way</t>
+  </si>
+  <si>
+    <t>Core desire: to prove one’s worth through courageous acts</t>
+  </si>
+  <si>
+    <t>Goal: expert mastery in a way that improves the world</t>
+  </si>
+  <si>
+    <t>Greatest fear: weakness, vulnerability, being a “chicken”</t>
+  </si>
+  <si>
+    <t>Strategy: to be as strong and competent as possible</t>
+  </si>
+  <si>
+    <t>Weakness: arrogance, always needing another battle to fight</t>
+  </si>
+  <si>
+    <t>Talent: competence and courage</t>
+  </si>
+  <si>
+    <t>The Hero is also known as: The warrior, crusader, rescuer, superhero, the soldier, dragon slayer, the winner and the team player.</t>
+  </si>
+  <si>
+    <t>4. The Caregiver</t>
+  </si>
+  <si>
+    <t>Motto: Love your neighbour as yourself</t>
+  </si>
+  <si>
+    <t>Core desire: to protect and care for others</t>
+  </si>
+  <si>
+    <t>Goal: to help others</t>
+  </si>
+  <si>
+    <t>Greatest fear: selfishness and ingratitude</t>
+  </si>
+  <si>
+    <t>Strategy: doing things for others</t>
+  </si>
+  <si>
+    <t>Weakness: martyrdom and being exploited</t>
+  </si>
+  <si>
+    <t>Talent: compassion, generosity</t>
+  </si>
+  <si>
+    <t>The Caregiver is also known as: The saint, altruist, parent, helper, supporter.</t>
+  </si>
+  <si>
+    <t>5. The Explorer</t>
+  </si>
+  <si>
+    <t>Motto: Don’t fence me in</t>
+  </si>
+  <si>
+    <t>Core desire: the freedom to find out who you are through exploring the world</t>
+  </si>
+  <si>
+    <t>Goal: to experience a better, more authentic, more fulfilling life</t>
+  </si>
+  <si>
+    <t>Biggest fear: getting trapped, conformity, and inner emptiness</t>
+  </si>
+  <si>
+    <t>Strategy: journey, seeking out and experiencing new things, escape from boredom</t>
+  </si>
+  <si>
+    <t>Talent: autonomy, ambition, being true to one’s soul</t>
+  </si>
+  <si>
+    <t>The explorer is also known as: The seeker, iconoclast, wanderer, individualist, pilgrim.</t>
+  </si>
+  <si>
+    <t>6. The Rebel</t>
+  </si>
+  <si>
+    <t>Motto: Rules are made to be broken</t>
+  </si>
+  <si>
+    <t>Core desire: revenge or revolution</t>
+  </si>
+  <si>
+    <t>Goal: to overturn what isn’t working</t>
+  </si>
+  <si>
+    <t>Greatest fear: to be powerless or ineffectual</t>
+  </si>
+  <si>
+    <t>Strategy: disrupt, destroy, or shock</t>
+  </si>
+  <si>
+    <t>Weakness: crossing over to the dark side, crime</t>
+  </si>
+  <si>
+    <t>Talent: outrageousness, radical freedom</t>
+  </si>
+  <si>
+    <t>The Outlaw is also known as: The rebel, revolutionary, wild man, the misfit, or iconoclast.</t>
+  </si>
+  <si>
+    <t>7. The Lover</t>
+  </si>
+  <si>
+    <t>Motto: You’re the only one</t>
+  </si>
+  <si>
+    <t>Core desire: intimacy and experience</t>
+  </si>
+  <si>
+    <t>Goal: being in a relationship with the people, work and surroundings they love</t>
+  </si>
+  <si>
+    <t>Greatest fear: being alone, a wallflower, unwanted, unloved</t>
+  </si>
+  <si>
+    <t>Strategy: to become more and more physically and emotionally attractive</t>
+  </si>
+  <si>
+    <t>Weakness: outward-directed desire to please others at risk of losing own identity</t>
+  </si>
+  <si>
+    <t>Talent: passion, gratitude, appreciation, and commitment</t>
+  </si>
+  <si>
+    <t>The Lover is also known as: The partner, friend, intimate, enthusiast, sensualist, spouse, team-builder.</t>
+  </si>
+  <si>
+    <t>8. The Creator/Artist</t>
+  </si>
+  <si>
+    <t>Motto: If you can imagine it, it can be done</t>
+  </si>
+  <si>
+    <t>Core desire: to create things of enduring value</t>
+  </si>
+  <si>
+    <t>Goal: to realize a vision</t>
+  </si>
+  <si>
+    <t>Greatest fear: mediocre vision or execution</t>
+  </si>
+  <si>
+    <t>Strategy: develop artistic control and skill</t>
+  </si>
+  <si>
+    <t>Task: to create culture, express own vision</t>
+  </si>
+  <si>
+    <t>Weakness: perfectionism, bad solutions</t>
+  </si>
+  <si>
+    <t>Talent: creativity and imagination</t>
+  </si>
+  <si>
+    <t>The Creator is also known as: The artist, inventor, innovator, musician, writer or dreamer.</t>
+  </si>
+  <si>
+    <t>9. The Jester</t>
+  </si>
+  <si>
+    <t>Motto: You only live once</t>
+  </si>
+  <si>
+    <t>Core desire: to live in the moment with full enjoyment</t>
+  </si>
+  <si>
+    <t>Goal: to have a great time and lighten up the world</t>
+  </si>
+  <si>
+    <t>Greatest fear: being bored or boring others</t>
+  </si>
+  <si>
+    <t>Strategy: play, make jokes, be funny</t>
+  </si>
+  <si>
+    <t>Weakness: frivolity, wasting time</t>
+  </si>
+  <si>
+    <t>Talent: joy</t>
+  </si>
+  <si>
+    <t>The Jester is also known as: The fool, trickster, joker, practical joker or comedian.</t>
+  </si>
+  <si>
+    <t>10. The Sage</t>
+  </si>
+  <si>
+    <t>Motto: The truth will set you free</t>
+  </si>
+  <si>
+    <t>Core desire: to find the truth.</t>
+  </si>
+  <si>
+    <t>Goal: to use intelligence and analysis to understand the world.</t>
+  </si>
+  <si>
+    <t>Biggest fear: being duped, misled—or ignorance.</t>
+  </si>
+  <si>
+    <t>Strategy: seeking out information and knowledge; self-reflection and understanding thought processes.</t>
+  </si>
+  <si>
+    <t>Weakness: can study details forever and never act.</t>
+  </si>
+  <si>
+    <t>Talent: wisdom, intelligence.</t>
+  </si>
+  <si>
+    <t>The Sage is also known as: The expert, scholar, detective, advisor, thinker, philosopher, academic, researcher, thinker, planner, professional, mentor, teacher, contemplative.</t>
+  </si>
+  <si>
+    <t>11. The Magician</t>
+  </si>
+  <si>
+    <t>Motto: I make things happen.</t>
+  </si>
+  <si>
+    <t>Core desire: understanding the fundamental laws of the universe</t>
+  </si>
+  <si>
+    <t>Goal: to make dreams come true</t>
+  </si>
+  <si>
+    <t>Greatest fear: unintended negative consequences</t>
+  </si>
+  <si>
+    <t>Strategy: develop a vision and live by it</t>
+  </si>
+  <si>
+    <t>Weakness: becoming manipulative</t>
+  </si>
+  <si>
+    <t>Talent: finding win-win solutions</t>
+  </si>
+  <si>
+    <t>The Magician is also known as:The visionary, catalyst, inventor, charismatic leader, shaman, healer, medicine man.</t>
+  </si>
+  <si>
+    <t>12. The Ruler</t>
+  </si>
+  <si>
+    <t>Motto: Power isn’t everything, it’s the only thing.</t>
+  </si>
+  <si>
+    <t>Core desire: control</t>
+  </si>
+  <si>
+    <t>Goal: create a prosperous, successful family or community</t>
+  </si>
+  <si>
+    <t>Strategy: exercise power</t>
+  </si>
+  <si>
+    <t>Greatest fear: chaos, being overthrown</t>
+  </si>
+  <si>
+    <t>Weakness: being authoritarian, unable to delegate</t>
+  </si>
+  <si>
+    <t>Talent: responsibility, leadership</t>
+  </si>
+  <si>
+    <t>The Ruler is also known as: The boss, leader, aristocrat, king, queen, politician, role model, manager or administrator.</t>
+  </si>
+  <si>
+    <t>Yksityiskohtainen kuvaus jokaisen 12 arkkityypin haluista, peloista ja kyvyistä</t>
+  </si>
+  <si>
+    <t>Ego-tyypit</t>
+  </si>
+  <si>
+    <t>1. Viaton</t>
+  </si>
+  <si>
+    <t>Ydintoive: päästä paratiisiin</t>
+  </si>
+  <si>
+    <t>Tavoite: olla onnellinen</t>
+  </si>
+  <si>
+    <t>Strategia: tehdä asiat oikein</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: usko ja optimismi</t>
+  </si>
+  <si>
+    <t>Ydintoive: yhteydenpito muiden kanssa</t>
+  </si>
+  <si>
+    <t>Suurin pelko: jäädä ulkopuolelle tai erottua joukosta</t>
+  </si>
+  <si>
+    <t>Heikkous: oman itsensä menettäminen pyrkiessään sulautumaan pinnallisiin ihmissuhteisiin tai niiden vuoksi</t>
+  </si>
+  <si>
+    <t>3. Sankari</t>
+  </si>
+  <si>
+    <t>Ydintoive: todistaa arvonsa rohkeilla teoilla</t>
+  </si>
+  <si>
+    <t>Strategia: olla mahdollisimman vahva ja pätevä</t>
+  </si>
+  <si>
+    <t>Tavoite: auttaa muita</t>
+  </si>
+  <si>
+    <t>Suurin pelko: itsekkyys ja kiittämättömyys</t>
+  </si>
+  <si>
+    <t>Strategia: tehdä asioita toisten puolesta</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: myötätunto, anteliaisuus</t>
+  </si>
+  <si>
+    <t>Suurin pelko: loukkuun jääminen, mukautuminen ja sisäinen tyhjyys</t>
+  </si>
+  <si>
+    <t>Heikkous: päämäärätön vaeltaminen, sopimattomuus</t>
+  </si>
+  <si>
+    <t>6. Kapinallinen</t>
+  </si>
+  <si>
+    <t>Ydintoive: kosto tai vallankumous</t>
+  </si>
+  <si>
+    <t>Suurin pelko: olla voimaton tai tehoton</t>
+  </si>
+  <si>
+    <t>Heikkous: siirtyminen pimeälle puolelle, rikollisuus</t>
+  </si>
+  <si>
+    <t>7. Rakastaja</t>
+  </si>
+  <si>
+    <t>Ydintoive: läheisyys ja kokemus</t>
+  </si>
+  <si>
+    <t>Tavoite: olla suhteessa rakastamiinsa ihmisiin, työhön ja ympäristöön</t>
+  </si>
+  <si>
+    <t>Suurin pelko: yksin oleminen, seinäkukka, ei-toivottu, ei-rakastettu</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: intohimo, kiitollisuus, arvostus ja sitoutuminen</t>
+  </si>
+  <si>
+    <t>Motto: Jos voit kuvitella sen, se voidaan tehdä</t>
+  </si>
+  <si>
+    <t>Ydintoive: luoda asioita, joilla on pysyvää arvoa</t>
+  </si>
+  <si>
+    <t>Strategia: kehittää taiteellista hallintaa ja taitoa</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: luovuus ja mielikuvitus</t>
+  </si>
+  <si>
+    <t>Ydintoive: elää hetkessä täydellä nautinnolla</t>
+  </si>
+  <si>
+    <t>Tavoite: pitää hauskaa ja valaista maailmaa</t>
+  </si>
+  <si>
+    <t>Strategia: pelaa, tee vitsejä, ole hauska</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: ilo</t>
+  </si>
+  <si>
+    <t>11. Taikuri</t>
+  </si>
+  <si>
+    <t>Tavoite: tehdä unelmista totta</t>
+  </si>
+  <si>
+    <t>Suurin pelko: tahattomat negatiiviset seuraukset</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: win-win-ratkaisujen löytäminen</t>
+  </si>
+  <si>
+    <t>12. Hallitsija</t>
+  </si>
+  <si>
+    <t>Ydintoive: hallinta</t>
+  </si>
+  <si>
+    <t>Tavoite: luoda vauras, menestyvä perhe tai yhteisö</t>
+  </si>
+  <si>
+    <t>Strategia: harjoittele voimaa</t>
+  </si>
+  <si>
+    <t>Suurin pelko: kaaos, kukistuminen</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: vastuullisuus, johtajuus</t>
+  </si>
+  <si>
+    <t>10. Tietäjä</t>
+  </si>
+  <si>
+    <t>9. Narri</t>
+  </si>
+  <si>
+    <t>2. Tavis</t>
+  </si>
+  <si>
+    <t>Tavoite: olla hyväksytty</t>
+  </si>
+  <si>
+    <t>Motto: kaikki miehet ja naiset on luotu tasa-arvoisiksi</t>
+  </si>
+  <si>
+    <t>Heikkous: tylsä kaikesta naiivista viattomuudestaan</t>
+  </si>
+  <si>
+    <t>Suurin pelko: tulla rangaistuksi tekemästä jotain pahaa tai väärin</t>
+  </si>
+  <si>
+    <t>Motto: vapaus olla sinä ja minä</t>
+  </si>
+  <si>
+    <t>Strategia: kehittää tavallisia vankkoja hyveitä, olla maanläheinen, yhteinen kosketus</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: käytännöllisyys, myötätunto, teeskentelettömyys</t>
+  </si>
+  <si>
+    <t>Tavis tunnetaan myös nimellä:  kunnon vanhapoika/vanhapiika, tavallinen poika/tyttö, hyvä naapuri, käytännöllinen, kunnon kansalainen,  hiljainen enemmistö</t>
+  </si>
+  <si>
+    <t>Motto: mistä löytyy tahtoa, löytyy myös keinoja</t>
+  </si>
+  <si>
+    <t>Tavoite: asiantunteva hallinta tavalla, joka parantaa maailmaa</t>
+  </si>
+  <si>
+    <t>Suurin pelko: heikkous, haavoittuvuus, pelokkuus</t>
+  </si>
+  <si>
+    <t>Heikkous: ylimielisyys, taistelunhaluinen</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: pätevyys ja rohkeus</t>
+  </si>
+  <si>
+    <t>Sankari tunnetaan myös nimellä: soturi, ristiretkeläinen, pelastaja, supersankari, lohikäärmeen tappaja, voittaja ja joukkuepelaaja.</t>
+  </si>
+  <si>
+    <t>Motto: rakasta lähimmäistäsi niin kuin itseäsi</t>
+  </si>
+  <si>
+    <t>Ydintoive: suojella ja huolehtia muista</t>
+  </si>
+  <si>
+    <t>Heikkous: uhrautuvuus ja hyväksikäytettävyys</t>
+  </si>
+  <si>
+    <t>Motto: Älä aitaa minua sisään</t>
+  </si>
+  <si>
+    <t>Ydintoive: vapaus saada selville kuka olet tutkimalla maailmaa</t>
+  </si>
+  <si>
+    <t>Tavoite: kokea parempaa, aitoa, merkityksellisempää elämää</t>
+  </si>
+  <si>
+    <t>Strategia: matka, uusien asioiden etsiminen ja kokeminen, paeta tylsyyttä</t>
+  </si>
+  <si>
+    <t>Weakness: aimless wandering, epäonnistuminen</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: itsenäisyys, kunnianhimo, olla sielulleen uskollinen</t>
+  </si>
+  <si>
+    <t>Motto: säännöt on tehty rikottaviksi</t>
+  </si>
+  <si>
+    <t>Tavoite: kumota se mikä ei toimi</t>
+  </si>
+  <si>
+    <t>Strategia: häiritä, tuhota tai järkyttää</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: röyhkeys, täydellinen vapaus</t>
+  </si>
+  <si>
+    <t>Lainsuojaton tunnetaan myös nimellä: kapinallinen, vallankumouksellinen, villimies, sopimaton tai kuvainkieltäjä.</t>
+  </si>
+  <si>
+    <t>Motto: sinä olet ainoa</t>
+  </si>
+  <si>
+    <t>Strategia: tulla yhä enemmän fyysisesti ja emotionaalisesti viehättäväksi</t>
+  </si>
+  <si>
+    <t>Heikkous: ulospäin suuntautunut halu miellyttää muita oman persoonallisuuden kustannuksella</t>
+  </si>
+  <si>
+    <t>Rakastaja tunnetaan myös nimellä: kumppani, ystävä, läheinen, innostunut, miellyttäjä, puoliso, tiiminrakentaja</t>
+  </si>
+  <si>
+    <t>Tavoite: toteuttaa mielikuva</t>
+  </si>
+  <si>
+    <t>Suurin pelko: keskinkertainen mielikuva tai teloitus</t>
+  </si>
+  <si>
+    <t>Tehtävä: luoda kulttuuria, ilmaista omaa mielikuvaa</t>
+  </si>
+  <si>
+    <t>Heikkous: täydellisyys, huonot ratkaisut</t>
+  </si>
+  <si>
+    <t>Motto: elät vain kerran</t>
+  </si>
+  <si>
+    <t>Suurin pelko: tylsistyminen tai saada muut tylsistymään</t>
+  </si>
+  <si>
+    <t>Heikkous: kevytmielisyys, ajanhukka</t>
+  </si>
+  <si>
+    <t>Jester tunnetaan myös nimellä: hullu, huijari, jokeri, taikuri tai koomikko.</t>
+  </si>
+  <si>
+    <t>Motto: totuus vapauttaa sinut</t>
+  </si>
+  <si>
+    <t>Ydintoive: löytää totuus</t>
+  </si>
+  <si>
+    <t>Tavoite: käyttää älyä ja analyyseja maailman ymmärtämiseen</t>
+  </si>
+  <si>
+    <t>Suurin pelko: joutuminen huijatuksi, harhaanjohdetuksi tai tietämättömäksi</t>
+  </si>
+  <si>
+    <t>Strategia: tiedon etsiminen; itsetutkiskelun ja ajatusprosessien ymmärtämistä</t>
+  </si>
+  <si>
+    <t>Heikkous: voi tutkia yksityiskohtia ikuisesti siirtymästä käytäntöön</t>
+  </si>
+  <si>
+    <t>Lahjakkuus: viisaus, älykkyys</t>
+  </si>
+  <si>
+    <t>Motto: saan asiat tapahtumaan</t>
+  </si>
+  <si>
+    <t>Ydintoive: maailmankaikkeuden universaalien lainalaisuuksien ymmärtäminen</t>
+  </si>
+  <si>
+    <t>Strategia: kehitä mielikuva ja elä sen mukaan</t>
+  </si>
+  <si>
+    <t>Heikkous: hyväksikäytetyksi tuleminen</t>
+  </si>
+  <si>
+    <t>Taikuri tunnetaan myös nimellä: edelläkävijä, myötävaikuttaa, keksijä, puoleensavetävä johtaja, tietäjä, parantaja, lääkintämies</t>
+  </si>
+  <si>
+    <t>Motto: valta ei ole kaikki kaikessa, se on ainoa asia</t>
+  </si>
+  <si>
+    <t>Hallitsija tunnetaan myös nimellä: pomo, johtaja, ylimys, kuningas, kuningatar, poliitikko, roolimalli, johtaja tai järjestelmänvalvoja</t>
+  </si>
+  <si>
+    <t>Heikkous: itsevaltaisuus, kyvyttömyys valtuuttaa</t>
+  </si>
+  <si>
+    <t>1. Viisas</t>
+  </si>
+  <si>
+    <t>Viisas on vapaa ajattelija. Hänen älynsä ja tietonsa on hänen elämänsä syy ja olemus. Hän pyrkii ymmärtämään maailmaa ja olemustaan ​​käyttämällä älykkyyttä ja analyyttisiä taitoja. Hänellä on aina fakta, lainaus tai looginen argumentti kielen päällä.</t>
+  </si>
+  <si>
+    <t>2. Viaton</t>
+  </si>
+  <si>
+    <t>Näyttää aivan siltä kuin viaton olisi lukenut ja sisäistänyt jokaisen itseapukirjan maailmassa. Hän on optimistinen ja etsii aina onnea. Viaton näkee hyvää kaikessa. Hän haluaa tuntea olonsa hyvin sopeutuneeksi ympäröivään maailmaan. Viaton haluaa myös miellyttää toisia ja tuntea kuuluvansa joukkoon.</t>
+  </si>
+  <si>
+    <t>3. Tutkimusmatkailija</t>
+  </si>
+  <si>
+    <t>Tutkimusmatkailija on rohkea matkustaja. Hän lähtee liikkeelle ilman selkeää polkua ja on aina avoin uusille seikkailuille. Tutkimusmatkailijalla on syvä rakkaus uusien paikkojen löytämiseen ja uusien asioiden löytämiseen itsestään. Tutkimusmatkailijan arkkityypin haittapuoli on se, että hän etsii aina täydellisyyttä ja että hän ei ole koskaan tyytyväinen.</t>
+  </si>
+  <si>
+    <t>4. Hallitsija</t>
+  </si>
+  <si>
+    <t>Hallitsija on klassinen johtaja. Hän uskoo, että hänen pitäisi olla sellainen, joka tuo järjestyksen mihin tahansa tilanteeseen. Hallitsija on vakaa, pyrkii huippuosaamiseen ja haluaa, että jokainen seuraa hänen johtajuuttaan. Hänellä on yleensä paljon syitä, miksi kaikkien pitäisi kuunnella heitä. Tämä on yksi niistä arkkityypeistä, jotka liittyvät valtaan. Hallitsija haluaa saada kaikki tottelemaan itseään ja saattaakin helposti muuttua tyranniksi.</t>
+  </si>
+  <si>
+    <t>5. Luoja</t>
+  </si>
+  <si>
+    <t>Luojalla on syvällinen halu vapauteen, koska hän rakastaa uusia asioita. Hän rakastaa asioiden muuttamista saadakseen jotain aivan uutta. Luoja on fiksu, toisinajattelija ja omavarainen. Hänellä on hyvä mielikuvitus ja huumorintaju. Hän saattaa kuitenkin olla myös epäjohdonmukainen ​​ja viettää enemmän aikaa ajatellen kuin toimien.</t>
+  </si>
+  <si>
+    <t>6. Hoitaja</t>
+  </si>
+  <si>
+    <t>Hoitaja tuntee olevansa vahvempi kuin muut. Niinpä hän tarjoaa äidillistä suojelua ympärillään oleville. Hän haluaa suojella ihmisiä vahingoittumiselta ja yrittää olla estämättä muiden ihmisten onnellisuutta. Äärimmäisissä tapauksissa hoitaja muuttuu marttyyriksi, joka muistuttaa jatkuvasti kaikkia uhrauksistaan.</t>
+  </si>
+  <si>
+    <t>7. Taikuri</t>
+  </si>
+  <si>
+    <t>Taikuri on kuin suuri vallankumouksellinen. Hän uudistuu paitsi itselleen, myös muille. Hän kasvaa ja muuttuu jatkuvasti. Taikurin arkkityypin negatiivinen puoli on, että hänen mielialansa voi olla tarttuva. Toisinaan hän muuttaa positiivisia tapahtumia negatiivisiksi.</t>
+  </si>
+  <si>
+    <t>8. Sankari</t>
+  </si>
+  <si>
+    <t>Sankarin elämän keskiössä on valta. Sankarilla on harvinaista elinvoimaa ja kestävyyttä, jota hän käyttää taistellakseen vallan tai kunnian puolesta. Hän tekee kaikkensa välttääkseen tappiota. Itse asiassa hän ei häviä, koska hän ei koskaan anna periksi. Sankari voi olla liian kunnianhimoinen ja hallitseva.</t>
+  </si>
+  <si>
+    <t>9. Kapinallinen</t>
+  </si>
+  <si>
+    <t>Kapinallinen on sääntöjen rikkoja. Hän herättää ihmisiä eikä välitä lainkaan muiden ihmisten mielipiteistä. Tämän seurauksena hän tykkää mennä valtavirtaa vastaan ​​ja ajattelee itsenäisesti. Hän ei halua, että häntä painostetaan tai että häneen vaikutetaan. Kapinallisen arkkityypin kielteinen puoli on se, että hänestä saattaa tulla itsetuhoinen.</t>
+  </si>
+  <si>
+    <t>10. Rakastaja</t>
+  </si>
+  <si>
+    <t>Rakastaja on sydämellinen ja herkkä. Hän rakastaa rakkautta ja rakastaa sen ylenmääräistä antamista muille ihmisille. Hänen suurin onnen tunteensa on olla rakastettu. Hän nauttii kaikesta, joka miellyttää aisteja. Hän arvostaa kauneutta (kaikessa sanan merkityksessä) ennen kaikkea.</t>
+  </si>
+  <si>
+    <t>11. Narri</t>
+  </si>
+  <si>
+    <t>Narri haluaa nauraa, jopa itselleen. Hän ei käytä naamioita ja pyrkii hajottamaan muiden ihmisten muurit. Hän ei koskaan ota itseään vakavasti, koska hänen tavoitteensa on nauttia elämästä. Narrin kielteinen puoli on se, että hän saattaa olla kateellinen, laiska ja ahne.</t>
+  </si>
+  <si>
+    <t>12. Orpo</t>
+  </si>
+  <si>
+    <t>Orvolla on avoimia haavoja. Hän tuntee olevansa petetty ja pettynyt. Hän haluaa, että muut ihmiset ottavat vastuun hänen elämästään. Kun kukaan ei tee niin, hän pettyy. Hänellä on tapana viettää aikaa samankaltaisten ihmisten kanssa. Orpo esiintyy usein uhrina. Hän väittää olevansa viaton. Orvolla on kyyninen puoli ja lahjakkuus manipuloida.</t>
+  </si>
+  <si>
+    <t>Tietäjä tunnetaan myös nimellä: asiantuntija, tutkija, etsivä, neuvonantaja, ajattelija, akateeminen tutkija, ajattelija, suunnittelija, ammattilainen, neuvoja, opettaja, mietiskelijä</t>
+  </si>
+  <si>
+    <t>Viaton tunnetaan myös nimellä: haaveilija, perinteinen, herkkäuskoinen, uskoo yliluonnolliseen, pyhimys, romantikko, unelmoija</t>
+  </si>
+  <si>
+    <t>Hoitaja tunnetaan myös nimellä: pyhimys, pyyteetön, vanhempi, auttaja, tukija.</t>
+  </si>
+  <si>
+    <t>4. Hoitaja</t>
+  </si>
+  <si>
+    <t>5. Tutkimusmatkailija</t>
+  </si>
+  <si>
+    <t>Tutkimusmatkailija tunnetaan myös nimellä: etsijä, kuvainkieltäjä, vaeltaja, yksilökeskeinen, pyhiinvaeltaja.</t>
+  </si>
+  <si>
+    <t>8. Luoja</t>
+  </si>
+  <si>
+    <t>Luoja tunnetaan myös nimellä: taiteilija, keksijä, uudistaja, muusikko, kirjailija tai unelmoija</t>
   </si>
 </sst>
 </file>
@@ -7731,6 +9307,1582 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet9!$B$120:$B$127</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>E</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>F</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>G</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>H</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$C$120:$C$127</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-431B-C94E-B529-7F754576378E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet9!$B$142:$B$145</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>B</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>C</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet9!$C$142:$C$145</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98D6-B94A-AD92-BBBF887625E8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7936,6 +11088,298 @@
         <a:xfrm>
           <a:off x="345300" y="6063226"/>
           <a:ext cx="6952904" cy="3645635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>608748</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>40300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>299407</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F93D99A2-5BC7-6440-A749-C2CC15898659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>559084</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>4825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>249743</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>66125</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE95B43C-C0AA-2A44-B284-CBBB4E8E8119}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F93D99A2-5BC7-6440-A749-C2CC15898659}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>179493</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>484293</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>111760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BD52141-A08E-E947-A818-101256971BAF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{AE95B43C-C0AA-2A44-B284-CBBB4E8E8119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6275493" y="33639760"/>
+          <a:ext cx="1524000" cy="1333500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>35560</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>60961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D76B2C7-0A60-0142-BF05-8D0BFBD7677E}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{8BD52141-A08E-E947-A818-101256971BAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5521960" y="18006061"/>
+          <a:ext cx="5549900" cy="3390900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340360</xdr:colOff>
+      <xdr:row>346</xdr:row>
+      <xdr:rowOff>31327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>364</xdr:row>
+      <xdr:rowOff>44027</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F713AE19-D981-284E-AE98-49E2F0E532D1}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{1D76B2C7-0A60-0142-BF05-8D0BFBD7677E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3388360" y="65944327"/>
+          <a:ext cx="4064000" cy="3441700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>94827</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>5927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>426158</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>64347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85C22E08-B254-3148-B9D4-FCA844301E6C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{F713AE19-D981-284E-AE98-49E2F0E532D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3142827" y="59441927"/>
+          <a:ext cx="5208131" cy="5201920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -30929,7 +34373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DADD8B2-5FFB-BF46-B2B0-227488F61A1E}">
   <dimension ref="A12:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -31045,4 +34489,2523 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08AB43A-08FB-8D41-A89B-851143503EC9}">
+  <dimension ref="A2:M530"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A516" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M462" sqref="M462"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2538</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2541</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2542</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>2543</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>2544</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>2545</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>2551</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>2552</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>2553</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>2554</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>2557</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>2559</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>2560</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>2561</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>2562</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>2563</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>2564</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>2566</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>2568</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>2569</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>2572</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>2573</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>2574</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B73" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B79" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B80" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B84" t="s">
+        <v>2583</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B86" t="s">
+        <v>2585</v>
+      </c>
+    </row>
+    <row r="87" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B87" t="s">
+        <v>2586</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B88" t="s">
+        <v>2587</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B89" t="s">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B90" t="s">
+        <v>2589</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B91" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B92" t="s">
+        <v>2591</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B95" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C95" t="s">
+        <v>2645</v>
+      </c>
+      <c r="G95" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H95" t="s">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B96" t="s">
+        <v>2592</v>
+      </c>
+      <c r="C96" t="s">
+        <v>2630</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2629</v>
+      </c>
+      <c r="G96" t="s">
+        <v>2609</v>
+      </c>
+      <c r="H96" t="s">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B97" t="s">
+        <v>2593</v>
+      </c>
+      <c r="C97" t="s">
+        <v>2631</v>
+      </c>
+      <c r="G97" t="s">
+        <v>2610</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B98" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C98" t="s">
+        <v>2646</v>
+      </c>
+      <c r="G98" t="s">
+        <v>262</v>
+      </c>
+      <c r="H98" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B99" t="s">
+        <v>2595</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2647</v>
+      </c>
+      <c r="G99" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H99" t="s">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B100" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G100" t="s">
+        <v>2612</v>
+      </c>
+      <c r="H100" t="s">
+        <v>2654</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>136</v>
+      </c>
+      <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2613</v>
+      </c>
+      <c r="H101" t="s">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B102" t="s">
+        <v>2597</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2648</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2614</v>
+      </c>
+      <c r="H102" t="s">
+        <v>2655</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B103" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C103" t="s">
+        <v>2649</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2615</v>
+      </c>
+      <c r="H103" t="s">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B104" t="s">
+        <v>2599</v>
+      </c>
+      <c r="C104" t="s">
+        <v>2650</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2616</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B105" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1302</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2617</v>
+      </c>
+      <c r="H105" t="s">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B106" t="s">
+        <v>2602</v>
+      </c>
+      <c r="C106" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2601</v>
+      </c>
+      <c r="G106" t="s">
+        <v>855</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B107" t="s">
+        <v>2603</v>
+      </c>
+      <c r="C107" t="s">
+        <v>2633</v>
+      </c>
+      <c r="G107" t="s">
+        <v>2618</v>
+      </c>
+      <c r="H107" t="s">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B108" t="s">
+        <v>980</v>
+      </c>
+      <c r="C108" t="s">
+        <v>981</v>
+      </c>
+      <c r="G108" t="s">
+        <v>2619</v>
+      </c>
+      <c r="H108" t="s">
+        <v>2658</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B109" t="s">
+        <v>2604</v>
+      </c>
+      <c r="C109" t="s">
+        <v>2634</v>
+      </c>
+      <c r="G109" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B110" t="s">
+        <v>2605</v>
+      </c>
+      <c r="C110" t="s">
+        <v>2635</v>
+      </c>
+      <c r="G110" t="s">
+        <v>2621</v>
+      </c>
+      <c r="H110" t="s">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B111" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2628</v>
+      </c>
+      <c r="G111" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H111" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B112" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2652</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
+        <v>2607</v>
+      </c>
+      <c r="C113" t="s">
+        <v>392</v>
+      </c>
+      <c r="G113" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H113" t="s">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>2608</v>
+      </c>
+      <c r="C114" t="s">
+        <v>69</v>
+      </c>
+      <c r="G114" t="s">
+        <v>2624</v>
+      </c>
+      <c r="H114" t="s">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2625</v>
+      </c>
+      <c r="H115" t="s">
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B120" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C120">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
+        <v>831</v>
+      </c>
+      <c r="C121">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C122">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B123" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C123">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B124" t="s">
+        <v>2659</v>
+      </c>
+      <c r="C124">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B125" t="s">
+        <v>2660</v>
+      </c>
+      <c r="C125">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B126" t="s">
+        <v>2661</v>
+      </c>
+      <c r="C126">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B127" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C127">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C142">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
+        <v>831</v>
+      </c>
+      <c r="C143">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C144">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C145">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B163" t="s">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B167" t="s">
+        <v>2666</v>
+      </c>
+    </row>
+    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B169" t="s">
+        <v>2667</v>
+      </c>
+    </row>
+    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B176" t="s">
+        <v>2670</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G176" t="s">
+        <v>126</v>
+      </c>
+      <c r="I176" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2682</v>
+      </c>
+      <c r="G177" t="s">
+        <v>2676</v>
+      </c>
+      <c r="I177" t="s">
+        <v>2685</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
+        <v>2679</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2693</v>
+      </c>
+      <c r="G178" t="s">
+        <v>2219</v>
+      </c>
+      <c r="I178" t="s">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
+        <v>2672</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2692</v>
+      </c>
+      <c r="G179" t="s">
+        <v>2681</v>
+      </c>
+      <c r="I179" t="s">
+        <v>2688</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2683</v>
+      </c>
+      <c r="G180" t="s">
+        <v>2678</v>
+      </c>
+      <c r="I180" t="s">
+        <v>2686</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B182" t="s">
+        <v>133</v>
+      </c>
+      <c r="D182" t="s">
+        <v>36</v>
+      </c>
+      <c r="G182" t="s">
+        <v>2677</v>
+      </c>
+      <c r="I182" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
+        <v>2673</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G183" t="s">
+        <v>124</v>
+      </c>
+      <c r="I183" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2684</v>
+      </c>
+      <c r="G184" t="s">
+        <v>2606</v>
+      </c>
+      <c r="I184" t="s">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
+        <v>108</v>
+      </c>
+      <c r="D185" t="s">
+        <v>20</v>
+      </c>
+      <c r="G185" t="s">
+        <v>2216</v>
+      </c>
+      <c r="I185" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D186" t="s">
+        <v>2690</v>
+      </c>
+      <c r="G186" t="s">
+        <v>153</v>
+      </c>
+      <c r="I186" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B191" t="s">
+        <v>2695</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B194" t="s">
+        <v>2697</v>
+      </c>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
+        <v>2698</v>
+      </c>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
+        <v>2702</v>
+      </c>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
+        <v>2703</v>
+      </c>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
+        <v>2705</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B205" t="s">
+        <v>2706</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B208" t="s">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B209" t="s">
+        <v>2709</v>
+      </c>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B210" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B211" t="s">
+        <v>2711</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B216" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B217" t="s">
+        <v>2713</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B219" t="s">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B221" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B222" t="s">
+        <v>2716</v>
+      </c>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B224" t="s">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B226" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B227" t="s">
+        <v>2719</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B229" t="s">
+        <v>2720</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B231" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B232" t="s">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B234" t="s">
+        <v>2723</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B236" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B237" t="s">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B239" t="s">
+        <v>2726</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B241" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B242" t="s">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B244" t="s">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B246" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B247" t="s">
+        <v>2731</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B249" t="s">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B251" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B252" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B254" t="s">
+        <v>2735</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B256" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B257" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B259" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B261" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B262" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B264" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B266" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B267" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B269" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B271" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B272" t="s">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B274" t="s">
+        <v>2747</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B276" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B277" t="s">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B279" t="s">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B281" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B282" t="s">
+        <v>2752</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B284" t="s">
+        <v>2753</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B286" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B287" t="s">
+        <v>2755</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B289" t="s">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B291" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B292" t="s">
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B294" t="s">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B299" t="s">
+        <v>2760</v>
+      </c>
+      <c r="D299" t="s">
+        <v>2765</v>
+      </c>
+      <c r="F299" t="s">
+        <v>2773</v>
+      </c>
+      <c r="H299" t="s">
+        <v>2778</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B300" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D300" t="s">
+        <v>2766</v>
+      </c>
+      <c r="F300" t="s">
+        <v>2774</v>
+      </c>
+      <c r="H300" t="s">
+        <v>2779</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B301" t="s">
+        <v>2762</v>
+      </c>
+      <c r="D301" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F301" t="s">
+        <v>2775</v>
+      </c>
+      <c r="H301" t="s">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B302" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D302" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F302" t="s">
+        <v>2776</v>
+      </c>
+      <c r="H302" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B303" t="s">
+        <v>2764</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2794</v>
+      </c>
+      <c r="F303" t="s">
+        <v>2777</v>
+      </c>
+      <c r="H303" t="s">
+        <v>2782</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B305" t="s">
+        <v>2768</v>
+      </c>
+      <c r="D305" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F305" t="s">
+        <v>2796</v>
+      </c>
+      <c r="H305" t="s">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B306" t="s">
+        <v>2769</v>
+      </c>
+      <c r="D306" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F306" t="s">
+        <v>2783</v>
+      </c>
+      <c r="H306" t="s">
+        <v>2788</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B307" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D307" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F307" t="s">
+        <v>2784</v>
+      </c>
+      <c r="H307" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B308" t="s">
+        <v>2771</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F308" t="s">
+        <v>2785</v>
+      </c>
+      <c r="H308" t="s">
+        <v>2790</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F309" t="s">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B314" t="s">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B315" t="s">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B316" t="s">
+        <v>2801</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B317" t="s">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B318" t="s">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B319" t="s">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B320" t="s">
+        <v>2805</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B321" t="s">
+        <v>2806</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B322" t="s">
+        <v>2807</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B323" t="s">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B324" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B325" t="s">
+        <v>2810</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B346" t="s">
+        <v>2811</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B347" t="s">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B348" t="s">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B349" t="s">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B350" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B351" t="s">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="370" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B370" t="s">
+        <v>2817</v>
+      </c>
+      <c r="M370" t="s">
+        <v>2927</v>
+      </c>
+    </row>
+    <row r="371" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B371" t="s">
+        <v>2818</v>
+      </c>
+      <c r="M371" t="s">
+        <v>2928</v>
+      </c>
+    </row>
+    <row r="372" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B372" t="s">
+        <v>2819</v>
+      </c>
+      <c r="M372" t="s">
+        <v>2929</v>
+      </c>
+    </row>
+    <row r="373" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B373" t="s">
+        <v>2820</v>
+      </c>
+      <c r="M373" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="374" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B374" t="s">
+        <v>2821</v>
+      </c>
+      <c r="M374" t="s">
+        <v>2930</v>
+      </c>
+    </row>
+    <row r="375" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B375" t="s">
+        <v>2822</v>
+      </c>
+      <c r="M375" t="s">
+        <v>2931</v>
+      </c>
+    </row>
+    <row r="376" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B376" t="s">
+        <v>2823</v>
+      </c>
+      <c r="M376" t="s">
+        <v>2979</v>
+      </c>
+    </row>
+    <row r="377" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B377" t="s">
+        <v>2824</v>
+      </c>
+      <c r="M377" t="s">
+        <v>2932</v>
+      </c>
+    </row>
+    <row r="378" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B378" t="s">
+        <v>2825</v>
+      </c>
+      <c r="M378" t="s">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="379" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B379" t="s">
+        <v>2826</v>
+      </c>
+      <c r="M379" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="380" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B380" t="s">
+        <v>2827</v>
+      </c>
+      <c r="M380" t="s">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="381" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M381" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="382" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B382" t="s">
+        <v>2828</v>
+      </c>
+      <c r="M382" t="s">
+        <v>2975</v>
+      </c>
+    </row>
+    <row r="383" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B383" t="s">
+        <v>2829</v>
+      </c>
+      <c r="M383" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="384" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B384" t="s">
+        <v>2830</v>
+      </c>
+      <c r="M384" t="s">
+        <v>2934</v>
+      </c>
+    </row>
+    <row r="385" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B385" t="s">
+        <v>2831</v>
+      </c>
+      <c r="M385" t="s">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="386" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B386" t="s">
+        <v>2832</v>
+      </c>
+      <c r="M386" t="s">
+        <v>2935</v>
+      </c>
+    </row>
+    <row r="387" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B387" t="s">
+        <v>2833</v>
+      </c>
+      <c r="M387" t="s">
+        <v>2981</v>
+      </c>
+    </row>
+    <row r="388" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B388" t="s">
+        <v>2834</v>
+      </c>
+      <c r="M388" t="s">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="389" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B389" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M389" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="390" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B390" t="s">
+        <v>2836</v>
+      </c>
+      <c r="M390" t="s">
+        <v>2983</v>
+      </c>
+    </row>
+    <row r="391" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M391" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+    <row r="392" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B392" t="s">
+        <v>2837</v>
+      </c>
+      <c r="M392" t="s">
+        <v>2937</v>
+      </c>
+    </row>
+    <row r="393" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B393" t="s">
+        <v>2838</v>
+      </c>
+      <c r="M393" t="s">
+        <v>2984</v>
+      </c>
+    </row>
+    <row r="394" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B394" t="s">
+        <v>2839</v>
+      </c>
+      <c r="M394" t="s">
+        <v>2938</v>
+      </c>
+    </row>
+    <row r="395" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B395" t="s">
+        <v>2840</v>
+      </c>
+      <c r="M395" t="s">
+        <v>2985</v>
+      </c>
+    </row>
+    <row r="396" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B396" t="s">
+        <v>2841</v>
+      </c>
+      <c r="M396" t="s">
+        <v>2986</v>
+      </c>
+    </row>
+    <row r="397" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B397" t="s">
+        <v>2842</v>
+      </c>
+      <c r="M397" t="s">
+        <v>2939</v>
+      </c>
+    </row>
+    <row r="398" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B398" t="s">
+        <v>2843</v>
+      </c>
+      <c r="M398" t="s">
+        <v>2987</v>
+      </c>
+    </row>
+    <row r="399" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B399" t="s">
+        <v>2844</v>
+      </c>
+      <c r="M399" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="400" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B400" t="s">
+        <v>2845</v>
+      </c>
+      <c r="M400" t="s">
+        <v>2989</v>
+      </c>
+    </row>
+    <row r="401" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M401" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="402" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B402" t="s">
+        <v>2846</v>
+      </c>
+      <c r="M402" t="s">
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="403" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B403" t="s">
+        <v>2847</v>
+      </c>
+      <c r="M403" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="404" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B404" t="s">
+        <v>2848</v>
+      </c>
+      <c r="M404" t="s">
+        <v>2991</v>
+      </c>
+    </row>
+    <row r="405" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B405" t="s">
+        <v>2849</v>
+      </c>
+      <c r="M405" t="s">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="406" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B406" t="s">
+        <v>2850</v>
+      </c>
+      <c r="M406" t="s">
+        <v>2941</v>
+      </c>
+    </row>
+    <row r="407" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B407" t="s">
+        <v>2851</v>
+      </c>
+      <c r="M407" t="s">
+        <v>2942</v>
+      </c>
+    </row>
+    <row r="408" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B408" t="s">
+        <v>2852</v>
+      </c>
+      <c r="M408" t="s">
+        <v>2992</v>
+      </c>
+    </row>
+    <row r="409" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B409" t="s">
+        <v>2853</v>
+      </c>
+      <c r="M409" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="410" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B410" t="s">
+        <v>2854</v>
+      </c>
+      <c r="M410" t="s">
+        <v>3057</v>
+      </c>
+    </row>
+    <row r="411" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M411" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="412" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B412" t="s">
+        <v>2855</v>
+      </c>
+      <c r="M412" t="s">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="413" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B413" t="s">
+        <v>2856</v>
+      </c>
+      <c r="M413" t="s">
+        <v>2993</v>
+      </c>
+    </row>
+    <row r="414" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B414" t="s">
+        <v>2857</v>
+      </c>
+      <c r="M414" t="s">
+        <v>2994</v>
+      </c>
+    </row>
+    <row r="415" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B415" t="s">
+        <v>2858</v>
+      </c>
+      <c r="M415" t="s">
+        <v>2995</v>
+      </c>
+    </row>
+    <row r="416" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B416" t="s">
+        <v>2859</v>
+      </c>
+      <c r="M416" t="s">
+        <v>2944</v>
+      </c>
+    </row>
+    <row r="417" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B417" t="s">
+        <v>2860</v>
+      </c>
+      <c r="M417" t="s">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="418" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B418" t="s">
+        <v>2997</v>
+      </c>
+      <c r="M418" t="s">
+        <v>2945</v>
+      </c>
+    </row>
+    <row r="419" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B419" t="s">
+        <v>2861</v>
+      </c>
+      <c r="M419" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="420" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B420" t="s">
+        <v>2862</v>
+      </c>
+      <c r="M420" t="s">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="421" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M421" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="422" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B422" t="s">
+        <v>2863</v>
+      </c>
+      <c r="M422" t="s">
+        <v>2946</v>
+      </c>
+    </row>
+    <row r="423" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B423" t="s">
+        <v>2864</v>
+      </c>
+      <c r="M423" t="s">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="424" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B424" t="s">
+        <v>2865</v>
+      </c>
+      <c r="M424" t="s">
+        <v>2947</v>
+      </c>
+    </row>
+    <row r="425" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B425" t="s">
+        <v>2866</v>
+      </c>
+      <c r="M425" t="s">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="426" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B426" t="s">
+        <v>2867</v>
+      </c>
+      <c r="M426" t="s">
+        <v>2948</v>
+      </c>
+    </row>
+    <row r="427" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B427" t="s">
+        <v>2868</v>
+      </c>
+      <c r="M427" t="s">
+        <v>3001</v>
+      </c>
+    </row>
+    <row r="428" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B428" t="s">
+        <v>2869</v>
+      </c>
+      <c r="M428" t="s">
+        <v>2949</v>
+      </c>
+    </row>
+    <row r="429" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B429" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M429" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="430" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B430" t="s">
+        <v>2871</v>
+      </c>
+      <c r="M430" t="s">
+        <v>3003</v>
+      </c>
+    </row>
+    <row r="431" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M431" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="432" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B432" t="s">
+        <v>2872</v>
+      </c>
+      <c r="M432" t="s">
+        <v>2950</v>
+      </c>
+    </row>
+    <row r="433" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B433" t="s">
+        <v>2873</v>
+      </c>
+      <c r="M433" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="434" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B434" t="s">
+        <v>2874</v>
+      </c>
+      <c r="M434" t="s">
+        <v>2951</v>
+      </c>
+    </row>
+    <row r="435" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B435" t="s">
+        <v>2875</v>
+      </c>
+      <c r="M435" t="s">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="436" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B436" t="s">
+        <v>2876</v>
+      </c>
+      <c r="M436" t="s">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="437" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B437" t="s">
+        <v>2877</v>
+      </c>
+      <c r="M437" t="s">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="438" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B438" t="s">
+        <v>2878</v>
+      </c>
+      <c r="M438" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="439" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B439" t="s">
+        <v>2879</v>
+      </c>
+      <c r="M439" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="440" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B440" t="s">
+        <v>2880</v>
+      </c>
+      <c r="M440" t="s">
+        <v>3007</v>
+      </c>
+    </row>
+    <row r="441" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M441" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="442" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B442" t="s">
+        <v>2881</v>
+      </c>
+      <c r="M442" t="s">
+        <v>3061</v>
+      </c>
+    </row>
+    <row r="443" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B443" t="s">
+        <v>2882</v>
+      </c>
+      <c r="M443" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="444" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B444" t="s">
+        <v>2883</v>
+      </c>
+      <c r="M444" t="s">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="445" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B445" t="s">
+        <v>2884</v>
+      </c>
+      <c r="M445" t="s">
+        <v>3008</v>
+      </c>
+    </row>
+    <row r="446" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B446" t="s">
+        <v>2885</v>
+      </c>
+      <c r="M446" t="s">
+        <v>3009</v>
+      </c>
+    </row>
+    <row r="447" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B447" t="s">
+        <v>2886</v>
+      </c>
+      <c r="M447" t="s">
+        <v>2957</v>
+      </c>
+    </row>
+    <row r="448" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B448" t="s">
+        <v>2887</v>
+      </c>
+      <c r="M448" t="s">
+        <v>3010</v>
+      </c>
+    </row>
+    <row r="449" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B449" t="s">
+        <v>2888</v>
+      </c>
+      <c r="M449" t="s">
+        <v>3011</v>
+      </c>
+    </row>
+    <row r="450" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B450" t="s">
+        <v>2889</v>
+      </c>
+      <c r="M450" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="451" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B451" t="s">
+        <v>2890</v>
+      </c>
+      <c r="M451" t="s">
+        <v>3062</v>
+      </c>
+    </row>
+    <row r="452" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M452" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="453" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B453" t="s">
+        <v>2891</v>
+      </c>
+      <c r="M453" t="s">
+        <v>2974</v>
+      </c>
+    </row>
+    <row r="454" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B454" t="s">
+        <v>2892</v>
+      </c>
+      <c r="M454" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="455" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B455" t="s">
+        <v>2893</v>
+      </c>
+      <c r="M455" t="s">
+        <v>2959</v>
+      </c>
+    </row>
+    <row r="456" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B456" t="s">
+        <v>2894</v>
+      </c>
+      <c r="M456" t="s">
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="457" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B457" t="s">
+        <v>2895</v>
+      </c>
+      <c r="M457" t="s">
+        <v>3013</v>
+      </c>
+    </row>
+    <row r="458" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B458" t="s">
+        <v>2896</v>
+      </c>
+      <c r="M458" t="s">
+        <v>2961</v>
+      </c>
+    </row>
+    <row r="459" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B459" t="s">
+        <v>2897</v>
+      </c>
+      <c r="M459" t="s">
+        <v>3014</v>
+      </c>
+    </row>
+    <row r="460" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B460" t="s">
+        <v>2898</v>
+      </c>
+      <c r="M460" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="461" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B461" t="s">
+        <v>2899</v>
+      </c>
+      <c r="M461" t="s">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="462" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M462" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="463" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B463" t="s">
+        <v>2900</v>
+      </c>
+      <c r="M463" t="s">
+        <v>2973</v>
+      </c>
+    </row>
+    <row r="464" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B464" t="s">
+        <v>2901</v>
+      </c>
+      <c r="M464" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="465" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B465" t="s">
+        <v>2902</v>
+      </c>
+      <c r="M465" t="s">
+        <v>3017</v>
+      </c>
+    </row>
+    <row r="466" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B466" t="s">
+        <v>2903</v>
+      </c>
+      <c r="M466" t="s">
+        <v>3018</v>
+      </c>
+    </row>
+    <row r="467" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B467" t="s">
+        <v>2904</v>
+      </c>
+      <c r="M467" t="s">
+        <v>3019</v>
+      </c>
+    </row>
+    <row r="468" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B468" t="s">
+        <v>2905</v>
+      </c>
+      <c r="M468" t="s">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="469" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B469" t="s">
+        <v>2906</v>
+      </c>
+      <c r="M469" t="s">
+        <v>3021</v>
+      </c>
+    </row>
+    <row r="470" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B470" t="s">
+        <v>2907</v>
+      </c>
+      <c r="M470" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="471" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B471" t="s">
+        <v>2908</v>
+      </c>
+      <c r="M471" t="s">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="472" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M472" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="473" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B473" t="s">
+        <v>2909</v>
+      </c>
+      <c r="M473" t="s">
+        <v>2963</v>
+      </c>
+    </row>
+    <row r="474" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B474" t="s">
+        <v>2910</v>
+      </c>
+      <c r="M474" t="s">
+        <v>3023</v>
+      </c>
+    </row>
+    <row r="475" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B475" t="s">
+        <v>2911</v>
+      </c>
+      <c r="M475" t="s">
+        <v>3024</v>
+      </c>
+    </row>
+    <row r="476" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B476" t="s">
+        <v>2912</v>
+      </c>
+      <c r="M476" t="s">
+        <v>2964</v>
+      </c>
+    </row>
+    <row r="477" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B477" t="s">
+        <v>2913</v>
+      </c>
+      <c r="M477" t="s">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="478" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B478" t="s">
+        <v>2914</v>
+      </c>
+      <c r="M478" t="s">
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="479" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B479" t="s">
+        <v>2915</v>
+      </c>
+      <c r="M479" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="480" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B480" t="s">
+        <v>2916</v>
+      </c>
+      <c r="M480" t="s">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B481" t="s">
+        <v>2917</v>
+      </c>
+      <c r="M481" t="s">
+        <v>3027</v>
+      </c>
+    </row>
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M482" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B483" t="s">
+        <v>2918</v>
+      </c>
+      <c r="M483" t="s">
+        <v>2967</v>
+      </c>
+    </row>
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B484" t="s">
+        <v>2919</v>
+      </c>
+      <c r="M484" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B485" t="s">
+        <v>2920</v>
+      </c>
+      <c r="M485" t="s">
+        <v>2968</v>
+      </c>
+    </row>
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B486" t="s">
+        <v>2921</v>
+      </c>
+      <c r="M486" t="s">
+        <v>2969</v>
+      </c>
+    </row>
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B487" t="s">
+        <v>2922</v>
+      </c>
+      <c r="M487" t="s">
+        <v>2970</v>
+      </c>
+    </row>
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B488" t="s">
+        <v>2923</v>
+      </c>
+      <c r="M488" t="s">
+        <v>2971</v>
+      </c>
+    </row>
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B489" t="s">
+        <v>2924</v>
+      </c>
+      <c r="M489" t="s">
+        <v>3030</v>
+      </c>
+    </row>
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B490" t="s">
+        <v>2925</v>
+      </c>
+      <c r="M490" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B491" t="s">
+        <v>2926</v>
+      </c>
+      <c r="M491" t="s">
+        <v>3029</v>
+      </c>
+    </row>
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M492" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>10</v>
+      </c>
+      <c r="B496" t="s">
+        <v>3031</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B497" t="s">
+        <v>3032</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>1</v>
+      </c>
+      <c r="B499" t="s">
+        <v>3033</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B500" t="s">
+        <v>3034</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B502" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D502">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B503" t="s">
+        <v>3036</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>12</v>
+      </c>
+      <c r="B505" t="s">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B506" t="s">
+        <v>3038</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B508" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D508">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B509" t="s">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B511" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D511">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B512" t="s">
+        <v>3042</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>11</v>
+      </c>
+      <c r="B514" t="s">
+        <v>3043</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B515" t="s">
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>3</v>
+      </c>
+      <c r="B517" t="s">
+        <v>3045</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B518" t="s">
+        <v>3046</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>6</v>
+      </c>
+      <c r="B520" t="s">
+        <v>3047</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B521" t="s">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>7</v>
+      </c>
+      <c r="B523" t="s">
+        <v>3049</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B524" t="s">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>9</v>
+      </c>
+      <c r="B526" t="s">
+        <v>3051</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B527" t="s">
+        <v>3052</v>
+      </c>
+    </row>
+    <row r="529" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B529" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D529">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="530" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B530" t="s">
+        <v>3054</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/tunnepyora.xlsx
+++ b/tunnepyora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/B0448A65-F12A-40B7-B31D-00B325476E7D/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3132" documentId="8_{62920A7E-06B9-244E-861B-F76490E68AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56A692E6-2B78-4944-9590-8F3D6EA63B2B}"/>
+  <xr:revisionPtr revIDLastSave="3235" documentId="8_{62920A7E-06B9-244E-861B-F76490E68AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A660FA-E2B5-5342-9F1D-D8895DDA581A}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6914" uniqueCount="3072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7030" uniqueCount="3146">
   <si>
     <t>Arvostettu</t>
   </si>
@@ -9236,6 +9236,207 @@
   </si>
   <si>
     <t>Luoja tunnetaan myös nimellä: taiteilija, keksijä, uudistaja, muusikko, kirjailija tai unelmoija</t>
+  </si>
+  <si>
+    <t>Tietäjä</t>
+  </si>
+  <si>
+    <t>Hoitaja</t>
+  </si>
+  <si>
+    <t>Rakastaja</t>
+  </si>
+  <si>
+    <t>Hallitsija</t>
+  </si>
+  <si>
+    <t>Luoja</t>
+  </si>
+  <si>
+    <t>Sankari</t>
+  </si>
+  <si>
+    <t>Taikuri</t>
+  </si>
+  <si>
+    <t>Vaeltaja</t>
+  </si>
+  <si>
+    <t>Viaton</t>
+  </si>
+  <si>
+    <t>Tavis</t>
+  </si>
+  <si>
+    <t>Narri</t>
+  </si>
+  <si>
+    <t>REFORMER</t>
+  </si>
+  <si>
+    <t>Determination</t>
+  </si>
+  <si>
+    <t>Monitoring performance</t>
+  </si>
+  <si>
+    <t>Discipline</t>
+  </si>
+  <si>
+    <t>DIRECTOR</t>
+  </si>
+  <si>
+    <t>Results focus</t>
+  </si>
+  <si>
+    <t>Decisive</t>
+  </si>
+  <si>
+    <t>Assertive</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Time Management</t>
+  </si>
+  <si>
+    <t>Drive</t>
+  </si>
+  <si>
+    <t>Positive thinking</t>
+  </si>
+  <si>
+    <t>Listens</t>
+  </si>
+  <si>
+    <t>Loyal</t>
+  </si>
+  <si>
+    <t>Team Approach</t>
+  </si>
+  <si>
+    <t>SUPPORTER</t>
+  </si>
+  <si>
+    <t>People skills</t>
+  </si>
+  <si>
+    <t>Helps others</t>
+  </si>
+  <si>
+    <t>Flexible</t>
+  </si>
+  <si>
+    <t>Shares ideas</t>
+  </si>
+  <si>
+    <t>INSPIRER</t>
+  </si>
+  <si>
+    <t>COORDINATOR</t>
+  </si>
+  <si>
+    <t>MOTIVATOR</t>
+  </si>
+  <si>
+    <t>HELPER</t>
+  </si>
+  <si>
+    <t>OBSERVER</t>
+  </si>
+  <si>
+    <t>Sets standards</t>
+  </si>
+  <si>
+    <t>Product knowledge</t>
+  </si>
+  <si>
+    <t>Analysis</t>
+  </si>
+  <si>
+    <t>Asettaa standardeja</t>
+  </si>
+  <si>
+    <t>Päättäväisyys</t>
+  </si>
+  <si>
+    <t>Suorituksen seuranta</t>
+  </si>
+  <si>
+    <t>Kuri</t>
+  </si>
+  <si>
+    <t>JOHTAJA</t>
+  </si>
+  <si>
+    <t>Ratkaiseva</t>
+  </si>
+  <si>
+    <t>Ajaa</t>
+  </si>
+  <si>
+    <t>Positiivinen ajattelu</t>
+  </si>
+  <si>
+    <t>Vuorovaikutustaidot</t>
+  </si>
+  <si>
+    <t>AUTTAJA</t>
+  </si>
+  <si>
+    <t>Auttaa muita</t>
+  </si>
+  <si>
+    <t>Joustava</t>
+  </si>
+  <si>
+    <t>Jakaa ideoita</t>
+  </si>
+  <si>
+    <t>TUKIJA</t>
+  </si>
+  <si>
+    <t>Kuuntelee</t>
+  </si>
+  <si>
+    <t>Suunnittelu</t>
+  </si>
+  <si>
+    <t>Ajanhallinta</t>
+  </si>
+  <si>
+    <t>Tuotetietous</t>
+  </si>
+  <si>
+    <t>Analyysit</t>
+  </si>
+  <si>
+    <t>Tuloskeskeisnen</t>
+  </si>
+  <si>
+    <t>INNOSTAJA</t>
+  </si>
+  <si>
+    <t>KANNUSTAJA</t>
+  </si>
+  <si>
+    <t>SÄÄTÄJÄ</t>
+  </si>
+  <si>
+    <t>RYTMITTÄJÄ</t>
+  </si>
+  <si>
+    <t>Järjestely</t>
+  </si>
+  <si>
+    <t>Yhteistyö</t>
+  </si>
+  <si>
+    <t>HAVAINNOIJA</t>
   </si>
 </sst>
 </file>
@@ -9286,12 +9487,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9457,7 +9661,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet9!$B$120:$B$127</c:f>
+              <c:f>Sheet9!$B$121:$B$128</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -9489,7 +9693,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet9!$C$120:$C$127</c:f>
+              <c:f>Sheet9!$C$121:$C$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9666,7 +9870,7 @@
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet9!$B$142:$B$145</c:f>
+              <c:f>Sheet9!$B$143:$B$146</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -9686,7 +9890,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet9!$C$142:$C$145</c:f>
+              <c:f>Sheet9!$C$143:$C$146</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -11105,13 +11309,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>608748</xdr:colOff>
-      <xdr:row>124</xdr:row>
+      <xdr:row>125</xdr:row>
       <xdr:rowOff>40300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>299407</xdr:colOff>
-      <xdr:row>138</xdr:row>
+      <xdr:row>139</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11141,13 +11345,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>559084</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>144</xdr:row>
       <xdr:rowOff>4825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>249743</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>66125</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11178,16 +11382,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>179493</xdr:colOff>
-      <xdr:row>176</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266277</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>113876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>484293</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>380577</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>113876</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11218,8 +11422,8 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6275493" y="33639760"/>
+        <a:xfrm rot="5400000" flipV="1">
+          <a:off x="11143827" y="33546626"/>
           <a:ext cx="1524000" cy="1333500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11233,13 +11437,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>35560</xdr:colOff>
-      <xdr:row>94</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>99061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>60961</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11286,13 +11490,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>340360</xdr:colOff>
-      <xdr:row>346</xdr:row>
+      <xdr:row>347</xdr:row>
       <xdr:rowOff>31327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>364</xdr:row>
+      <xdr:row>365</xdr:row>
       <xdr:rowOff>44027</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11339,13 +11543,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>94827</xdr:colOff>
-      <xdr:row>312</xdr:row>
+      <xdr:row>313</xdr:row>
       <xdr:rowOff>5927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>426158</xdr:colOff>
-      <xdr:row>339</xdr:row>
+      <xdr:row>340</xdr:row>
       <xdr:rowOff>64347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -11380,6 +11584,165 @@
         <a:xfrm>
           <a:off x="3142827" y="59441927"/>
           <a:ext cx="5208131" cy="5201920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>97852</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>14574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>113050</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>4164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647AAB7A-C114-8345-B8C5-489F57D6EF54}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{85C22E08-B254-3148-B9D4-FCA844301E6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14838180" y="18190148"/>
+          <a:ext cx="3086100" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>441376</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>181131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>494675</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>170721</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA014C90-DD4F-754E-9958-F21D47CC0D02}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{647AAB7A-C114-8345-B8C5-489F57D6EF54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18252606" y="18169328"/>
+          <a:ext cx="3124200" cy="3175000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>436554</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>3704</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>540653</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>53981</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3528F352-44F1-8E4E-8830-FFD3BA9BC376}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DA014C90-DD4F-754E-9958-F21D47CC0D02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20621150" y="22018594"/>
+          <a:ext cx="3162371" cy="5218990"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -34493,10 +34856,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08AB43A-08FB-8D41-A89B-851143503EC9}">
-  <dimension ref="A2:M530"/>
+  <dimension ref="A2:Z531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M462" sqref="M462"/>
+    <sheetView tabSelected="1" topLeftCell="T125" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AB122" sqref="AB122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34703,2304 +35066,2700 @@
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B76" t="s">
-        <v>2578</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B77" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B78" t="s">
-        <v>2580</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B79" t="s">
-        <v>2581</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B80" t="s">
-        <v>2582</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B84" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B85" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B86" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B87" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B88" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B89" t="s">
-        <v>2588</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B90" t="s">
-        <v>2589</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B91" t="s">
-        <v>2590</v>
+        <v>2589</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B92" t="s">
+        <v>2590</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B93" t="s">
         <v>2591</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B95" t="s">
-        <v>2626</v>
-      </c>
-      <c r="C95" t="s">
-        <v>2645</v>
-      </c>
-      <c r="G95" t="s">
-        <v>2627</v>
-      </c>
-      <c r="H95" t="s">
-        <v>2637</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B96" t="s">
-        <v>2592</v>
+        <v>2626</v>
       </c>
       <c r="C96" t="s">
-        <v>2630</v>
-      </c>
-      <c r="E96" t="s">
-        <v>2629</v>
+        <v>2645</v>
       </c>
       <c r="G96" t="s">
-        <v>2609</v>
+        <v>2627</v>
       </c>
       <c r="H96" t="s">
-        <v>2653</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B97" t="s">
-        <v>2593</v>
+        <v>2592</v>
       </c>
       <c r="C97" t="s">
-        <v>2631</v>
+        <v>2630</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2629</v>
       </c>
       <c r="G97" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="H97" t="s">
-        <v>1426</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B98" t="s">
-        <v>2594</v>
+        <v>2593</v>
       </c>
       <c r="C98" t="s">
-        <v>2646</v>
+        <v>2631</v>
       </c>
       <c r="G98" t="s">
-        <v>262</v>
+        <v>2610</v>
       </c>
       <c r="H98" t="s">
-        <v>411</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="99" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B99" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="C99" t="s">
-        <v>2647</v>
+        <v>2646</v>
       </c>
       <c r="G99" t="s">
-        <v>2611</v>
+        <v>262</v>
       </c>
       <c r="H99" t="s">
-        <v>2638</v>
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B100" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="C100" t="s">
-        <v>2632</v>
+        <v>2647</v>
       </c>
       <c r="G100" t="s">
-        <v>2612</v>
+        <v>2611</v>
       </c>
       <c r="H100" t="s">
-        <v>2654</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="101" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B101" t="s">
-        <v>136</v>
+        <v>2596</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
-      </c>
-      <c r="E101" t="s">
-        <v>2600</v>
+        <v>2632</v>
       </c>
       <c r="G101" t="s">
-        <v>2613</v>
+        <v>2612</v>
       </c>
       <c r="H101" t="s">
-        <v>2639</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="102" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B102" t="s">
-        <v>2597</v>
+        <v>136</v>
       </c>
       <c r="C102" t="s">
-        <v>2648</v>
+        <v>38</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2600</v>
       </c>
       <c r="G102" t="s">
-        <v>2614</v>
+        <v>2613</v>
       </c>
       <c r="H102" t="s">
-        <v>2655</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="103" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B103" t="s">
-        <v>2598</v>
+        <v>2597</v>
       </c>
       <c r="C103" t="s">
-        <v>2649</v>
+        <v>2648</v>
       </c>
       <c r="G103" t="s">
-        <v>2615</v>
+        <v>2614</v>
       </c>
       <c r="H103" t="s">
-        <v>2656</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="104" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B104" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="C104" t="s">
-        <v>2650</v>
+        <v>2649</v>
       </c>
       <c r="G104" t="s">
-        <v>2616</v>
+        <v>2615</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="105" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B105" t="s">
-        <v>1301</v>
+        <v>2599</v>
       </c>
       <c r="C105" t="s">
-        <v>1302</v>
+        <v>2650</v>
       </c>
       <c r="G105" t="s">
-        <v>2617</v>
+        <v>2616</v>
       </c>
       <c r="H105" t="s">
-        <v>2640</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B106" t="s">
-        <v>2602</v>
+        <v>1301</v>
       </c>
       <c r="C106" t="s">
-        <v>2651</v>
-      </c>
-      <c r="E106" t="s">
-        <v>2601</v>
+        <v>1302</v>
       </c>
       <c r="G106" t="s">
-        <v>855</v>
+        <v>2617</v>
       </c>
       <c r="H106" t="s">
-        <v>1608</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="107" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B107" t="s">
-        <v>2603</v>
+        <v>2602</v>
       </c>
       <c r="C107" t="s">
-        <v>2633</v>
+        <v>2651</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2601</v>
       </c>
       <c r="G107" t="s">
-        <v>2618</v>
+        <v>855</v>
       </c>
       <c r="H107" t="s">
-        <v>2657</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="108" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B108" t="s">
-        <v>980</v>
+        <v>2603</v>
       </c>
       <c r="C108" t="s">
-        <v>981</v>
+        <v>2633</v>
       </c>
       <c r="G108" t="s">
-        <v>2619</v>
+        <v>2618</v>
       </c>
       <c r="H108" t="s">
-        <v>2658</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="109" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B109" t="s">
-        <v>2604</v>
+        <v>980</v>
       </c>
       <c r="C109" t="s">
-        <v>2634</v>
+        <v>981</v>
       </c>
       <c r="G109" t="s">
-        <v>2620</v>
+        <v>2619</v>
       </c>
       <c r="H109" t="s">
-        <v>1609</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="110" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B110" t="s">
-        <v>2605</v>
+        <v>2604</v>
       </c>
       <c r="C110" t="s">
-        <v>2635</v>
+        <v>2634</v>
       </c>
       <c r="G110" t="s">
-        <v>2621</v>
+        <v>2620</v>
       </c>
       <c r="H110" t="s">
-        <v>2641</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="111" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B111" t="s">
-        <v>2606</v>
+        <v>2605</v>
       </c>
       <c r="C111" t="s">
-        <v>2636</v>
-      </c>
-      <c r="E111" t="s">
-        <v>2628</v>
+        <v>2635</v>
       </c>
       <c r="G111" t="s">
-        <v>2622</v>
+        <v>2621</v>
       </c>
       <c r="H111" t="s">
-        <v>330</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="112" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B112" t="s">
+        <v>2606</v>
+      </c>
+      <c r="C112" t="s">
+        <v>2636</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2628</v>
+      </c>
+      <c r="G112" t="s">
+        <v>2622</v>
+      </c>
+      <c r="H112" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="113" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B113" t="s">
         <v>2216</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C113" t="s">
         <v>2652</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G113" t="s">
         <v>1083</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H113" t="s">
         <v>1084</v>
       </c>
     </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" t="s">
+    <row r="114" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
         <v>2607</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C114" t="s">
         <v>392</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G114" t="s">
         <v>2623</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H114" t="s">
         <v>2642</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" t="s">
+    <row r="115" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
         <v>2608</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C115" t="s">
         <v>69</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G115" t="s">
         <v>2624</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H115" t="s">
         <v>2643</v>
       </c>
     </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B115" t="s">
+    <row r="116" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
         <v>1269</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C116" t="s">
         <v>1270</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G116" t="s">
         <v>2625</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H116" t="s">
         <v>2644</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B120" t="s">
+      <c r="V116" t="s">
+        <v>3099</v>
+      </c>
+      <c r="X116" t="s">
+        <v>3129</v>
+      </c>
+    </row>
+    <row r="117" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V117" t="s">
+        <v>3100</v>
+      </c>
+      <c r="X117" t="s">
+        <v>3103</v>
+      </c>
+    </row>
+    <row r="118" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V118" t="s">
+        <v>3101</v>
+      </c>
+      <c r="X118" t="s">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="119" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V119" t="s">
+        <v>3102</v>
+      </c>
+      <c r="X119" t="s">
+        <v>3121</v>
+      </c>
+    </row>
+    <row r="120" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V120" t="s">
+        <v>3074</v>
+      </c>
+      <c r="X120" t="s">
+        <v>3125</v>
+      </c>
+    </row>
+    <row r="121" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B121" t="s">
         <v>1483</v>
-      </c>
-      <c r="C120">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B121" t="s">
-        <v>831</v>
       </c>
       <c r="C121">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="V121" t="s">
+        <v>3075</v>
+      </c>
+      <c r="X121" t="s">
+        <v>3104</v>
+      </c>
+    </row>
+    <row r="122" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B122" t="s">
-        <v>1620</v>
+        <v>831</v>
       </c>
       <c r="C122">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="V122" t="s">
+        <v>3076</v>
+      </c>
+      <c r="X122" t="s">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="123" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B123" t="s">
-        <v>1581</v>
+        <v>1620</v>
       </c>
       <c r="C123">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="V123" t="s">
+        <v>3077</v>
+      </c>
+      <c r="X123" t="s">
+        <v>3106</v>
+      </c>
+      <c r="Z123" t="s">
+        <v>2575</v>
+      </c>
+    </row>
+    <row r="124" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
-        <v>2659</v>
+        <v>1581</v>
       </c>
       <c r="C124">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="V124" t="s">
+        <v>3078</v>
+      </c>
+      <c r="X124" t="s">
+        <v>3107</v>
+      </c>
+      <c r="Z124" t="s">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="125" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B125" t="s">
-        <v>2660</v>
+        <v>2659</v>
       </c>
       <c r="C125">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="V125" t="s">
+        <v>3079</v>
+      </c>
+      <c r="X125" t="s">
+        <v>3122</v>
+      </c>
+      <c r="Z125" t="s">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="126" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B126" t="s">
-        <v>2661</v>
+        <v>2660</v>
       </c>
       <c r="C126">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="127" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="V126" t="s">
+        <v>3080</v>
+      </c>
+      <c r="X126" t="s">
+        <v>3108</v>
+      </c>
+      <c r="Z126" t="s">
+        <v>2582</v>
+      </c>
+    </row>
+    <row r="127" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
-        <v>2662</v>
+        <v>2661</v>
       </c>
       <c r="C127">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B142" t="s">
+      <c r="V127" t="s">
+        <v>3081</v>
+      </c>
+      <c r="X127" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z127" t="s">
+        <v>2578</v>
+      </c>
+    </row>
+    <row r="128" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B128" t="s">
+        <v>2662</v>
+      </c>
+      <c r="C128">
+        <v>12.5</v>
+      </c>
+      <c r="V128" t="s">
+        <v>3097</v>
+      </c>
+      <c r="X128" t="s">
+        <v>3124</v>
+      </c>
+      <c r="Z128" t="s">
+        <v>2579</v>
+      </c>
+    </row>
+    <row r="129" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V129" t="s">
+        <v>3085</v>
+      </c>
+      <c r="X129" t="s">
+        <v>3109</v>
+      </c>
+      <c r="Z129" t="s">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="130" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V130" t="s">
+        <v>1516</v>
+      </c>
+      <c r="X130" t="s">
+        <v>748</v>
+      </c>
+      <c r="Z130" t="s">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="131" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V131" t="s">
+        <v>3086</v>
+      </c>
+      <c r="X131" t="s">
+        <v>3110</v>
+      </c>
+    </row>
+    <row r="132" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V132" t="s">
+        <v>3095</v>
+      </c>
+      <c r="X132" t="s">
+        <v>3123</v>
+      </c>
+    </row>
+    <row r="133" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V133" t="s">
+        <v>1269</v>
+      </c>
+      <c r="X133" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="134" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V134" t="s">
+        <v>167</v>
+      </c>
+      <c r="X134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="135" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V135" t="s">
+        <v>3091</v>
+      </c>
+      <c r="X135" t="s">
+        <v>3111</v>
+      </c>
+    </row>
+    <row r="136" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V136" t="s">
+        <v>3098</v>
+      </c>
+      <c r="X136" t="s">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="137" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V137" t="s">
+        <v>3092</v>
+      </c>
+      <c r="X137" t="s">
+        <v>3113</v>
+      </c>
+    </row>
+    <row r="138" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V138" t="s">
+        <v>3093</v>
+      </c>
+      <c r="X138" t="s">
+        <v>3114</v>
+      </c>
+    </row>
+    <row r="139" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V139" t="s">
+        <v>3094</v>
+      </c>
+      <c r="X139" t="s">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="140" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V140" t="s">
+        <v>3090</v>
+      </c>
+      <c r="X140" t="s">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="141" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V141" t="s">
+        <v>3087</v>
+      </c>
+      <c r="X141" t="s">
+        <v>3117</v>
+      </c>
+    </row>
+    <row r="142" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="V142" t="s">
+        <v>3088</v>
+      </c>
+      <c r="X142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="B143" t="s">
         <v>1483</v>
-      </c>
-      <c r="C142">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B143" t="s">
-        <v>831</v>
       </c>
       <c r="C143">
         <v>25</v>
       </c>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="V143" t="s">
+        <v>3089</v>
+      </c>
+      <c r="X143" t="s">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="144" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B144" t="s">
-        <v>1620</v>
+        <v>831</v>
       </c>
       <c r="C144">
         <v>25</v>
       </c>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="V144" t="s">
+        <v>3096</v>
+      </c>
+      <c r="X144" t="s">
+        <v>3126</v>
+      </c>
+    </row>
+    <row r="145" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B145" t="s">
-        <v>1581</v>
+        <v>1620</v>
       </c>
       <c r="C145">
         <v>25</v>
       </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B163" t="s">
+      <c r="V145" t="s">
+        <v>3082</v>
+      </c>
+      <c r="X145" t="s">
+        <v>3118</v>
+      </c>
+    </row>
+    <row r="146" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B146" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C146">
+        <v>25</v>
+      </c>
+      <c r="V146" t="s">
+        <v>3083</v>
+      </c>
+      <c r="X146" t="s">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="147" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="V147" t="s">
+        <v>3084</v>
+      </c>
+      <c r="X147" t="s">
+        <v>3119</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B164" t="s">
         <v>2663</v>
       </c>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B164" t="s">
+    <row r="165" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B165" t="s">
         <v>2664</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B165" t="s">
+    <row r="166" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B166" t="s">
         <v>2665</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B167" t="s">
+    <row r="168" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B168" t="s">
         <v>2666</v>
       </c>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B169" t="s">
+    <row r="170" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B170" t="s">
         <v>2667</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B170" t="s">
+    <row r="171" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B171" t="s">
         <v>2668</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B171" t="s">
+    <row r="172" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B172" t="s">
         <v>2669</v>
       </c>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B176" t="s">
+    <row r="177" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B177" t="s">
         <v>2670</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>2694</v>
       </c>
-      <c r="G176" t="s">
+      <c r="G177" t="s">
         <v>126</v>
       </c>
-      <c r="I176" t="s">
+      <c r="I177" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B177" t="s">
+    <row r="178" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B178" t="s">
         <v>2671</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>2682</v>
       </c>
-      <c r="G177" t="s">
+      <c r="G178" t="s">
         <v>2676</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I178" t="s">
         <v>2685</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B178" t="s">
+    <row r="179" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B179" t="s">
         <v>2679</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>2693</v>
       </c>
-      <c r="G178" t="s">
+      <c r="G179" t="s">
         <v>2219</v>
       </c>
-      <c r="I178" t="s">
+      <c r="I179" t="s">
         <v>2689</v>
       </c>
-    </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B179" t="s">
+      <c r="U179" t="s">
+        <v>3063</v>
+      </c>
+    </row>
+    <row r="180" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B180" t="s">
         <v>2672</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>2692</v>
       </c>
-      <c r="G179" t="s">
+      <c r="G180" t="s">
         <v>2681</v>
       </c>
-      <c r="I179" t="s">
+      <c r="I180" t="s">
         <v>2688</v>
       </c>
-    </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B180" t="s">
+      <c r="U180" t="s">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="181" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B181" t="s">
         <v>2680</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>2683</v>
       </c>
-      <c r="G180" t="s">
+      <c r="G181" t="s">
         <v>2678</v>
       </c>
-      <c r="I180" t="s">
+      <c r="I181" t="s">
         <v>2686</v>
       </c>
-    </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B182" t="s">
+      <c r="Q181" t="s">
+        <v>3066</v>
+      </c>
+    </row>
+    <row r="182" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Q182" t="s">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="183" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B183" t="s">
         <v>133</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>36</v>
       </c>
-      <c r="G182" t="s">
+      <c r="G183" t="s">
         <v>2677</v>
       </c>
-      <c r="I182" t="s">
+      <c r="I183" t="s">
         <v>2687</v>
       </c>
-    </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B183" t="s">
+      <c r="O183" t="s">
+        <v>3069</v>
+      </c>
+      <c r="W183" t="s">
+        <v>3064</v>
+      </c>
+    </row>
+    <row r="184" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
         <v>2673</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>2691</v>
       </c>
-      <c r="G183" t="s">
+      <c r="G184" t="s">
         <v>124</v>
       </c>
-      <c r="I183" t="s">
+      <c r="I184" t="s">
         <v>1596</v>
       </c>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B184" t="s">
+      <c r="O184" t="s">
+        <v>3023</v>
+      </c>
+      <c r="W184" t="s">
+        <v>2990</v>
+      </c>
+    </row>
+    <row r="185" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B185" t="s">
         <v>2674</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>2684</v>
       </c>
-      <c r="G184" t="s">
+      <c r="G185" t="s">
         <v>2606</v>
       </c>
-      <c r="I184" t="s">
+      <c r="I185" t="s">
         <v>2636</v>
       </c>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B185" t="s">
+      <c r="S185" s="3" t="s">
+        <v>2694</v>
+      </c>
+      <c r="U185" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B186" t="s">
         <v>108</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>20</v>
       </c>
-      <c r="G185" t="s">
+      <c r="G186" t="s">
         <v>2216</v>
       </c>
-      <c r="I185" t="s">
+      <c r="I186" t="s">
         <v>2652</v>
       </c>
-    </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B186" t="s">
+      <c r="S186" s="3" t="s">
+        <v>2682</v>
+      </c>
+      <c r="U186" t="s">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="187" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B187" t="s">
         <v>2675</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>2690</v>
       </c>
-      <c r="G186" t="s">
+      <c r="G187" t="s">
         <v>153</v>
       </c>
-      <c r="I186" t="s">
+      <c r="I187" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B191" t="s">
+      <c r="O187" t="s">
+        <v>3070</v>
+      </c>
+      <c r="S187" s="3" t="s">
+        <v>2693</v>
+      </c>
+      <c r="U187" t="s">
+        <v>2684</v>
+      </c>
+      <c r="X187" t="s">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="188" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="O188" t="s">
+        <v>2993</v>
+      </c>
+      <c r="S188" s="3" t="s">
+        <v>2692</v>
+      </c>
+      <c r="U188" t="s">
+        <v>20</v>
+      </c>
+      <c r="X188" t="s">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="189" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S189" s="3" t="s">
+        <v>2683</v>
+      </c>
+      <c r="U189" t="s">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="191" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="N191" t="s">
+        <v>3068</v>
+      </c>
+      <c r="S191" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="U191" t="s">
+        <v>2687</v>
+      </c>
+    </row>
+    <row r="192" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B192" t="s">
         <v>2695</v>
       </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B192" t="s">
+      <c r="N192" t="s">
+        <v>2984</v>
+      </c>
+      <c r="S192" s="3" t="s">
+        <v>2685</v>
+      </c>
+      <c r="U192" t="s">
+        <v>1596</v>
+      </c>
+      <c r="Y192" t="s">
+        <v>3072</v>
+      </c>
+    </row>
+    <row r="193" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B193" t="s">
         <v>2696</v>
       </c>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" t="s">
+      <c r="S193" s="3" t="s">
+        <v>2689</v>
+      </c>
+      <c r="U193" t="s">
+        <v>2636</v>
+      </c>
+      <c r="Y193" t="s">
+        <v>2977</v>
+      </c>
+    </row>
+    <row r="194" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="S194" s="3" t="s">
+        <v>2688</v>
+      </c>
+      <c r="U194" t="s">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="195" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B195" t="s">
         <v>2697</v>
       </c>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" t="s">
+      <c r="P195" t="s">
+        <v>1294</v>
+      </c>
+      <c r="S195" s="3" t="s">
+        <v>2686</v>
+      </c>
+      <c r="U195" t="s">
+        <v>52</v>
+      </c>
+      <c r="W195" t="s">
+        <v>3073</v>
+      </c>
+    </row>
+    <row r="196" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B196" t="s">
         <v>2698</v>
       </c>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196" t="s">
+      <c r="P196" t="s">
+        <v>2999</v>
+      </c>
+      <c r="W196" t="s">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="197" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B197" t="s">
         <v>2699</v>
       </c>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197" t="s">
+      <c r="S197" t="s">
+        <v>3067</v>
+      </c>
+    </row>
+    <row r="198" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B198" t="s">
         <v>2700</v>
       </c>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198" t="s">
+      <c r="S198" t="s">
+        <v>2955</v>
+      </c>
+    </row>
+    <row r="199" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B199" t="s">
         <v>2701</v>
       </c>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B199" t="s">
+      <c r="U199" t="s">
+        <v>3071</v>
+      </c>
+    </row>
+    <row r="200" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B200" t="s">
         <v>2702</v>
       </c>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" t="s">
+      <c r="U200" t="s">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="201" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B201" t="s">
         <v>2703</v>
       </c>
     </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B201" t="s">
+    <row r="202" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B202" t="s">
         <v>2704</v>
       </c>
     </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" t="s">
+    <row r="203" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B203" t="s">
         <v>2705</v>
       </c>
     </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205" t="s">
+    <row r="206" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B206" t="s">
         <v>2706</v>
       </c>
     </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206" t="s">
+    <row r="207" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="B207" t="s">
         <v>2707</v>
-      </c>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B208" t="s">
-        <v>2708</v>
       </c>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B209" t="s">
-        <v>2709</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B210" t="s">
-        <v>2710</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B211" t="s">
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B212" t="s">
         <v>2711</v>
-      </c>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" t="s">
-        <v>2712</v>
       </c>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B217" t="s">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B218" t="s">
         <v>2713</v>
       </c>
     </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" t="s">
+    <row r="220" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B220" t="s">
         <v>2714</v>
-      </c>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" t="s">
-        <v>2715</v>
       </c>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B222" t="s">
+        <v>2715</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B223" t="s">
         <v>2716</v>
       </c>
     </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" t="s">
+    <row r="225" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B225" t="s">
         <v>2717</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" t="s">
-        <v>2718</v>
       </c>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B227" t="s">
+        <v>2718</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B228" t="s">
         <v>2719</v>
       </c>
     </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" t="s">
+    <row r="230" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B230" t="s">
         <v>2720</v>
-      </c>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B231" t="s">
-        <v>2721</v>
       </c>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B232" t="s">
+        <v>2721</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B233" t="s">
         <v>2722</v>
       </c>
     </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B234" t="s">
+    <row r="235" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B235" t="s">
         <v>2723</v>
-      </c>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B236" t="s">
-        <v>2724</v>
       </c>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B237" t="s">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B238" t="s">
         <v>2725</v>
       </c>
     </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" t="s">
+    <row r="240" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B240" t="s">
         <v>2726</v>
-      </c>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" t="s">
-        <v>2727</v>
       </c>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B242" t="s">
+        <v>2727</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B243" t="s">
         <v>2728</v>
       </c>
     </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B244" t="s">
+    <row r="245" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B245" t="s">
         <v>2729</v>
-      </c>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B246" t="s">
-        <v>2730</v>
       </c>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B247" t="s">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B248" t="s">
         <v>2731</v>
       </c>
     </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B249" t="s">
+    <row r="250" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B250" t="s">
         <v>2732</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B251" t="s">
-        <v>2733</v>
       </c>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B252" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B253" t="s">
         <v>2734</v>
       </c>
     </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B254" t="s">
+    <row r="255" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B255" t="s">
         <v>2735</v>
-      </c>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B256" t="s">
-        <v>2736</v>
       </c>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B257" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B258" t="s">
         <v>2737</v>
       </c>
     </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B259" t="s">
+    <row r="260" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B260" t="s">
         <v>2738</v>
-      </c>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B261" t="s">
-        <v>2739</v>
       </c>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B262" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B263" t="s">
         <v>2740</v>
       </c>
     </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B264" t="s">
+    <row r="265" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B265" t="s">
         <v>2741</v>
-      </c>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B266" t="s">
-        <v>2742</v>
       </c>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B267" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B268" t="s">
         <v>2743</v>
       </c>
     </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B269" t="s">
+    <row r="270" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B270" t="s">
         <v>2744</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B271" t="s">
-        <v>2745</v>
       </c>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B272" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B273" t="s">
         <v>2746</v>
       </c>
     </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B274" t="s">
+    <row r="275" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B275" t="s">
         <v>2747</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B276" t="s">
-        <v>2748</v>
       </c>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B277" t="s">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B278" t="s">
         <v>2749</v>
       </c>
     </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B279" t="s">
+    <row r="280" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B280" t="s">
         <v>2750</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B281" t="s">
-        <v>2751</v>
       </c>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B282" t="s">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B283" t="s">
         <v>2752</v>
       </c>
     </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B284" t="s">
+    <row r="285" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B285" t="s">
         <v>2753</v>
-      </c>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B286" t="s">
-        <v>2754</v>
       </c>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B287" t="s">
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B288" t="s">
         <v>2755</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B289" t="s">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B290" t="s">
         <v>2756</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B291" t="s">
-        <v>2757</v>
       </c>
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B292" t="s">
+        <v>2757</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B293" t="s">
         <v>2758</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B294" t="s">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B295" t="s">
         <v>2759</v>
       </c>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B299" t="s">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B300" t="s">
         <v>2760</v>
       </c>
-      <c r="D299" t="s">
+      <c r="D300" t="s">
         <v>2765</v>
       </c>
-      <c r="F299" t="s">
+      <c r="F300" t="s">
         <v>2773</v>
       </c>
-      <c r="H299" t="s">
+      <c r="H300" t="s">
         <v>2778</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
         <v>2797</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B301" t="s">
         <v>2761</v>
       </c>
-      <c r="D300" t="s">
+      <c r="D301" t="s">
         <v>2766</v>
       </c>
-      <c r="F300" t="s">
+      <c r="F301" t="s">
         <v>2774</v>
       </c>
-      <c r="H300" t="s">
+      <c r="H301" t="s">
         <v>2779</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B301" t="s">
-        <v>2762</v>
-      </c>
-      <c r="D301" t="s">
-        <v>2767</v>
-      </c>
-      <c r="F301" t="s">
-        <v>2775</v>
-      </c>
-      <c r="H301" t="s">
-        <v>2780</v>
       </c>
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B302" t="s">
-        <v>2763</v>
+        <v>2762</v>
       </c>
       <c r="D302" t="s">
-        <v>2793</v>
+        <v>2767</v>
       </c>
       <c r="F302" t="s">
-        <v>2776</v>
+        <v>2775</v>
       </c>
       <c r="H302" t="s">
-        <v>2781</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B303" t="s">
+        <v>2763</v>
+      </c>
+      <c r="D303" t="s">
+        <v>2793</v>
+      </c>
+      <c r="F303" t="s">
+        <v>2776</v>
+      </c>
+      <c r="H303" t="s">
+        <v>2781</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B304" t="s">
         <v>2764</v>
       </c>
-      <c r="D303" t="s">
+      <c r="D304" t="s">
         <v>2794</v>
       </c>
-      <c r="F303" t="s">
+      <c r="F304" t="s">
         <v>2777</v>
       </c>
-      <c r="H303" t="s">
+      <c r="H304" t="s">
         <v>2782</v>
       </c>
     </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
         <v>2798</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B306" t="s">
         <v>2768</v>
       </c>
-      <c r="D305" t="s">
+      <c r="D306" t="s">
         <v>2795</v>
       </c>
-      <c r="F305" t="s">
+      <c r="F306" t="s">
         <v>2796</v>
       </c>
-      <c r="H305" t="s">
+      <c r="H306" t="s">
         <v>2787</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B306" t="s">
-        <v>2769</v>
-      </c>
-      <c r="D306" t="s">
-        <v>2770</v>
-      </c>
-      <c r="F306" t="s">
-        <v>2783</v>
-      </c>
-      <c r="H306" t="s">
-        <v>2788</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B307" t="s">
-        <v>2791</v>
+        <v>2769</v>
       </c>
       <c r="D307" t="s">
-        <v>2792</v>
+        <v>2770</v>
       </c>
       <c r="F307" t="s">
-        <v>2784</v>
+        <v>2783</v>
       </c>
       <c r="H307" t="s">
-        <v>2789</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B308" t="s">
+        <v>2791</v>
+      </c>
+      <c r="D308" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F308" t="s">
+        <v>2784</v>
+      </c>
+      <c r="H308" t="s">
+        <v>2789</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B309" t="s">
         <v>2771</v>
       </c>
-      <c r="D308" t="s">
+      <c r="D309" t="s">
         <v>2772</v>
       </c>
-      <c r="F308" t="s">
+      <c r="F309" t="s">
         <v>2785</v>
       </c>
-      <c r="H308" t="s">
+      <c r="H309" t="s">
         <v>2790</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="F309" t="s">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F310" t="s">
         <v>2786</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B314" t="s">
-        <v>2799</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B315" t="s">
-        <v>2800</v>
+        <v>2799</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B316" t="s">
-        <v>2801</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B317" t="s">
-        <v>2802</v>
+        <v>2801</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B318" t="s">
-        <v>2803</v>
+        <v>2802</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B319" t="s">
-        <v>2804</v>
+        <v>2803</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B320" t="s">
-        <v>2805</v>
+        <v>2804</v>
       </c>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B321" t="s">
-        <v>2806</v>
+        <v>2805</v>
       </c>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B322" t="s">
-        <v>2807</v>
+        <v>2806</v>
       </c>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B323" t="s">
-        <v>2808</v>
+        <v>2807</v>
       </c>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B324" t="s">
-        <v>2809</v>
+        <v>2808</v>
       </c>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B325" t="s">
+        <v>2809</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B326" t="s">
         <v>2810</v>
-      </c>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B346" t="s">
-        <v>2811</v>
       </c>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B347" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B348" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B349" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B350" t="s">
-        <v>2815</v>
+        <v>2814</v>
       </c>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B351" t="s">
+        <v>2815</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B352" t="s">
         <v>2816</v>
-      </c>
-    </row>
-    <row r="370" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B370" t="s">
-        <v>2817</v>
-      </c>
-      <c r="M370" t="s">
-        <v>2927</v>
       </c>
     </row>
     <row r="371" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B371" t="s">
-        <v>2818</v>
+        <v>2817</v>
       </c>
       <c r="M371" t="s">
-        <v>2928</v>
+        <v>2927</v>
       </c>
     </row>
     <row r="372" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B372" t="s">
-        <v>2819</v>
+        <v>2818</v>
       </c>
       <c r="M372" t="s">
-        <v>2929</v>
+        <v>2928</v>
       </c>
     </row>
     <row r="373" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B373" t="s">
-        <v>2820</v>
+        <v>2819</v>
       </c>
       <c r="M373" t="s">
-        <v>2980</v>
+        <v>2929</v>
       </c>
     </row>
     <row r="374" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B374" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="M374" t="s">
-        <v>2930</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="375" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B375" t="s">
-        <v>2822</v>
+        <v>2821</v>
       </c>
       <c r="M375" t="s">
-        <v>2931</v>
+        <v>2930</v>
       </c>
     </row>
     <row r="376" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B376" t="s">
-        <v>2823</v>
+        <v>2822</v>
       </c>
       <c r="M376" t="s">
-        <v>2979</v>
+        <v>2931</v>
       </c>
     </row>
     <row r="377" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B377" t="s">
-        <v>2824</v>
+        <v>2823</v>
       </c>
       <c r="M377" t="s">
-        <v>2932</v>
+        <v>2979</v>
       </c>
     </row>
     <row r="378" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B378" t="s">
-        <v>2825</v>
+        <v>2824</v>
       </c>
       <c r="M378" t="s">
-        <v>2978</v>
+        <v>2932</v>
       </c>
     </row>
     <row r="379" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B379" t="s">
-        <v>2826</v>
+        <v>2825</v>
       </c>
       <c r="M379" t="s">
-        <v>2933</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="380" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B380" t="s">
+        <v>2826</v>
+      </c>
+      <c r="M380" t="s">
+        <v>2933</v>
+      </c>
+    </row>
+    <row r="381" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B381" t="s">
         <v>2827</v>
       </c>
-      <c r="M380" t="s">
+      <c r="M381" t="s">
         <v>3056</v>
       </c>
     </row>
-    <row r="381" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M381" t="s">
+    <row r="382" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M382" t="s">
         <v>3034</v>
-      </c>
-    </row>
-    <row r="382" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B382" t="s">
-        <v>2828</v>
-      </c>
-      <c r="M382" t="s">
-        <v>2975</v>
       </c>
     </row>
     <row r="383" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B383" t="s">
-        <v>2829</v>
+        <v>2828</v>
       </c>
       <c r="M383" t="s">
-        <v>2977</v>
+        <v>2975</v>
       </c>
     </row>
     <row r="384" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B384" t="s">
-        <v>2830</v>
+        <v>2829</v>
       </c>
       <c r="M384" t="s">
-        <v>2934</v>
+        <v>2977</v>
       </c>
     </row>
     <row r="385" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B385" t="s">
-        <v>2831</v>
+        <v>2830</v>
       </c>
       <c r="M385" t="s">
-        <v>2976</v>
+        <v>2934</v>
       </c>
     </row>
     <row r="386" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B386" t="s">
-        <v>2832</v>
+        <v>2831</v>
       </c>
       <c r="M386" t="s">
-        <v>2935</v>
+        <v>2976</v>
       </c>
     </row>
     <row r="387" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B387" t="s">
-        <v>2833</v>
+        <v>2832</v>
       </c>
       <c r="M387" t="s">
-        <v>2981</v>
+        <v>2935</v>
       </c>
     </row>
     <row r="388" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B388" t="s">
-        <v>2834</v>
+        <v>2833</v>
       </c>
       <c r="M388" t="s">
-        <v>2936</v>
+        <v>2981</v>
       </c>
     </row>
     <row r="389" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B389" t="s">
-        <v>2835</v>
+        <v>2834</v>
       </c>
       <c r="M389" t="s">
-        <v>2982</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="390" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B390" t="s">
+        <v>2835</v>
+      </c>
+      <c r="M390" t="s">
+        <v>2982</v>
+      </c>
+    </row>
+    <row r="391" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B391" t="s">
         <v>2836</v>
       </c>
-      <c r="M390" t="s">
+      <c r="M391" t="s">
         <v>2983</v>
       </c>
     </row>
-    <row r="391" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M391" t="s">
+    <row r="392" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M392" t="s">
         <v>3054</v>
-      </c>
-    </row>
-    <row r="392" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B392" t="s">
-        <v>2837</v>
-      </c>
-      <c r="M392" t="s">
-        <v>2937</v>
       </c>
     </row>
     <row r="393" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B393" t="s">
-        <v>2838</v>
+        <v>2837</v>
       </c>
       <c r="M393" t="s">
-        <v>2984</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="394" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B394" t="s">
-        <v>2839</v>
+        <v>2838</v>
       </c>
       <c r="M394" t="s">
-        <v>2938</v>
+        <v>2984</v>
       </c>
     </row>
     <row r="395" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B395" t="s">
-        <v>2840</v>
+        <v>2839</v>
       </c>
       <c r="M395" t="s">
-        <v>2985</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="396" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B396" t="s">
-        <v>2841</v>
+        <v>2840</v>
       </c>
       <c r="M396" t="s">
-        <v>2986</v>
+        <v>2985</v>
       </c>
     </row>
     <row r="397" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B397" t="s">
-        <v>2842</v>
+        <v>2841</v>
       </c>
       <c r="M397" t="s">
-        <v>2939</v>
+        <v>2986</v>
       </c>
     </row>
     <row r="398" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B398" t="s">
-        <v>2843</v>
+        <v>2842</v>
       </c>
       <c r="M398" t="s">
-        <v>2987</v>
+        <v>2939</v>
       </c>
     </row>
     <row r="399" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B399" t="s">
-        <v>2844</v>
+        <v>2843</v>
       </c>
       <c r="M399" t="s">
-        <v>2988</v>
+        <v>2987</v>
       </c>
     </row>
     <row r="400" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B400" t="s">
+        <v>2844</v>
+      </c>
+      <c r="M400" t="s">
+        <v>2988</v>
+      </c>
+    </row>
+    <row r="401" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B401" t="s">
         <v>2845</v>
       </c>
-      <c r="M400" t="s">
+      <c r="M401" t="s">
         <v>2989</v>
       </c>
     </row>
-    <row r="401" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M401" t="s">
+    <row r="402" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M402" t="s">
         <v>3046</v>
-      </c>
-    </row>
-    <row r="402" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B402" t="s">
-        <v>2846</v>
-      </c>
-      <c r="M402" t="s">
-        <v>3058</v>
       </c>
     </row>
     <row r="403" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B403" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
       <c r="M403" t="s">
-        <v>2990</v>
+        <v>3058</v>
       </c>
     </row>
     <row r="404" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B404" t="s">
-        <v>2848</v>
+        <v>2847</v>
       </c>
       <c r="M404" t="s">
-        <v>2991</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="405" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B405" t="s">
-        <v>2849</v>
+        <v>2848</v>
       </c>
       <c r="M405" t="s">
-        <v>2940</v>
+        <v>2991</v>
       </c>
     </row>
     <row r="406" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B406" t="s">
-        <v>2850</v>
+        <v>2849</v>
       </c>
       <c r="M406" t="s">
-        <v>2941</v>
+        <v>2940</v>
       </c>
     </row>
     <row r="407" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B407" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="M407" t="s">
-        <v>2942</v>
+        <v>2941</v>
       </c>
     </row>
     <row r="408" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B408" t="s">
-        <v>2852</v>
+        <v>2851</v>
       </c>
       <c r="M408" t="s">
-        <v>2992</v>
+        <v>2942</v>
       </c>
     </row>
     <row r="409" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B409" t="s">
-        <v>2853</v>
+        <v>2852</v>
       </c>
       <c r="M409" t="s">
-        <v>2943</v>
+        <v>2992</v>
       </c>
     </row>
     <row r="410" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B410" t="s">
+        <v>2853</v>
+      </c>
+      <c r="M410" t="s">
+        <v>2943</v>
+      </c>
+    </row>
+    <row r="411" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B411" t="s">
         <v>2854</v>
       </c>
-      <c r="M410" t="s">
+      <c r="M411" t="s">
         <v>3057</v>
       </c>
     </row>
-    <row r="411" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M411" t="s">
+    <row r="412" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M412" t="s">
         <v>3042</v>
-      </c>
-    </row>
-    <row r="412" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B412" t="s">
-        <v>2855</v>
-      </c>
-      <c r="M412" t="s">
-        <v>3059</v>
       </c>
     </row>
     <row r="413" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B413" t="s">
-        <v>2856</v>
+        <v>2855</v>
       </c>
       <c r="M413" t="s">
-        <v>2993</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="414" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B414" t="s">
-        <v>2857</v>
+        <v>2856</v>
       </c>
       <c r="M414" t="s">
-        <v>2994</v>
+        <v>2993</v>
       </c>
     </row>
     <row r="415" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B415" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="M415" t="s">
-        <v>2995</v>
+        <v>2994</v>
       </c>
     </row>
     <row r="416" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B416" t="s">
-        <v>2859</v>
+        <v>2858</v>
       </c>
       <c r="M416" t="s">
-        <v>2944</v>
+        <v>2995</v>
       </c>
     </row>
     <row r="417" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B417" t="s">
-        <v>2860</v>
+        <v>2859</v>
       </c>
       <c r="M417" t="s">
-        <v>2996</v>
+        <v>2944</v>
       </c>
     </row>
     <row r="418" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B418" t="s">
-        <v>2997</v>
+        <v>2860</v>
       </c>
       <c r="M418" t="s">
-        <v>2945</v>
+        <v>2996</v>
       </c>
     </row>
     <row r="419" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B419" t="s">
-        <v>2861</v>
+        <v>2997</v>
       </c>
       <c r="M419" t="s">
-        <v>2998</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="420" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B420" t="s">
+        <v>2861</v>
+      </c>
+      <c r="M420" t="s">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="421" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B421" t="s">
         <v>2862</v>
       </c>
-      <c r="M420" t="s">
+      <c r="M421" t="s">
         <v>3060</v>
       </c>
     </row>
-    <row r="421" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M421" t="s">
+    <row r="422" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M422" t="s">
         <v>3036</v>
-      </c>
-    </row>
-    <row r="422" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B422" t="s">
-        <v>2863</v>
-      </c>
-      <c r="M422" t="s">
-        <v>2946</v>
       </c>
     </row>
     <row r="423" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B423" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="M423" t="s">
-        <v>2999</v>
+        <v>2946</v>
       </c>
     </row>
     <row r="424" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B424" t="s">
-        <v>2865</v>
+        <v>2864</v>
       </c>
       <c r="M424" t="s">
-        <v>2947</v>
+        <v>2999</v>
       </c>
     </row>
     <row r="425" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B425" t="s">
-        <v>2866</v>
+        <v>2865</v>
       </c>
       <c r="M425" t="s">
-        <v>3000</v>
+        <v>2947</v>
       </c>
     </row>
     <row r="426" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B426" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="M426" t="s">
-        <v>2948</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="427" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B427" t="s">
-        <v>2868</v>
+        <v>2867</v>
       </c>
       <c r="M427" t="s">
-        <v>3001</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="428" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B428" t="s">
-        <v>2869</v>
+        <v>2868</v>
       </c>
       <c r="M428" t="s">
-        <v>2949</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="429" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B429" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="M429" t="s">
-        <v>3002</v>
+        <v>2949</v>
       </c>
     </row>
     <row r="430" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B430" t="s">
+        <v>2870</v>
+      </c>
+      <c r="M430" t="s">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="431" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B431" t="s">
         <v>2871</v>
       </c>
-      <c r="M430" t="s">
+      <c r="M431" t="s">
         <v>3003</v>
       </c>
     </row>
-    <row r="431" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M431" t="s">
+    <row r="432" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M432" t="s">
         <v>3048</v>
-      </c>
-    </row>
-    <row r="432" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B432" t="s">
-        <v>2872</v>
-      </c>
-      <c r="M432" t="s">
-        <v>2950</v>
       </c>
     </row>
     <row r="433" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B433" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="M433" t="s">
-        <v>3004</v>
+        <v>2950</v>
       </c>
     </row>
     <row r="434" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B434" t="s">
-        <v>2874</v>
+        <v>2873</v>
       </c>
       <c r="M434" t="s">
-        <v>2951</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="435" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B435" t="s">
-        <v>2875</v>
+        <v>2874</v>
       </c>
       <c r="M435" t="s">
-        <v>2952</v>
+        <v>2951</v>
       </c>
     </row>
     <row r="436" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B436" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="M436" t="s">
-        <v>2953</v>
+        <v>2952</v>
       </c>
     </row>
     <row r="437" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B437" t="s">
-        <v>2877</v>
+        <v>2876</v>
       </c>
       <c r="M437" t="s">
-        <v>3005</v>
+        <v>2953</v>
       </c>
     </row>
     <row r="438" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B438" t="s">
-        <v>2878</v>
+        <v>2877</v>
       </c>
       <c r="M438" t="s">
-        <v>3006</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="439" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B439" t="s">
-        <v>2879</v>
+        <v>2878</v>
       </c>
       <c r="M439" t="s">
-        <v>2954</v>
+        <v>3006</v>
       </c>
     </row>
     <row r="440" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B440" t="s">
+        <v>2879</v>
+      </c>
+      <c r="M440" t="s">
+        <v>2954</v>
+      </c>
+    </row>
+    <row r="441" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B441" t="s">
         <v>2880</v>
       </c>
-      <c r="M440" t="s">
+      <c r="M441" t="s">
         <v>3007</v>
       </c>
     </row>
-    <row r="441" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M441" t="s">
+    <row r="442" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M442" t="s">
         <v>3050</v>
-      </c>
-    </row>
-    <row r="442" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B442" t="s">
-        <v>2881</v>
-      </c>
-      <c r="M442" t="s">
-        <v>3061</v>
       </c>
     </row>
     <row r="443" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B443" t="s">
-        <v>2882</v>
+        <v>2881</v>
       </c>
       <c r="M443" t="s">
-        <v>2955</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="444" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B444" t="s">
-        <v>2883</v>
+        <v>2882</v>
       </c>
       <c r="M444" t="s">
-        <v>2956</v>
+        <v>2955</v>
       </c>
     </row>
     <row r="445" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B445" t="s">
-        <v>2884</v>
+        <v>2883</v>
       </c>
       <c r="M445" t="s">
-        <v>3008</v>
+        <v>2956</v>
       </c>
     </row>
     <row r="446" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B446" t="s">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="M446" t="s">
-        <v>3009</v>
+        <v>3008</v>
       </c>
     </row>
     <row r="447" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B447" t="s">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="M447" t="s">
-        <v>2957</v>
+        <v>3009</v>
       </c>
     </row>
     <row r="448" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B448" t="s">
-        <v>2887</v>
+        <v>2886</v>
       </c>
       <c r="M448" t="s">
-        <v>3010</v>
+        <v>2957</v>
       </c>
     </row>
     <row r="449" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B449" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="M449" t="s">
-        <v>3011</v>
+        <v>3010</v>
       </c>
     </row>
     <row r="450" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B450" t="s">
-        <v>2889</v>
+        <v>2888</v>
       </c>
       <c r="M450" t="s">
-        <v>2958</v>
+        <v>3011</v>
       </c>
     </row>
     <row r="451" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B451" t="s">
+        <v>2889</v>
+      </c>
+      <c r="M451" t="s">
+        <v>2958</v>
+      </c>
+    </row>
+    <row r="452" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B452" t="s">
         <v>2890</v>
       </c>
-      <c r="M451" t="s">
+      <c r="M452" t="s">
         <v>3062</v>
       </c>
     </row>
-    <row r="452" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M452" t="s">
+    <row r="453" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M453" t="s">
         <v>3040</v>
-      </c>
-    </row>
-    <row r="453" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B453" t="s">
-        <v>2891</v>
-      </c>
-      <c r="M453" t="s">
-        <v>2974</v>
       </c>
     </row>
     <row r="454" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B454" t="s">
-        <v>2892</v>
+        <v>2891</v>
       </c>
       <c r="M454" t="s">
-        <v>3012</v>
+        <v>2974</v>
       </c>
     </row>
     <row r="455" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B455" t="s">
-        <v>2893</v>
+        <v>2892</v>
       </c>
       <c r="M455" t="s">
-        <v>2959</v>
+        <v>3012</v>
       </c>
     </row>
     <row r="456" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B456" t="s">
-        <v>2894</v>
+        <v>2893</v>
       </c>
       <c r="M456" t="s">
-        <v>2960</v>
+        <v>2959</v>
       </c>
     </row>
     <row r="457" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B457" t="s">
-        <v>2895</v>
+        <v>2894</v>
       </c>
       <c r="M457" t="s">
-        <v>3013</v>
+        <v>2960</v>
       </c>
     </row>
     <row r="458" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B458" t="s">
-        <v>2896</v>
+        <v>2895</v>
       </c>
       <c r="M458" t="s">
-        <v>2961</v>
+        <v>3013</v>
       </c>
     </row>
     <row r="459" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B459" t="s">
-        <v>2897</v>
+        <v>2896</v>
       </c>
       <c r="M459" t="s">
-        <v>3014</v>
+        <v>2961</v>
       </c>
     </row>
     <row r="460" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B460" t="s">
-        <v>2898</v>
+        <v>2897</v>
       </c>
       <c r="M460" t="s">
-        <v>2962</v>
+        <v>3014</v>
       </c>
     </row>
     <row r="461" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B461" t="s">
+        <v>2898</v>
+      </c>
+      <c r="M461" t="s">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="462" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B462" t="s">
         <v>2899</v>
       </c>
-      <c r="M461" t="s">
+      <c r="M462" t="s">
         <v>3015</v>
       </c>
     </row>
-    <row r="462" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M462" t="s">
+    <row r="463" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M463" t="s">
         <v>3052</v>
-      </c>
-    </row>
-    <row r="463" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B463" t="s">
-        <v>2900</v>
-      </c>
-      <c r="M463" t="s">
-        <v>2973</v>
       </c>
     </row>
     <row r="464" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B464" t="s">
-        <v>2901</v>
+        <v>2900</v>
       </c>
       <c r="M464" t="s">
-        <v>3016</v>
+        <v>2973</v>
       </c>
     </row>
     <row r="465" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B465" t="s">
-        <v>2902</v>
+        <v>2901</v>
       </c>
       <c r="M465" t="s">
-        <v>3017</v>
+        <v>3016</v>
       </c>
     </row>
     <row r="466" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B466" t="s">
-        <v>2903</v>
+        <v>2902</v>
       </c>
       <c r="M466" t="s">
-        <v>3018</v>
+        <v>3017</v>
       </c>
     </row>
     <row r="467" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B467" t="s">
-        <v>2904</v>
+        <v>2903</v>
       </c>
       <c r="M467" t="s">
-        <v>3019</v>
+        <v>3018</v>
       </c>
     </row>
     <row r="468" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B468" t="s">
-        <v>2905</v>
+        <v>2904</v>
       </c>
       <c r="M468" t="s">
-        <v>3020</v>
+        <v>3019</v>
       </c>
     </row>
     <row r="469" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B469" t="s">
-        <v>2906</v>
+        <v>2905</v>
       </c>
       <c r="M469" t="s">
-        <v>3021</v>
+        <v>3020</v>
       </c>
     </row>
     <row r="470" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B470" t="s">
-        <v>2907</v>
+        <v>2906</v>
       </c>
       <c r="M470" t="s">
-        <v>3022</v>
+        <v>3021</v>
       </c>
     </row>
     <row r="471" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B471" t="s">
+        <v>2907</v>
+      </c>
+      <c r="M471" t="s">
+        <v>3022</v>
+      </c>
+    </row>
+    <row r="472" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B472" t="s">
         <v>2908</v>
       </c>
-      <c r="M471" t="s">
+      <c r="M472" t="s">
         <v>3055</v>
       </c>
     </row>
-    <row r="472" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="M472" t="s">
+    <row r="473" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M473" t="s">
         <v>3032</v>
-      </c>
-    </row>
-    <row r="473" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B473" t="s">
-        <v>2909</v>
-      </c>
-      <c r="M473" t="s">
-        <v>2963</v>
       </c>
     </row>
     <row r="474" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B474" t="s">
-        <v>2910</v>
+        <v>2909</v>
       </c>
       <c r="M474" t="s">
-        <v>3023</v>
+        <v>2963</v>
       </c>
     </row>
     <row r="475" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B475" t="s">
-        <v>2911</v>
+        <v>2910</v>
       </c>
       <c r="M475" t="s">
-        <v>3024</v>
+        <v>3023</v>
       </c>
     </row>
     <row r="476" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B476" t="s">
-        <v>2912</v>
+        <v>2911</v>
       </c>
       <c r="M476" t="s">
-        <v>2964</v>
+        <v>3024</v>
       </c>
     </row>
     <row r="477" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B477" t="s">
-        <v>2913</v>
+        <v>2912</v>
       </c>
       <c r="M477" t="s">
-        <v>2965</v>
+        <v>2964</v>
       </c>
     </row>
     <row r="478" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B478" t="s">
-        <v>2914</v>
+        <v>2913</v>
       </c>
       <c r="M478" t="s">
-        <v>3025</v>
+        <v>2965</v>
       </c>
     </row>
     <row r="479" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B479" t="s">
-        <v>2915</v>
+        <v>2914</v>
       </c>
       <c r="M479" t="s">
-        <v>3026</v>
+        <v>3025</v>
       </c>
     </row>
     <row r="480" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B480" t="s">
+        <v>2915</v>
+      </c>
+      <c r="M480" t="s">
+        <v>3026</v>
+      </c>
+    </row>
+    <row r="481" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B481" t="s">
         <v>2916</v>
       </c>
-      <c r="M480" t="s">
+      <c r="M481" t="s">
         <v>2966</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B481" t="s">
+    <row r="482" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B482" t="s">
         <v>2917</v>
       </c>
-      <c r="M481" t="s">
+      <c r="M482" t="s">
         <v>3027</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M482" t="s">
+    <row r="483" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M483" t="s">
         <v>3044</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B483" t="s">
+    <row r="484" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B484" t="s">
         <v>2918</v>
       </c>
-      <c r="M483" t="s">
+      <c r="M484" t="s">
         <v>2967</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B484" t="s">
+    <row r="485" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B485" t="s">
         <v>2919</v>
       </c>
-      <c r="M484" t="s">
+      <c r="M485" t="s">
         <v>3028</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B485" t="s">
+    <row r="486" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B486" t="s">
         <v>2920</v>
       </c>
-      <c r="M485" t="s">
+      <c r="M486" t="s">
         <v>2968</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B486" t="s">
+    <row r="487" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B487" t="s">
         <v>2921</v>
       </c>
-      <c r="M486" t="s">
+      <c r="M487" t="s">
         <v>2969</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B487" t="s">
+    <row r="488" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B488" t="s">
         <v>2922</v>
       </c>
-      <c r="M487" t="s">
+      <c r="M488" t="s">
         <v>2970</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B488" t="s">
+    <row r="489" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B489" t="s">
         <v>2923</v>
       </c>
-      <c r="M488" t="s">
+      <c r="M489" t="s">
         <v>2971</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B489" t="s">
+    <row r="490" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B490" t="s">
         <v>2924</v>
       </c>
-      <c r="M489" t="s">
+      <c r="M490" t="s">
         <v>3030</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B490" t="s">
+    <row r="491" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B491" t="s">
         <v>2925</v>
       </c>
-      <c r="M490" t="s">
+      <c r="M491" t="s">
         <v>2972</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B491" t="s">
+    <row r="492" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B492" t="s">
         <v>2926</v>
       </c>
-      <c r="M491" t="s">
+      <c r="M492" t="s">
         <v>3029</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="M492" t="s">
+    <row r="493" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M493" t="s">
         <v>3038</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A496">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A497">
         <v>10</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B497" t="s">
         <v>3031</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B497" t="s">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B498" t="s">
         <v>3032</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A499">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A500">
         <v>1</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B500" t="s">
         <v>3033</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B500" t="s">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B501" t="s">
         <v>3034</v>
-      </c>
-    </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B502" t="s">
-        <v>3035</v>
-      </c>
-      <c r="D502">
-        <v>5</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B503" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D503">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B504" t="s">
         <v>3036</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A505">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A506">
         <v>12</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B506" t="s">
         <v>3037</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B506" t="s">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B507" t="s">
         <v>3038</v>
-      </c>
-    </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B508" t="s">
-        <v>3039</v>
-      </c>
-      <c r="D508">
-        <v>8</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B509" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D509">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B510" t="s">
         <v>3040</v>
-      </c>
-    </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B511" t="s">
-        <v>3041</v>
-      </c>
-      <c r="D511">
-        <v>4</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B512" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D512">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B513" t="s">
         <v>3042</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A514">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A515">
         <v>11</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B515" t="s">
         <v>3043</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B515" t="s">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B516" t="s">
         <v>3044</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A517">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A518">
         <v>3</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B518" t="s">
         <v>3045</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B518" t="s">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B519" t="s">
         <v>3046</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A520">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A521">
         <v>6</v>
       </c>
-      <c r="B520" t="s">
+      <c r="B521" t="s">
         <v>3047</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B521" t="s">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B522" t="s">
         <v>3048</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A523">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A524">
         <v>7</v>
       </c>
-      <c r="B523" t="s">
+      <c r="B524" t="s">
         <v>3049</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B524" t="s">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B525" t="s">
         <v>3050</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A526">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A527">
         <v>9</v>
       </c>
-      <c r="B526" t="s">
+      <c r="B527" t="s">
         <v>3051</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="B527" t="s">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B528" t="s">
         <v>3052</v>
-      </c>
-    </row>
-    <row r="529" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B529" t="s">
-        <v>3053</v>
-      </c>
-      <c r="D529">
-        <v>2</v>
       </c>
     </row>
     <row r="530" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B530" t="s">
+        <v>3053</v>
+      </c>
+      <c r="D530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B531" t="s">
         <v>3054</v>
       </c>
     </row>

--- a/tunnepyora.xlsx
+++ b/tunnepyora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/B0448A65-F12A-40B7-B31D-00B325476E7D/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3235" documentId="8_{62920A7E-06B9-244E-861B-F76490E68AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B0A660FA-E2B5-5342-9F1D-D8895DDA581A}"/>
+  <xr:revisionPtr revIDLastSave="3582" documentId="8_{62920A7E-06B9-244E-861B-F76490E68AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44A452C7-BF35-FA45-BC90-10742735BB5B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="11" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
+    <sheet name="Sheet12" sheetId="13" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$B$1:$B$114</definedName>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7030" uniqueCount="3146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7638" uniqueCount="3250">
   <si>
     <t>Arvostettu</t>
   </si>
@@ -9376,9 +9379,6 @@
     <t>Ratkaiseva</t>
   </si>
   <si>
-    <t>Ajaa</t>
-  </si>
-  <si>
     <t>Positiivinen ajattelu</t>
   </si>
   <si>
@@ -9415,18 +9415,12 @@
     <t>Analyysit</t>
   </si>
   <si>
-    <t>Tuloskeskeisnen</t>
-  </si>
-  <si>
     <t>INNOSTAJA</t>
   </si>
   <si>
     <t>KANNUSTAJA</t>
   </si>
   <si>
-    <t>SÄÄTÄJÄ</t>
-  </si>
-  <si>
     <t>RYTMITTÄJÄ</t>
   </si>
   <si>
@@ -9436,14 +9430,383 @@
     <t>Yhteistyö</t>
   </si>
   <si>
-    <t>HAVAINNOIJA</t>
+    <t>Tuloskeskeinen</t>
+  </si>
+  <si>
+    <t>TARKKAILIJA</t>
+  </si>
+  <si>
+    <t>UUDISTAJA</t>
+  </si>
+  <si>
+    <t>Rohkeutta</t>
+  </si>
+  <si>
+    <t>Negatiivinen ja voimakas</t>
+  </si>
+  <si>
+    <t>Suututtaa</t>
+  </si>
+  <si>
+    <t>Ärsyttävyys</t>
+  </si>
+  <si>
+    <t>Halveksuntaa</t>
+  </si>
+  <si>
+    <t>Ärsytys</t>
+  </si>
+  <si>
+    <t>Negatiivinen ja ei hallinnassa</t>
+  </si>
+  <si>
+    <t>Hämmennystä</t>
+  </si>
+  <si>
+    <t>Voimattomuus</t>
+  </si>
+  <si>
+    <t>Huoli</t>
+  </si>
+  <si>
+    <t>Negatiivisia ajatuksia</t>
+  </si>
+  <si>
+    <t>Turhautumista</t>
+  </si>
+  <si>
+    <t>Negatiivinen ja passiivinen</t>
+  </si>
+  <si>
+    <t>Tylsistyminen</t>
+  </si>
+  <si>
+    <t>Surullisuus</t>
+  </si>
+  <si>
+    <t>Stressi</t>
+  </si>
+  <si>
+    <t>Shokki</t>
+  </si>
+  <si>
+    <t>Positiivinen ja eloisa</t>
+  </si>
+  <si>
+    <t>Huvi</t>
+  </si>
+  <si>
+    <t>Ilahduttaa</t>
+  </si>
+  <si>
+    <t>Jännitystä</t>
+  </si>
+  <si>
+    <t>Onnellisuus</t>
+  </si>
+  <si>
+    <t>Positiivisia ajatuksia</t>
+  </si>
+  <si>
+    <t>Toivoa</t>
+  </si>
+  <si>
+    <t>Hiljainen positiivinen</t>
+  </si>
+  <si>
+    <t>Rentoutuminen</t>
+  </si>
+  <si>
+    <t>Helpotus</t>
+  </si>
+  <si>
+    <t>Tyyneys</t>
+  </si>
+  <si>
+    <t>Kohteliaisuus</t>
+  </si>
+  <si>
+    <t>Yllätys</t>
+  </si>
+  <si>
+    <t>Reaktio</t>
+  </si>
+  <si>
+    <t>Odotus, ilo, yllätys, suru</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Ennakointi</t>
+  </si>
+  <si>
+    <t>Pessimismi</t>
+  </si>
+  <si>
+    <t>Optimismi</t>
+  </si>
+  <si>
+    <t>Hylkääminen</t>
+  </si>
+  <si>
+    <t>Iloa, luottamusta, surua, inhoa</t>
+  </si>
+  <si>
+    <t>Sairastavuus</t>
+  </si>
+  <si>
+    <t>Sentimentaalisuus</t>
+  </si>
+  <si>
+    <t>Luottamus, pelko, inho, viha</t>
+  </si>
+  <si>
+    <t>Lähetys</t>
+  </si>
+  <si>
+    <t>Dominanssi</t>
+  </si>
+  <si>
+    <t>Pelko, yllätys, viha, odotus</t>
+  </si>
+  <si>
+    <t>Järkytystä</t>
+  </si>
+  <si>
+    <t>Aggressiivisuus</t>
+  </si>
+  <si>
+    <t>Luottamus, yllätys, inho, ennakointi</t>
+  </si>
+  <si>
+    <t>Epäusko</t>
+  </si>
+  <si>
+    <t>Iloa, pelkoa, surua, vihaa</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>A,B,C,D,E,F,G,H,I,J,K,L,M,N,O,P,Q,R</t>
+  </si>
+  <si>
+    <t>2,4,4,6,2,2,4,2,5,6,2,5,6,4,2,5,4,4</t>
+  </si>
+  <si>
+    <t>4,1,3,2,4,1,3,1,2,2,1,4,4,1,3,2,1,5</t>
+  </si>
+  <si>
+    <t>3,5,3,3,3,2,2,1,3,5,2,1,1,2,2,5,2,2</t>
+  </si>
+  <si>
+    <t>3,5,4,5,3,2,4,5,5,6,3,4,5,3,4,3,3,3</t>
+  </si>
+  <si>
+    <t>3,4,5,6,1,4,6,3,2,6,3,5,5,1,2,4,4,2</t>
+  </si>
+  <si>
+    <t>5,4,4,5,2,5,5,6,6,4,5,6,4,5,4,6,5,5</t>
+  </si>
+  <si>
+    <t>3,5,3,6,4,6,4,6,5,3,4,5,5,4,3,5,5,4</t>
+  </si>
+  <si>
+    <t>5,6,3,5,3,3,5,5,4,2,3,4,3,4,3,4,5,4</t>
+  </si>
+  <si>
+    <t>6,5,3,4,3,4,6,4,4,3,6,4,3,3,2,3,4,5</t>
+  </si>
+  <si>
+    <t>4,6,3,6,2,5,4,6,6,4,7,3,6,5,5,5,6,3</t>
+  </si>
+  <si>
+    <t>Pearson Correlation coefficient r</t>
+  </si>
+  <si>
+    <t>Significance (two-tailed) p-value</t>
+  </si>
+  <si>
+    <t>decisive factor</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>-0.745*</t>
+  </si>
+  <si>
+    <t>0.780**</t>
+  </si>
+  <si>
+    <t>0.751*</t>
+  </si>
+  <si>
+    <t>-0.669*</t>
+  </si>
+  <si>
+    <t>0.739*</t>
+  </si>
+  <si>
+    <t>-0.639*</t>
+  </si>
+  <si>
+    <t>0.768**</t>
+  </si>
+  <si>
+    <t>0.740*</t>
+  </si>
+  <si>
+    <t>0.687*</t>
+  </si>
+  <si>
+    <t>0.949***</t>
+  </si>
+  <si>
+    <t>0.677*</t>
+  </si>
+  <si>
+    <t>0.643*</t>
+  </si>
+  <si>
+    <t>0.649*</t>
+  </si>
+  <si>
+    <t>0.824**</t>
+  </si>
+  <si>
+    <t>0.815**</t>
+  </si>
+  <si>
+    <t>0.825**</t>
+  </si>
+  <si>
+    <t>0.702*</t>
+  </si>
+  <si>
+    <t>0.753*</t>
+  </si>
+  <si>
+    <t>0.800**</t>
+  </si>
+  <si>
+    <t>-0.643*</t>
+  </si>
+  <si>
+    <t>*. At significant level0.05When (two-tailed), the correlation is significant.**. At significant level0.01When (two-tailed), the correlation is significant.***. At significant level0.001When (two-tailed), the correlation is significant.</t>
+  </si>
+  <si>
+    <t>Miten helppoa etätyötoiminnan toteuttaminen mielestäsi on ollut?</t>
+  </si>
+  <si>
+    <t>Minkälaisena näet etätyötoiminnan mahdollisuudet?</t>
+  </si>
+  <si>
+    <t>Miten etätyötoiminnan toteuttaja yleensä onnistuu asiakkaiden sitouttamisessa?</t>
+  </si>
+  <si>
+    <t>Missä tarvitaan edelleen yhdessä opettelemista?</t>
+  </si>
+  <si>
+    <t>Miten työntekijä onnistuu palautumaan toteutuneesta etätyötoiminnasta?</t>
+  </si>
+  <si>
+    <t>Miten helppona pidät etätyötoiminnan aloittamista?</t>
+  </si>
+  <si>
+    <t>Miten hyvin asiakkaat ovat sitoutuneet etätyötoiminnan toteutumiseen?</t>
+  </si>
+  <si>
+    <t>Ovatko verkossa toteutuneet etätyötoiminta-ajat sopivan pituisia?</t>
+  </si>
+  <si>
+    <t>Miten helppoa mielestäsi olisi toteuttaa erilaisia elinikäisen oppimisen koulutuksia etätyön yhteydessä?</t>
+  </si>
+  <si>
+    <t>Pitäisikö asiakkaan voida vaikuttaa sisällöntuotantoon enemmän?</t>
+  </si>
+  <si>
+    <t>Saavatko asiakkaat mielestäsi vaikuttaa tällä hetkellä riittävästi etätyötoiminnan toteutukseen?</t>
+  </si>
+  <si>
+    <t>Työntekijöiden sisällöntuotantoon osallistuminen. Onko siinä mielestäsi onnistuttu?</t>
+  </si>
+  <si>
+    <t>Jaksaminen: Onko etätyötoiminnan toteutus mielestäsi kuormittavaa?</t>
+  </si>
+  <si>
+    <t>Oppivatko etätyötä tekevät henkilöt nopeasti teknisten laitteiden käytön?</t>
+  </si>
+  <si>
+    <t>Onko sisällöntuotantoa helppoa sunnitella etätyötoimintatapahtumasta toiseen?</t>
+  </si>
+  <si>
+    <t>Miten helppoa olisi luoda kestävä yhtenäinen toimintamalli kaikkeen etätyötoimintaan?</t>
+  </si>
+  <si>
+    <t>Onko etätyötoiminnan toteutuminen/toteuttaminen tulevaisuudessa helppoa?</t>
+  </si>
+  <si>
+    <t>Onko etätyötoiminnan toteutuminen mielestäsi ajoittain raskasta?</t>
+  </si>
+  <si>
+    <t>Merkitsevyys</t>
+  </si>
+  <si>
+    <t>Korrelaatio</t>
+  </si>
+  <si>
+    <t>Onko sisällöntuotantoa helppoa sunnitella etätyötoiminta tapahtumasta toiseen?</t>
+  </si>
+  <si>
+    <t>Sample descriptive statistics</t>
+  </si>
+  <si>
+    <t>average</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>number</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9462,6 +9825,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -9487,7 +9858,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -9496,6 +9867,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14956,6 +15328,4858 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8846FC-D789-D840-AE1F-6C79EF4095A3}">
+  <dimension ref="B2:R50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J1:J1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.5078125" customWidth="1"/>
+    <col min="10" max="10" width="17.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>3130</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3135</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>3139</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>3141</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>713</v>
+      </c>
+      <c r="J3" t="s">
+        <v>820</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3142</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3132</v>
+      </c>
+      <c r="F4" t="s">
+        <v>3136</v>
+      </c>
+      <c r="J4" t="s">
+        <v>990</v>
+      </c>
+      <c r="N4" t="s">
+        <v>726</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>3133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>779</v>
+      </c>
+      <c r="J5" t="s">
+        <v>754</v>
+      </c>
+      <c r="N5" t="s">
+        <v>780</v>
+      </c>
+      <c r="R5" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>747</v>
+      </c>
+      <c r="F6" t="s">
+        <v>725</v>
+      </c>
+      <c r="J6" t="s">
+        <v>3140</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2375</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3134</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3137</v>
+      </c>
+      <c r="J7" t="s">
+        <v>796</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3143</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>3138</v>
+      </c>
+      <c r="J8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>3146</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>3151</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>3153</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>3159</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>3147</v>
+      </c>
+      <c r="F15" t="s">
+        <v>850</v>
+      </c>
+      <c r="J15" t="s">
+        <v>3129</v>
+      </c>
+      <c r="N15" t="s">
+        <v>785</v>
+      </c>
+      <c r="R15" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>3148</v>
+      </c>
+      <c r="F16" t="s">
+        <v>719</v>
+      </c>
+      <c r="J16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="N16" t="s">
+        <v>806</v>
+      </c>
+      <c r="R16" t="s">
+        <v>3157</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>788</v>
+      </c>
+      <c r="F17" t="s">
+        <v>821</v>
+      </c>
+      <c r="J17" t="s">
+        <v>775</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3154</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3158</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>3149</v>
+      </c>
+      <c r="F18" t="s">
+        <v>783</v>
+      </c>
+      <c r="J18" t="s">
+        <v>806</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>3150</v>
+      </c>
+      <c r="J19" t="s">
+        <v>770</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>3160</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I28" t="s">
+        <v>3143</v>
+      </c>
+      <c r="J28" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H29" t="s">
+        <v>3162</v>
+      </c>
+      <c r="I29" t="s">
+        <v>3163</v>
+      </c>
+      <c r="J29" t="s">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="30" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="H30" t="s">
+        <v>3158</v>
+      </c>
+      <c r="I30" t="s">
+        <v>3165</v>
+      </c>
+      <c r="J30" t="s">
+        <v>3148</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>3166</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I32" t="s">
+        <v>747</v>
+      </c>
+      <c r="J32" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="33" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>746</v>
+      </c>
+      <c r="I33" t="s">
+        <v>3167</v>
+      </c>
+      <c r="J33" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="34" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H34" t="s">
+        <v>3143</v>
+      </c>
+      <c r="I34" t="s">
+        <v>756</v>
+      </c>
+      <c r="J34" t="s">
+        <v>3168</v>
+      </c>
+    </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>3169</v>
+      </c>
+      <c r="H36" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I36" t="s">
+        <v>779</v>
+      </c>
+      <c r="J36" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H37" t="s">
+        <v>770</v>
+      </c>
+      <c r="I37" t="s">
+        <v>3170</v>
+      </c>
+      <c r="J37" t="s">
+        <v>3171</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H38" t="s">
+        <v>747</v>
+      </c>
+      <c r="I38" t="s">
+        <v>742</v>
+      </c>
+      <c r="J38" t="s">
+        <v>3133</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>3172</v>
+      </c>
+      <c r="H40" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I40" t="s">
+        <v>3158</v>
+      </c>
+      <c r="J40" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H41" t="s">
+        <v>3131</v>
+      </c>
+      <c r="I41" t="s">
+        <v>3173</v>
+      </c>
+      <c r="J41" t="s">
+        <v>3174</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H42" t="s">
+        <v>779</v>
+      </c>
+      <c r="I42" t="s">
+        <v>1626</v>
+      </c>
+      <c r="J42" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>3175</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I44" t="s">
+        <v>3158</v>
+      </c>
+      <c r="J44" t="s">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>770</v>
+      </c>
+      <c r="I45" t="s">
+        <v>808</v>
+      </c>
+      <c r="J45" t="s">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>747</v>
+      </c>
+      <c r="I46" t="s">
+        <v>3176</v>
+      </c>
+      <c r="J46" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="48" spans="4:10" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>3177</v>
+      </c>
+      <c r="H48" t="s">
+        <v>3161</v>
+      </c>
+      <c r="I48" t="s">
+        <v>779</v>
+      </c>
+      <c r="J48" t="s">
+        <v>3131</v>
+      </c>
+    </row>
+    <row r="49" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H49" t="s">
+        <v>746</v>
+      </c>
+      <c r="I49" t="s">
+        <v>796</v>
+      </c>
+      <c r="J49" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="50" spans="8:10" x14ac:dyDescent="0.2">
+      <c r="H50" t="s">
+        <v>3143</v>
+      </c>
+      <c r="I50" t="s">
+        <v>726</v>
+      </c>
+      <c r="J50" t="s">
+        <v>754</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8306D64-ECCC-3E46-9B65-4D53DADFB47B}">
+  <dimension ref="A3:W46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="M3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W3" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>5</v>
+      </c>
+      <c r="J4">
+        <v>6</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W4" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>831</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>6</v>
+      </c>
+      <c r="M5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W5" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="M6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V6" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W6" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V7" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W7" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2659</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="M8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W8" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2660</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V9" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W9" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>2661</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V10" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W10" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>2662</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11">
+        <v>3</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>6</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>6</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V11" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W11" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3178</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>5</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>6</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V12" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W12" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3179</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>6</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V13" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W13" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3181</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>6</v>
+      </c>
+      <c r="K14">
+        <v>7</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V14" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W14" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3182</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>5</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V15" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W15" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3183</v>
+      </c>
+      <c r="B16">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16">
+        <v>3</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>6</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V16" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W16" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3184</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V17" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W17" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3185</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V18" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W18" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3186</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>5</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V19" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W19" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3187</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="M20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V20" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W20" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3188</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="M21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="N21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="O21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="P21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="R21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="S21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="T21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="U21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="V21" t="s">
+        <v>3180</v>
+      </c>
+      <c r="W21" t="s">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>A4&amp;M4&amp;A5&amp;M5&amp;A6&amp;M6&amp;A7&amp;M7&amp;A8&amp;M8&amp;A9&amp;M9&amp;A10&amp;M10&amp;A11&amp;M11&amp;A12&amp;M12&amp;A13&amp;M13&amp;A14&amp;M14&amp;A15&amp;M15&amp;A16&amp;M16&amp;A17&amp;M17&amp;A18&amp;M18&amp;A19&amp;M19&amp;A20&amp;M20&amp;A21</f>
+        <v>A,B,C,D,E,F,G,H,I,J,K,L,M,N,O,P,Q,R</v>
+      </c>
+      <c r="B25" t="str">
+        <f>B4&amp;N4&amp;B5&amp;N5&amp;B6&amp;N6&amp;B7&amp;N7&amp;B8&amp;N8&amp;B9&amp;N9&amp;B10&amp;N10&amp;B11&amp;N11&amp;B12&amp;N12&amp;B13&amp;N13&amp;B14&amp;N14&amp;B15&amp;N15&amp;B16&amp;N16&amp;B17&amp;N17&amp;B18&amp;N18&amp;B19&amp;N19&amp;B20&amp;N20&amp;B21</f>
+        <v>2,4,4,6,2,2,4,2,5,6,2,5,6,4,2,5,4,4</v>
+      </c>
+      <c r="C25" t="str">
+        <f>C4&amp;O4&amp;C5&amp;O5&amp;C6&amp;O6&amp;C7&amp;O7&amp;C8&amp;O8&amp;C9&amp;O9&amp;C10&amp;O10&amp;C11&amp;O11&amp;C12&amp;O12&amp;C13&amp;O13&amp;C14&amp;O14&amp;C15&amp;O15&amp;C16&amp;O16&amp;C17&amp;O17&amp;C18&amp;O18&amp;C19&amp;O19&amp;C20&amp;O20&amp;C21</f>
+        <v>4,1,3,2,4,1,3,1,2,2,1,4,4,1,3,2,1,5</v>
+      </c>
+      <c r="D25" t="str">
+        <f>D4&amp;P4&amp;D5&amp;P5&amp;D6&amp;P6&amp;D7&amp;P7&amp;D8&amp;P8&amp;D9&amp;P9&amp;D10&amp;P10&amp;D11&amp;P11&amp;D12&amp;P12&amp;D13&amp;P13&amp;D14&amp;P14&amp;D15&amp;P15&amp;D16&amp;P16&amp;D17&amp;P17&amp;D18&amp;P18&amp;D19&amp;P19&amp;D20&amp;P20&amp;D21</f>
+        <v>3,5,3,3,3,2,2,1,3,5,2,1,1,2,2,5,2,2</v>
+      </c>
+      <c r="E25" t="str">
+        <f>E4&amp;Q4&amp;E5&amp;Q5&amp;E6&amp;Q6&amp;E7&amp;Q7&amp;E8&amp;Q8&amp;E9&amp;Q9&amp;E10&amp;Q10&amp;E11&amp;Q11&amp;E12&amp;Q12&amp;E13&amp;Q13&amp;E14&amp;Q14&amp;E15&amp;Q15&amp;E16&amp;Q16&amp;E17&amp;Q17&amp;E18&amp;Q18&amp;E19&amp;Q19&amp;E20&amp;Q20&amp;E21</f>
+        <v>3,5,4,5,3,2,4,5,5,6,3,4,5,3,4,3,3,3</v>
+      </c>
+      <c r="F25" t="str">
+        <f>F4&amp;R4&amp;F5&amp;R5&amp;F6&amp;R6&amp;F7&amp;R7&amp;F8&amp;R8&amp;F9&amp;R9&amp;F10&amp;R10&amp;F11&amp;R11&amp;F12&amp;R12&amp;F13&amp;R13&amp;F14&amp;R14&amp;F15&amp;R15&amp;F16&amp;R16&amp;F17&amp;R17&amp;F18&amp;R18&amp;F19&amp;R19&amp;F20&amp;R20&amp;F21</f>
+        <v>3,4,5,6,1,4,6,3,2,6,3,5,5,1,2,4,4,2</v>
+      </c>
+      <c r="G25" t="str">
+        <f>G4&amp;S4&amp;G5&amp;S5&amp;G6&amp;S6&amp;G7&amp;S7&amp;G8&amp;S8&amp;G9&amp;S9&amp;G10&amp;S10&amp;G11&amp;S11&amp;G12&amp;S12&amp;G13&amp;S13&amp;G14&amp;S14&amp;G15&amp;S15&amp;G16&amp;S16&amp;G17&amp;S17&amp;G18&amp;S18&amp;G19&amp;S19&amp;G20&amp;S20&amp;G21</f>
+        <v>5,4,4,5,2,5,5,6,6,4,5,6,4,5,4,6,5,5</v>
+      </c>
+      <c r="H25" t="str">
+        <f>H4&amp;T4&amp;H5&amp;T5&amp;H6&amp;T6&amp;H7&amp;T7&amp;H8&amp;T8&amp;H9&amp;T9&amp;H10&amp;T10&amp;H11&amp;T11&amp;H12&amp;T12&amp;H13&amp;T13&amp;H14&amp;T14&amp;H15&amp;T15&amp;H16&amp;T16&amp;H17&amp;T17&amp;H18&amp;T18&amp;H19&amp;T19&amp;H20&amp;T20&amp;H21</f>
+        <v>3,5,3,6,4,6,4,6,5,3,4,5,5,4,3,5,5,4</v>
+      </c>
+      <c r="I25" t="str">
+        <f>I4&amp;U4&amp;I5&amp;U5&amp;I6&amp;U6&amp;I7&amp;U7&amp;I8&amp;U8&amp;I9&amp;U9&amp;I10&amp;U10&amp;I11&amp;U11&amp;I12&amp;U12&amp;I13&amp;U13&amp;I14&amp;U14&amp;I15&amp;U15&amp;I16&amp;U16&amp;I17&amp;U17&amp;I18&amp;U18&amp;I19&amp;U19&amp;I20&amp;U20&amp;I21</f>
+        <v>5,6,3,5,3,3,5,5,4,2,3,4,3,4,3,4,5,4</v>
+      </c>
+      <c r="J25" t="str">
+        <f>J4&amp;V4&amp;J5&amp;V5&amp;J6&amp;V6&amp;J7&amp;V7&amp;J8&amp;V8&amp;J9&amp;V9&amp;J10&amp;V10&amp;J11&amp;V11&amp;J12&amp;V12&amp;J13&amp;V13&amp;J14&amp;V14&amp;J15&amp;V15&amp;J16&amp;V16&amp;J17&amp;V17&amp;J18&amp;V18&amp;J19&amp;V19&amp;J20&amp;V20&amp;J21</f>
+        <v>6,5,3,4,3,4,6,4,4,3,6,4,3,3,2,3,4,5</v>
+      </c>
+      <c r="K25" t="str">
+        <f>K4&amp;W4&amp;K5&amp;W5&amp;K6&amp;W6&amp;K7&amp;W7&amp;K8&amp;W8&amp;K9&amp;W9&amp;K10&amp;W10&amp;K11&amp;W11&amp;K12&amp;W12&amp;K13&amp;W13&amp;K14&amp;W14&amp;K15&amp;W15&amp;K16&amp;W16&amp;K17&amp;W17&amp;K18&amp;W18&amp;K19&amp;W19&amp;K20&amp;W20&amp;K21</f>
+        <v>4,6,3,6,2,5,4,6,6,4,7,3,6,5,5,5,6,3</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>3189</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>3190</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>3191</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>3193</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>3194</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>3195</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>3198</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>3199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E67EF82-06B1-B74E-A5AB-720AA52350A7}">
+  <dimension ref="C2:V138"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K108" sqref="K108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="4" max="4" width="56.6328125" customWidth="1"/>
+    <col min="5" max="5" width="8.875" customWidth="1"/>
+    <col min="12" max="12" width="10.89453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F2" t="s">
+        <v>831</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1581</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2659</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2660</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2661</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2662</v>
+      </c>
+      <c r="M2" t="s">
+        <v>3178</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3179</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3181</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3182</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3183</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3184</v>
+      </c>
+      <c r="S2" t="s">
+        <v>3185</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3186</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3187</v>
+      </c>
+      <c r="V2" t="s">
+        <v>3188</v>
+      </c>
+    </row>
+    <row r="3" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>831</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E3">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E4">
+        <v>0.72852526991414901</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E5">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E7">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="F7">
+        <v>-0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E8">
+        <v>0.273991139620752</v>
+      </c>
+      <c r="F8">
+        <v>0.649940150162992</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E9">
+        <v>0.14699999999999999</v>
+      </c>
+      <c r="F9">
+        <v>2.7E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E11">
+        <v>-0.28399999999999997</v>
+      </c>
+      <c r="F11">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G11">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E12">
+        <v>0.42580258650773001</v>
+      </c>
+      <c r="F12">
+        <v>9.6443192609085696E-2</v>
+      </c>
+      <c r="G12">
+        <v>0.192501725116343</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E13">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.307</v>
+      </c>
+      <c r="G13">
+        <v>0.20200000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>10</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E15">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="F15">
+        <v>-0.20399999999999999</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>3204</v>
+      </c>
+      <c r="H15">
+        <v>-0.55300000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E16">
+        <v>0.71335056675743203</v>
+      </c>
+      <c r="F16">
+        <v>0.571426350830465</v>
+      </c>
+      <c r="G16">
+        <v>1.33490634260186E-2</v>
+      </c>
+      <c r="H16">
+        <v>9.7478543397919795E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E17">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="G17">
+        <v>0.55600000000000005</v>
+      </c>
+      <c r="H17">
+        <v>0.30599999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E18">
+        <v>10</v>
+      </c>
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E19">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.61799999999999999</v>
+      </c>
+      <c r="I19">
+        <v>-0.19900000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E20">
+        <v>0.46197924879809699</v>
+      </c>
+      <c r="F20">
+        <v>0.16977418224694901</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>5.7050917368915301E-2</v>
+      </c>
+      <c r="I20">
+        <v>0.58119412613125299</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E21">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F21">
+        <v>0.222</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E23">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="F23">
+        <v>0.217</v>
+      </c>
+      <c r="G23">
+        <v>0.439</v>
+      </c>
+      <c r="H23">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="I23">
+        <v>-0.47699999999999998</v>
+      </c>
+      <c r="J23">
+        <v>0.47399999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E24">
+        <v>0.16371125572277501</v>
+      </c>
+      <c r="F24">
+        <v>0.54759560500481197</v>
+      </c>
+      <c r="G24">
+        <v>0.20389051736747199</v>
+      </c>
+      <c r="H24">
+        <v>0.15788490049447801</v>
+      </c>
+      <c r="I24">
+        <v>0.16309854124755799</v>
+      </c>
+      <c r="J24">
+        <v>0.165916660072598</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E25">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="F25">
+        <v>4.7E-2</v>
+      </c>
+      <c r="G25">
+        <v>0.193</v>
+      </c>
+      <c r="H25">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="I25">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="J25">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
+        <v>10</v>
+      </c>
+      <c r="J26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E27">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="F27">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="G27">
+        <v>-3.9E-2</v>
+      </c>
+      <c r="H27">
+        <v>0.62</v>
+      </c>
+      <c r="I27">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>3205</v>
+      </c>
+      <c r="K27">
+        <v>0.45200000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E28">
+        <v>0.32415784047106</v>
+      </c>
+      <c r="F28">
+        <v>7.0636688858796801E-2</v>
+      </c>
+      <c r="G28">
+        <v>0.91524899367374701</v>
+      </c>
+      <c r="H28">
+        <v>5.5858112711493199E-2</v>
+      </c>
+      <c r="I28">
+        <v>0.836438340473456</v>
+      </c>
+      <c r="J28">
+        <v>7.8037725959192398E-3</v>
+      </c>
+      <c r="K28">
+        <v>0.19018416124000101</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E29">
+        <v>0.121</v>
+      </c>
+      <c r="F29">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="G29">
+        <v>2E-3</v>
+      </c>
+      <c r="H29">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="I29">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="J29">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="K29">
+        <v>0.20399999999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E30">
+        <v>10</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>10</v>
+      </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
+      <c r="I30">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>10</v>
+      </c>
+      <c r="K30">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E31">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="F31">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G31">
+        <v>-0.106</v>
+      </c>
+      <c r="H31">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I31">
+        <v>-0.111</v>
+      </c>
+      <c r="J31">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="K31">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>3206</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E32">
+        <v>0.813796587813295</v>
+      </c>
+      <c r="F32">
+        <v>0.11906098302708901</v>
+      </c>
+      <c r="G32">
+        <v>0.76969919463122205</v>
+      </c>
+      <c r="H32">
+        <v>9.2309256126116804E-2</v>
+      </c>
+      <c r="I32">
+        <v>0.75992296834873896</v>
+      </c>
+      <c r="J32">
+        <v>0.130174502965688</v>
+      </c>
+      <c r="K32">
+        <v>0.81708024697209103</v>
+      </c>
+      <c r="L32">
+        <v>1.22736322300037E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F33">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="G33">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H33">
+        <v>0.314</v>
+      </c>
+      <c r="I33">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J33">
+        <v>0.26200000000000001</v>
+      </c>
+      <c r="K33">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L33">
+        <v>0.56399999999999995</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E34">
+        <v>10</v>
+      </c>
+      <c r="F34">
+        <v>10</v>
+      </c>
+      <c r="G34">
+        <v>10</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>10</v>
+      </c>
+      <c r="J34">
+        <v>10</v>
+      </c>
+      <c r="K34">
+        <v>10</v>
+      </c>
+      <c r="L34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F35">
+        <v>0.121</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>3208</v>
+      </c>
+      <c r="H35">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>3209</v>
+      </c>
+      <c r="J35">
+        <v>-0.14399999999999999</v>
+      </c>
+      <c r="K35">
+        <v>-1.7000000000000001E-2</v>
+      </c>
+      <c r="L35">
+        <v>-0.16900000000000001</v>
+      </c>
+      <c r="M35">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E36">
+        <v>3.4528881604103903E-2</v>
+      </c>
+      <c r="F36">
+        <v>0.73818950306281705</v>
+      </c>
+      <c r="G36">
+        <v>1.46464985119973E-2</v>
+      </c>
+      <c r="H36">
+        <v>0.241247657202488</v>
+      </c>
+      <c r="I36">
+        <v>4.6801549636547903E-2</v>
+      </c>
+      <c r="J36">
+        <v>0.69178879945907701</v>
+      </c>
+      <c r="K36">
+        <v>0.96348923184551805</v>
+      </c>
+      <c r="L36">
+        <v>0.64156572140356904</v>
+      </c>
+      <c r="M36">
+        <v>0.81548058390282296</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E37">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="F37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H37">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="I37">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="J37">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="M37">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E38">
+        <v>10</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>10</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
+      <c r="I38">
+        <v>10</v>
+      </c>
+      <c r="J38">
+        <v>10</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>10</v>
+      </c>
+      <c r="M38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E39">
+        <v>0.53400000000000003</v>
+      </c>
+      <c r="F39">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="G39">
+        <v>-0.16600000000000001</v>
+      </c>
+      <c r="H39">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="I39">
+        <v>-0.25900000000000001</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="K39">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>3211</v>
+      </c>
+      <c r="M39">
+        <v>0.627</v>
+      </c>
+      <c r="N39">
+        <v>-0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E40">
+        <v>0.11221031689602599</v>
+      </c>
+      <c r="F40">
+        <v>8.4143270270292503E-2</v>
+      </c>
+      <c r="G40">
+        <v>0.64745196392994597</v>
+      </c>
+      <c r="H40">
+        <v>0.218253215030872</v>
+      </c>
+      <c r="I40">
+        <v>0.46947745498608601</v>
+      </c>
+      <c r="J40">
+        <v>9.4423295117535E-3</v>
+      </c>
+      <c r="K40">
+        <v>0.16309854124755799</v>
+      </c>
+      <c r="L40">
+        <v>1.43289468850389E-2</v>
+      </c>
+      <c r="M40">
+        <v>5.2365745804780102E-2</v>
+      </c>
+      <c r="N40">
+        <v>0.71588908124587303</v>
+      </c>
+    </row>
+    <row r="41" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E41">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="F41">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="G41">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H41">
+        <v>0.182</v>
+      </c>
+      <c r="I41">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="J41">
+        <v>0.59</v>
+      </c>
+      <c r="K41">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0.54800000000000004</v>
+      </c>
+      <c r="M41">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="N41">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>10</v>
+      </c>
+      <c r="G42">
+        <v>10</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>10</v>
+      </c>
+      <c r="J42">
+        <v>10</v>
+      </c>
+      <c r="K42">
+        <v>10</v>
+      </c>
+      <c r="L42">
+        <v>10</v>
+      </c>
+      <c r="M42">
+        <v>10</v>
+      </c>
+      <c r="N42">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E43">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F43">
+        <v>-0.254</v>
+      </c>
+      <c r="G43">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="I43">
+        <v>-0.23100000000000001</v>
+      </c>
+      <c r="J43">
+        <v>0.374</v>
+      </c>
+      <c r="K43">
+        <v>0.628</v>
+      </c>
+      <c r="L43">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="M43">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="N43">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="O43">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E44">
+        <v>0.82793312738879199</v>
+      </c>
+      <c r="F44">
+        <v>0.47796505765824598</v>
+      </c>
+      <c r="G44">
+        <v>0.126804795830888</v>
+      </c>
+      <c r="H44">
+        <v>0.16487672699926201</v>
+      </c>
+      <c r="I44">
+        <v>0.52122745785370495</v>
+      </c>
+      <c r="J44">
+        <v>0.28666270727915</v>
+      </c>
+      <c r="K44">
+        <v>5.1688633362602203E-2</v>
+      </c>
+      <c r="L44">
+        <v>0.24633910843617399</v>
+      </c>
+      <c r="M44">
+        <v>0.46155884704574701</v>
+      </c>
+      <c r="N44">
+        <v>0.98888074355717503</v>
+      </c>
+      <c r="O44">
+        <v>0.77798628742834697</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E45">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F45">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="G45">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="H45">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I45">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="J45">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="K45">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="L45">
+        <v>0.16400000000000001</v>
+      </c>
+      <c r="M45">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N45">
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E46">
+        <v>10</v>
+      </c>
+      <c r="F46">
+        <v>10</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46">
+        <v>10</v>
+      </c>
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>10</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>10</v>
+      </c>
+      <c r="N46">
+        <v>10</v>
+      </c>
+      <c r="O46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E47">
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="F47">
+        <v>-0.05</v>
+      </c>
+      <c r="G47">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="I47">
+        <v>-0.33300000000000002</v>
+      </c>
+      <c r="J47">
+        <v>0.27</v>
+      </c>
+      <c r="K47">
+        <v>0.252</v>
+      </c>
+      <c r="L47">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="M47">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="N47">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="O47">
+        <v>0.219</v>
+      </c>
+      <c r="P47">
+        <v>0.56499999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E48">
+        <v>0.271831396015356</v>
+      </c>
+      <c r="F48">
+        <v>0.89084370868126805</v>
+      </c>
+      <c r="G48">
+        <v>0.24471593227263</v>
+      </c>
+      <c r="H48">
+        <v>2.81001491393628E-2</v>
+      </c>
+      <c r="I48">
+        <v>0.34764914668138303</v>
+      </c>
+      <c r="J48">
+        <v>0.45046592989050099</v>
+      </c>
+      <c r="K48">
+        <v>0.48221800542431198</v>
+      </c>
+      <c r="L48">
+        <v>0.30500591455474102</v>
+      </c>
+      <c r="M48">
+        <v>0.22937508108384499</v>
+      </c>
+      <c r="N48">
+        <v>0.39026955657885898</v>
+      </c>
+      <c r="O48">
+        <v>0.54279883377107097</v>
+      </c>
+      <c r="P48">
+        <v>8.8595623609288701E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E49">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="F49">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G49">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="H49">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="I49">
+        <v>0.111</v>
+      </c>
+      <c r="J49">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="K49">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="L49">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="M49">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="N49">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="O49">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="P49">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E50">
+        <v>10</v>
+      </c>
+      <c r="F50">
+        <v>10</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
+      </c>
+      <c r="I50">
+        <v>10</v>
+      </c>
+      <c r="J50">
+        <v>10</v>
+      </c>
+      <c r="K50">
+        <v>10</v>
+      </c>
+      <c r="L50">
+        <v>10</v>
+      </c>
+      <c r="M50">
+        <v>10</v>
+      </c>
+      <c r="N50">
+        <v>10</v>
+      </c>
+      <c r="O50">
+        <v>10</v>
+      </c>
+      <c r="P50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E51">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="F51">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="G51">
+        <v>-0.21299999999999999</v>
+      </c>
+      <c r="H51">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="I51">
+        <v>-0.111</v>
+      </c>
+      <c r="J51">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="K51">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="M51" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="N51">
+        <v>-0.104</v>
+      </c>
+      <c r="O51">
+        <v>0.627</v>
+      </c>
+      <c r="P51">
+        <v>0.26400000000000001</v>
+      </c>
+      <c r="Q51">
+        <v>0.32100000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E52">
+        <v>0.56370383618949205</v>
+      </c>
+      <c r="F52">
+        <v>8.0310062564876994E-2</v>
+      </c>
+      <c r="G52">
+        <v>0.55471070193830696</v>
+      </c>
+      <c r="H52">
+        <v>9.2309256126116804E-2</v>
+      </c>
+      <c r="I52">
+        <v>0.75992296834873896</v>
+      </c>
+      <c r="J52">
+        <v>9.3784745448225904E-2</v>
+      </c>
+      <c r="K52">
+        <v>0.69069329396738599</v>
+      </c>
+      <c r="L52">
+        <v>1.22736322300037E-2</v>
+      </c>
+      <c r="M52">
+        <v>2.7868451654255999E-5</v>
+      </c>
+      <c r="N52">
+        <v>0.77527730594217903</v>
+      </c>
+      <c r="O52">
+        <v>5.2365745804780102E-2</v>
+      </c>
+      <c r="P52">
+        <v>0.46155884704574701</v>
+      </c>
+      <c r="Q52">
+        <v>0.36617175205769598</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E53">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="F53">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="G53">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="H53">
+        <v>0.314</v>
+      </c>
+      <c r="I53">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J53">
+        <v>0.311</v>
+      </c>
+      <c r="K53">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="L53">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="M53">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="N53">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="O53">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="P53">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Q53">
+        <v>0.10299999999999999</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E54">
+        <v>10</v>
+      </c>
+      <c r="F54">
+        <v>10</v>
+      </c>
+      <c r="G54">
+        <v>10</v>
+      </c>
+      <c r="H54">
+        <v>10</v>
+      </c>
+      <c r="I54">
+        <v>10</v>
+      </c>
+      <c r="J54">
+        <v>10</v>
+      </c>
+      <c r="K54">
+        <v>10</v>
+      </c>
+      <c r="L54">
+        <v>10</v>
+      </c>
+      <c r="M54">
+        <v>10</v>
+      </c>
+      <c r="N54">
+        <v>10</v>
+      </c>
+      <c r="O54">
+        <v>10</v>
+      </c>
+      <c r="P54">
+        <v>10</v>
+      </c>
+      <c r="Q54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E55">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="F55">
+        <v>0.221</v>
+      </c>
+      <c r="G55">
+        <v>-0.14899999999999999</v>
+      </c>
+      <c r="H55">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.32</v>
+      </c>
+      <c r="K55">
+        <v>-8.4000000000000005E-2</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>3214</v>
+      </c>
+      <c r="M55" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="N55">
+        <v>-0.13200000000000001</v>
+      </c>
+      <c r="O55">
+        <v>0.5</v>
+      </c>
+      <c r="P55">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="Q55">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="R55">
+        <v>0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E56">
+        <v>0.63568740871246998</v>
+      </c>
+      <c r="F56">
+        <v>0.54031042858190403</v>
+      </c>
+      <c r="G56">
+        <v>0.68105716087188095</v>
+      </c>
+      <c r="H56">
+        <v>0.52986176270132601</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>0.36723751255154502</v>
+      </c>
+      <c r="K56">
+        <v>0.81708024697209103</v>
+      </c>
+      <c r="L56">
+        <v>3.1617811564529599E-2</v>
+      </c>
+      <c r="M56">
+        <v>4.49809690654056E-2</v>
+      </c>
+      <c r="N56">
+        <v>0.71588908124587303</v>
+      </c>
+      <c r="O56">
+        <v>0.14111328125</v>
+      </c>
+      <c r="P56">
+        <v>0.832722915188577</v>
+      </c>
+      <c r="Q56">
+        <v>0.24150397191306</v>
+      </c>
+      <c r="R56">
+        <v>8.4413625032329798E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E57">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F57">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="G57">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H57">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="K57">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="L57">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="M57">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="N57">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="O57">
+        <v>0.25</v>
+      </c>
+      <c r="P57">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="Q57">
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="R57">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E58">
+        <v>10</v>
+      </c>
+      <c r="F58">
+        <v>10</v>
+      </c>
+      <c r="G58">
+        <v>10</v>
+      </c>
+      <c r="H58">
+        <v>10</v>
+      </c>
+      <c r="I58">
+        <v>10</v>
+      </c>
+      <c r="J58">
+        <v>10</v>
+      </c>
+      <c r="K58">
+        <v>10</v>
+      </c>
+      <c r="L58">
+        <v>10</v>
+      </c>
+      <c r="M58">
+        <v>10</v>
+      </c>
+      <c r="N58">
+        <v>10</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+      <c r="P58">
+        <v>10</v>
+      </c>
+      <c r="Q58">
+        <v>10</v>
+      </c>
+      <c r="R58">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E59">
+        <v>-0.191</v>
+      </c>
+      <c r="F59">
+        <v>0.441</v>
+      </c>
+      <c r="G59">
+        <v>0.128</v>
+      </c>
+      <c r="H59">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="I59">
+        <v>-0.41899999999999998</v>
+      </c>
+      <c r="J59">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="K59">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+      <c r="L59">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="M59">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="N59">
+        <v>0.27200000000000002</v>
+      </c>
+      <c r="O59">
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="P59">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Q59">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>3216</v>
+      </c>
+      <c r="S59">
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E60">
+        <v>0.59675371744293204</v>
+      </c>
+      <c r="F60">
+        <v>0.20169423105100701</v>
+      </c>
+      <c r="G60">
+        <v>0.72490172557576105</v>
+      </c>
+      <c r="H60">
+        <v>0.10484870499837801</v>
+      </c>
+      <c r="I60">
+        <v>0.22784057984396899</v>
+      </c>
+      <c r="J60">
+        <v>9.2321267536689997E-2</v>
+      </c>
+      <c r="K60">
+        <v>0.90539695100004403</v>
+      </c>
+      <c r="L60">
+        <v>0.29821847069586099</v>
+      </c>
+      <c r="M60">
+        <v>7.3806397465373194E-2</v>
+      </c>
+      <c r="N60">
+        <v>0.44711698319632798</v>
+      </c>
+      <c r="O60">
+        <v>0.361173960618624</v>
+      </c>
+      <c r="P60">
+        <v>0.74390895325606898</v>
+      </c>
+      <c r="Q60">
+        <v>0.79756278819069304</v>
+      </c>
+      <c r="R60">
+        <v>4.2217558218557598E-2</v>
+      </c>
+      <c r="S60">
+        <v>0.63568740871246998</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E61">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="F61">
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="G61">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H61">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="I61">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="J61">
+        <v>0.314</v>
+      </c>
+      <c r="K61">
+        <v>2E-3</v>
+      </c>
+      <c r="L61">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="M61">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="N61">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="O61">
+        <v>0.105</v>
+      </c>
+      <c r="P61">
+        <v>1.4E-2</v>
+      </c>
+      <c r="Q61">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="R61">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="S61">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62">
+        <v>10</v>
+      </c>
+      <c r="H62">
+        <v>10</v>
+      </c>
+      <c r="I62">
+        <v>10</v>
+      </c>
+      <c r="J62">
+        <v>10</v>
+      </c>
+      <c r="K62">
+        <v>10</v>
+      </c>
+      <c r="L62">
+        <v>10</v>
+      </c>
+      <c r="M62">
+        <v>10</v>
+      </c>
+      <c r="N62">
+        <v>10</v>
+      </c>
+      <c r="O62">
+        <v>10</v>
+      </c>
+      <c r="P62">
+        <v>10</v>
+      </c>
+      <c r="Q62">
+        <v>10</v>
+      </c>
+      <c r="R62">
+        <v>10</v>
+      </c>
+      <c r="S62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E63">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="G63">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>3217</v>
+      </c>
+      <c r="I63">
+        <v>-0.40699999999999997</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="K63">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>3220</v>
+      </c>
+      <c r="N63">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="P63">
+        <v>0.378</v>
+      </c>
+      <c r="Q63">
+        <v>0.433</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="S63">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="T63">
+        <v>0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E64">
+        <v>0.53124578766473196</v>
+      </c>
+      <c r="F64">
+        <v>2.83279179119276E-2</v>
+      </c>
+      <c r="G64">
+        <v>0.88751760638983301</v>
+      </c>
+      <c r="H64">
+        <v>3.3883544610028198E-3</v>
+      </c>
+      <c r="I64">
+        <v>0.24265156482040001</v>
+      </c>
+      <c r="J64">
+        <v>4.0891446032217298E-3</v>
+      </c>
+      <c r="K64">
+        <v>0.105764509156252</v>
+      </c>
+      <c r="L64">
+        <v>3.3306447492353801E-3</v>
+      </c>
+      <c r="M64">
+        <v>2.37462344964505E-2</v>
+      </c>
+      <c r="N64">
+        <v>0.91016102026308598</v>
+      </c>
+      <c r="O64">
+        <v>1.1901248743103899E-2</v>
+      </c>
+      <c r="P64">
+        <v>0.281787637048176</v>
+      </c>
+      <c r="Q64">
+        <v>0.211314243146319</v>
+      </c>
+      <c r="R64">
+        <v>5.4140208716287799E-3</v>
+      </c>
+      <c r="S64">
+        <v>0.23300620652276099</v>
+      </c>
+      <c r="T64">
+        <v>6.38592708548094E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E65">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F65">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="G65">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H65">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="I65">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="J65">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="K65">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="L65">
+        <v>0.68</v>
+      </c>
+      <c r="M65">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="N65">
+        <v>2E-3</v>
+      </c>
+      <c r="O65">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="P65">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="Q65">
+        <v>0.187</v>
+      </c>
+      <c r="R65">
+        <v>0.64100000000000001</v>
+      </c>
+      <c r="S65">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="T65">
+        <v>0.36599999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>10</v>
+      </c>
+      <c r="G66">
+        <v>10</v>
+      </c>
+      <c r="H66">
+        <v>10</v>
+      </c>
+      <c r="I66">
+        <v>10</v>
+      </c>
+      <c r="J66">
+        <v>10</v>
+      </c>
+      <c r="K66">
+        <v>10</v>
+      </c>
+      <c r="L66">
+        <v>10</v>
+      </c>
+      <c r="M66">
+        <v>10</v>
+      </c>
+      <c r="N66">
+        <v>10</v>
+      </c>
+      <c r="O66">
+        <v>10</v>
+      </c>
+      <c r="P66">
+        <v>10</v>
+      </c>
+      <c r="Q66">
+        <v>10</v>
+      </c>
+      <c r="R66">
+        <v>10</v>
+      </c>
+      <c r="S66">
+        <v>10</v>
+      </c>
+      <c r="T66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3200</v>
+      </c>
+      <c r="E67">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="F67">
+        <v>-0.36799999999999999</v>
+      </c>
+      <c r="G67">
+        <v>-0.33900000000000002</v>
+      </c>
+      <c r="H67">
+        <v>-0.247</v>
+      </c>
+      <c r="I67">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="J67">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K67">
+        <v>0.222</v>
+      </c>
+      <c r="L67">
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="M67">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>3223</v>
+      </c>
+      <c r="O67">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="P67">
+        <v>0.51</v>
+      </c>
+      <c r="Q67">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R67">
+        <v>0.29899999999999999</v>
+      </c>
+      <c r="S67">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="T67">
+        <v>-0.187</v>
+      </c>
+      <c r="U67">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>3201</v>
+      </c>
+      <c r="E68">
+        <v>8.0835139431227804E-2</v>
+      </c>
+      <c r="F68">
+        <v>0.29599930491570198</v>
+      </c>
+      <c r="G68">
+        <v>0.338249343141308</v>
+      </c>
+      <c r="H68">
+        <v>0.49202186743044402</v>
+      </c>
+      <c r="I68">
+        <v>0.234108455275127</v>
+      </c>
+      <c r="J68">
+        <v>0.84797166955903303</v>
+      </c>
+      <c r="K68">
+        <v>0.53756801299038004</v>
+      </c>
+      <c r="L68">
+        <v>0.62849023116660596</v>
+      </c>
+      <c r="M68">
+        <v>0.51567635779780696</v>
+      </c>
+      <c r="N68">
+        <v>4.5007868822084601E-2</v>
+      </c>
+      <c r="O68">
+        <v>0.69676892924681999</v>
+      </c>
+      <c r="P68">
+        <v>0.13163560599140001</v>
+      </c>
+      <c r="Q68">
+        <v>0.91892599411874998</v>
+      </c>
+      <c r="R68">
+        <v>0.40183504279335303</v>
+      </c>
+      <c r="S68">
+        <v>0.80277173120716105</v>
+      </c>
+      <c r="T68">
+        <v>0.60476869790003496</v>
+      </c>
+      <c r="U68">
+        <v>0.90389655691246495</v>
+      </c>
+    </row>
+    <row r="69" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>3202</v>
+      </c>
+      <c r="E69">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="F69">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="G69">
+        <v>0.115</v>
+      </c>
+      <c r="H69">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="I69">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="J69">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K69">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="L69">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M69">
+        <v>5.5E-2</v>
+      </c>
+      <c r="N69">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="O69">
+        <v>0.02</v>
+      </c>
+      <c r="P69">
+        <v>0.26100000000000001</v>
+      </c>
+      <c r="Q69">
+        <v>1E-3</v>
+      </c>
+      <c r="R69">
+        <v>8.8999999999999996E-2</v>
+      </c>
+      <c r="S69">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="T69">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="U69">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>3203</v>
+      </c>
+      <c r="E70">
+        <v>10</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>10</v>
+      </c>
+      <c r="H70">
+        <v>10</v>
+      </c>
+      <c r="I70">
+        <v>10</v>
+      </c>
+      <c r="J70">
+        <v>10</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>10</v>
+      </c>
+      <c r="M70">
+        <v>10</v>
+      </c>
+      <c r="N70">
+        <v>10</v>
+      </c>
+      <c r="O70">
+        <v>10</v>
+      </c>
+      <c r="P70">
+        <v>10</v>
+      </c>
+      <c r="Q70">
+        <v>10</v>
+      </c>
+      <c r="R70">
+        <v>10</v>
+      </c>
+      <c r="S70">
+        <v>10</v>
+      </c>
+      <c r="T70">
+        <v>10</v>
+      </c>
+      <c r="U70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="75" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="E75" s="3" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="76" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3225</v>
+      </c>
+    </row>
+    <row r="77" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D77" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F77">
+        <v>3.4528881604103903E-2</v>
+      </c>
+      <c r="H77" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="78" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>831</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3226</v>
+      </c>
+    </row>
+    <row r="79" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="D79" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F79">
+        <v>2.83279179119276E-2</v>
+      </c>
+      <c r="H79" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="80" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3227</v>
+      </c>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D81" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F81">
+        <v>1.33490634260186E-2</v>
+      </c>
+      <c r="H81" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D82" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F82">
+        <v>1.46464985119973E-2</v>
+      </c>
+      <c r="H82" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3228</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D84" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F84">
+        <v>2.81001491393628E-2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D85" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F85">
+        <v>3.3883544610028198E-3</v>
+      </c>
+      <c r="H85" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D87" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>3209</v>
+      </c>
+      <c r="F87">
+        <v>4.6801549636547903E-2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3230</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F89">
+        <v>7.8037725959192398E-3</v>
+      </c>
+      <c r="H89" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F90">
+        <v>9.4423295117535E-3</v>
+      </c>
+      <c r="H90" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D91" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="F91">
+        <v>4.0891446032217298E-3</v>
+      </c>
+      <c r="H91" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C92" t="s">
+        <v>2661</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3231</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C93" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D94" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F94">
+        <v>1.22736322300037E-2</v>
+      </c>
+      <c r="H94" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F95">
+        <v>1.43289468850389E-2</v>
+      </c>
+      <c r="H95" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F96">
+        <v>1.22736322300037E-2</v>
+      </c>
+      <c r="H96" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D97" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F97">
+        <v>3.1617811564529599E-2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D98" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F98">
+        <v>3.3306447492353801E-3</v>
+      </c>
+      <c r="H98" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C99" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D100" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F100">
+        <v>2.7868451654255999E-5</v>
+      </c>
+      <c r="H100" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D101" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="F101">
+        <v>4.49809690654056E-2</v>
+      </c>
+      <c r="H101" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E102" s="2" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F102">
+        <v>2.37462344964505E-2</v>
+      </c>
+      <c r="H102" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C103" t="s">
+        <v>3179</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D104" t="s">
+        <v>3188</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>3223</v>
+      </c>
+      <c r="F104">
+        <v>4.5007868822084601E-2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C105" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D106" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="F106">
+        <v>1.1901248743103899E-2</v>
+      </c>
+      <c r="H106" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C107" t="s">
+        <v>3182</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3236</v>
+      </c>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>3183</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C109" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D110" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F110">
+        <v>4.2217558218557598E-2</v>
+      </c>
+      <c r="H110" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D111" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F111">
+        <v>5.4140208716287799E-3</v>
+      </c>
+      <c r="H111" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C112" t="s">
+        <v>3185</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="113" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C113" t="s">
+        <v>3186</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="114" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C114" t="s">
+        <v>3187</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="115" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C115" t="s">
+        <v>3188</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3242</v>
+      </c>
+    </row>
+    <row r="119" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F119" t="s">
+        <v>3246</v>
+      </c>
+    </row>
+    <row r="120" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>3247</v>
+      </c>
+      <c r="H120" t="s">
+        <v>3248</v>
+      </c>
+      <c r="I120" t="s">
+        <v>3249</v>
+      </c>
+    </row>
+    <row r="121" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F121" t="s">
+        <v>1483</v>
+      </c>
+      <c r="G121">
+        <v>3.8</v>
+      </c>
+      <c r="H121">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="I121">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="122" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F122" t="s">
+        <v>831</v>
+      </c>
+      <c r="G122">
+        <v>4.5</v>
+      </c>
+      <c r="H122">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="I122">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="123" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
+        <v>1620</v>
+      </c>
+      <c r="G123">
+        <v>3.5</v>
+      </c>
+      <c r="H123">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="I123">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>1581</v>
+      </c>
+      <c r="G124">
+        <v>4.8</v>
+      </c>
+      <c r="H124">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="I124">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F125" t="s">
+        <v>2659</v>
+      </c>
+      <c r="G125">
+        <v>2.7</v>
+      </c>
+      <c r="H125">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="I125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F126" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G126">
+        <v>3.4</v>
+      </c>
+      <c r="H126">
+        <v>1.647</v>
+      </c>
+      <c r="I126">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F127" t="s">
+        <v>2661</v>
+      </c>
+      <c r="G127">
+        <v>4.3</v>
+      </c>
+      <c r="H127">
+        <v>1.252</v>
+      </c>
+      <c r="I127">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="128" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F128" t="s">
+        <v>2662</v>
+      </c>
+      <c r="G128">
+        <v>3.9</v>
+      </c>
+      <c r="H128">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="I128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F129" t="s">
+        <v>3178</v>
+      </c>
+      <c r="G129">
+        <v>4.2</v>
+      </c>
+      <c r="H129">
+        <v>1.476</v>
+      </c>
+      <c r="I129">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F130" t="s">
+        <v>3179</v>
+      </c>
+      <c r="G130">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H130">
+        <v>1.595</v>
+      </c>
+      <c r="I130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F131" t="s">
+        <v>3181</v>
+      </c>
+      <c r="G131">
+        <v>3.6</v>
+      </c>
+      <c r="H131">
+        <v>1.897</v>
+      </c>
+      <c r="I131">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F132" t="s">
+        <v>3182</v>
+      </c>
+      <c r="G132">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="H132">
+        <v>1.37</v>
+      </c>
+      <c r="I132">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="133" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F133" t="s">
+        <v>3183</v>
+      </c>
+      <c r="G133">
+        <v>4.2</v>
+      </c>
+      <c r="H133">
+        <v>1.5489999999999999</v>
+      </c>
+      <c r="I133">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F134" t="s">
+        <v>3184</v>
+      </c>
+      <c r="G134">
+        <v>3.2</v>
+      </c>
+      <c r="H134">
+        <v>1.476</v>
+      </c>
+      <c r="I134">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F135" t="s">
+        <v>3185</v>
+      </c>
+      <c r="G135">
+        <v>3</v>
+      </c>
+      <c r="H135">
+        <v>1.054</v>
+      </c>
+      <c r="I135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F136" t="s">
+        <v>3186</v>
+      </c>
+      <c r="G136">
+        <v>4.2</v>
+      </c>
+      <c r="H136">
+        <v>1.2290000000000001</v>
+      </c>
+      <c r="I136">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="137" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F137" t="s">
+        <v>3187</v>
+      </c>
+      <c r="G137">
+        <v>3.9</v>
+      </c>
+      <c r="H137">
+        <v>1.524</v>
+      </c>
+      <c r="I137">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="6:9" x14ac:dyDescent="0.2">
+      <c r="F138" t="s">
+        <v>3188</v>
+      </c>
+      <c r="G138">
+        <v>3.7</v>
+      </c>
+      <c r="H138">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="I138">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD03B80-648B-0B40-AC9B-C7678A22D63D}">
   <dimension ref="A1:P681"/>
@@ -34858,8 +40082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08AB43A-08FB-8D41-A89B-851143503EC9}">
   <dimension ref="A2:Z531"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T125" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AB122" sqref="AB122"/>
+    <sheetView topLeftCell="I95" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="W114" sqref="W114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -35443,7 +40667,10 @@
         <v>3099</v>
       </c>
       <c r="X116" t="s">
-        <v>3129</v>
+        <v>3127</v>
+      </c>
+      <c r="Z116" t="s">
+        <v>2581</v>
       </c>
     </row>
     <row r="117" spans="2:26" x14ac:dyDescent="0.2">
@@ -35459,7 +40686,7 @@
         <v>3101</v>
       </c>
       <c r="X118" t="s">
-        <v>3120</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="119" spans="2:26" x14ac:dyDescent="0.2">
@@ -35467,7 +40694,7 @@
         <v>3102</v>
       </c>
       <c r="X119" t="s">
-        <v>3121</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="120" spans="2:26" x14ac:dyDescent="0.2">
@@ -35475,7 +40702,10 @@
         <v>3074</v>
       </c>
       <c r="X120" t="s">
-        <v>3125</v>
+        <v>3128</v>
+      </c>
+      <c r="Z120" t="s">
+        <v>2582</v>
       </c>
     </row>
     <row r="121" spans="2:26" x14ac:dyDescent="0.2">
@@ -35519,9 +40749,6 @@
       <c r="X123" t="s">
         <v>3106</v>
       </c>
-      <c r="Z123" t="s">
-        <v>2575</v>
-      </c>
     </row>
     <row r="124" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B124" t="s">
@@ -35537,7 +40764,7 @@
         <v>3107</v>
       </c>
       <c r="Z124" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="125" spans="2:26" x14ac:dyDescent="0.2">
@@ -35551,10 +40778,7 @@
         <v>3079</v>
       </c>
       <c r="X125" t="s">
-        <v>3122</v>
-      </c>
-      <c r="Z125" t="s">
-        <v>2577</v>
+        <v>3126</v>
       </c>
     </row>
     <row r="126" spans="2:26" x14ac:dyDescent="0.2">
@@ -35570,9 +40794,6 @@
       <c r="X126" t="s">
         <v>3108</v>
       </c>
-      <c r="Z126" t="s">
-        <v>2582</v>
-      </c>
     </row>
     <row r="127" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B127" t="s">
@@ -35587,9 +40808,6 @@
       <c r="X127" t="s">
         <v>33</v>
       </c>
-      <c r="Z127" t="s">
-        <v>2578</v>
-      </c>
     </row>
     <row r="128" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B128" t="s">
@@ -35602,10 +40820,10 @@
         <v>3097</v>
       </c>
       <c r="X128" t="s">
-        <v>3124</v>
+        <v>3122</v>
       </c>
       <c r="Z128" t="s">
-        <v>2579</v>
+        <v>2576</v>
       </c>
     </row>
     <row r="129" spans="2:26" x14ac:dyDescent="0.2">
@@ -35613,10 +40831,7 @@
         <v>3085</v>
       </c>
       <c r="X129" t="s">
-        <v>3109</v>
-      </c>
-      <c r="Z129" t="s">
-        <v>2580</v>
+        <v>3129</v>
       </c>
     </row>
     <row r="130" spans="2:26" x14ac:dyDescent="0.2">
@@ -35626,16 +40841,13 @@
       <c r="X130" t="s">
         <v>748</v>
       </c>
-      <c r="Z130" t="s">
-        <v>2581</v>
-      </c>
     </row>
     <row r="131" spans="2:26" x14ac:dyDescent="0.2">
       <c r="V131" t="s">
         <v>3086</v>
       </c>
       <c r="X131" t="s">
-        <v>3110</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="132" spans="2:26" x14ac:dyDescent="0.2">
@@ -35643,7 +40855,10 @@
         <v>3095</v>
       </c>
       <c r="X132" t="s">
-        <v>3123</v>
+        <v>3121</v>
+      </c>
+      <c r="Z132" t="s">
+        <v>2577</v>
       </c>
     </row>
     <row r="133" spans="2:26" x14ac:dyDescent="0.2">
@@ -35667,7 +40882,7 @@
         <v>3091</v>
       </c>
       <c r="X135" t="s">
-        <v>3111</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="136" spans="2:26" x14ac:dyDescent="0.2">
@@ -35675,7 +40890,10 @@
         <v>3098</v>
       </c>
       <c r="X136" t="s">
-        <v>3112</v>
+        <v>3111</v>
+      </c>
+      <c r="Z136" t="s">
+        <v>2578</v>
       </c>
     </row>
     <row r="137" spans="2:26" x14ac:dyDescent="0.2">
@@ -35683,7 +40901,7 @@
         <v>3092</v>
       </c>
       <c r="X137" t="s">
-        <v>3113</v>
+        <v>3112</v>
       </c>
     </row>
     <row r="138" spans="2:26" x14ac:dyDescent="0.2">
@@ -35691,7 +40909,7 @@
         <v>3093</v>
       </c>
       <c r="X138" t="s">
-        <v>3114</v>
+        <v>3113</v>
       </c>
     </row>
     <row r="139" spans="2:26" x14ac:dyDescent="0.2">
@@ -35699,7 +40917,7 @@
         <v>3094</v>
       </c>
       <c r="X139" t="s">
-        <v>3115</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="140" spans="2:26" x14ac:dyDescent="0.2">
@@ -35707,7 +40925,10 @@
         <v>3090</v>
       </c>
       <c r="X140" t="s">
-        <v>3116</v>
+        <v>3115</v>
+      </c>
+      <c r="Z140" t="s">
+        <v>2579</v>
       </c>
     </row>
     <row r="141" spans="2:26" x14ac:dyDescent="0.2">
@@ -35715,7 +40936,7 @@
         <v>3087</v>
       </c>
       <c r="X141" t="s">
-        <v>3117</v>
+        <v>3116</v>
       </c>
     </row>
     <row r="142" spans="2:26" x14ac:dyDescent="0.2">
@@ -35737,7 +40958,7 @@
         <v>3089</v>
       </c>
       <c r="X143" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
     </row>
     <row r="144" spans="2:26" x14ac:dyDescent="0.2">
@@ -35751,7 +40972,10 @@
         <v>3096</v>
       </c>
       <c r="X144" t="s">
-        <v>3126</v>
+        <v>3123</v>
+      </c>
+      <c r="Z144" t="s">
+        <v>2580</v>
       </c>
     </row>
     <row r="145" spans="2:24" x14ac:dyDescent="0.2">
@@ -35765,7 +40989,7 @@
         <v>3082</v>
       </c>
       <c r="X145" t="s">
-        <v>3118</v>
+        <v>3117</v>
       </c>
     </row>
     <row r="146" spans="2:24" x14ac:dyDescent="0.2">
@@ -35779,7 +41003,7 @@
         <v>3083</v>
       </c>
       <c r="X146" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
     </row>
     <row r="147" spans="2:24" x14ac:dyDescent="0.2">
@@ -35787,7 +41011,7 @@
         <v>3084</v>
       </c>
       <c r="X147" t="s">
-        <v>3119</v>
+        <v>3118</v>
       </c>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">

--- a/tunnepyora.xlsx
+++ b/tunnepyora.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/var/mobile/Containers/Data/Application/B0448A65-F12A-40B7-B31D-00B325476E7D/Library/Application Support/Drafts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3582" documentId="8_{62920A7E-06B9-244E-861B-F76490E68AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44A452C7-BF35-FA45-BC90-10742735BB5B}"/>
+  <xr:revisionPtr revIDLastSave="3711" documentId="8_{62920A7E-06B9-244E-861B-F76490E68AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C2A2CCC-F70C-3640-93E4-919B9C9949ED}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,8 @@
     <sheet name="Sheet10" sheetId="11" r:id="rId10"/>
     <sheet name="Sheet11" sheetId="12" r:id="rId11"/>
     <sheet name="Sheet12" sheetId="13" r:id="rId12"/>
+    <sheet name="Sheet13" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet14" sheetId="15" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet3!$B$1:$B$114</definedName>
@@ -32,6 +34,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet4!$H$1:$O$177</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$189</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$238:$D$681</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">Sheet13!$B$1:$N$14</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7638" uniqueCount="3250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7795" uniqueCount="3259">
   <si>
     <t>Arvostettu</t>
   </si>
@@ -9800,6 +9803,33 @@
   </si>
   <si>
     <t>number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asiakkaan tarpeiden huomioiminen sisällössä on sitouttamisen kannalta tärkeää, mutta haasteellista  </t>
+  </si>
+  <si>
+    <t>Tekninen omaksuttavuus ensisijaisen tärkeää</t>
+  </si>
+  <si>
+    <t>Tulevaisuus sidoksissa useisiin tekijöihin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elinikäisessä oppimisessa sosiaalinen tilaus ja helppous avaintekijöitä </t>
+  </si>
+  <si>
+    <t>Ajankäytössä sisältöjen helppous ja asiakkaiden tarpeiden huomioiminen tärkeää</t>
+  </si>
+  <si>
+    <t>Käyttöliittymien tulee olla helposti omaksuttavaa</t>
+  </si>
+  <si>
+    <t>Asiakkaiden huomioiminen madaltaa kynnystä</t>
+  </si>
+  <si>
+    <t>Sitouttaminen haasteellista</t>
+  </si>
+  <si>
+    <t>Toteuttaminen vaatii aikansa</t>
   </si>
 </sst>
 </file>
@@ -17150,8 +17180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E67EF82-06B1-B74E-A5AB-720AA52350A7}">
   <dimension ref="C2:V138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K108" sqref="K108"/>
+    <sheetView topLeftCell="A91" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -19769,6 +19799,9 @@
       </c>
     </row>
     <row r="102" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D102" t="s">
+        <v>3187</v>
+      </c>
       <c r="E102" s="2" t="s">
         <v>3220</v>
       </c>
@@ -20176,6 +20209,685 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1E24053-4CC3-A649-8013-19B421ADCE0C}">
+  <dimension ref="B1:H47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:N47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="70.48828125" customWidth="1"/>
+    <col min="5" max="5" width="15.6015625" customWidth="1"/>
+    <col min="6" max="6" width="12.9140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>3244</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3243</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>3257</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2659</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3204</v>
+      </c>
+      <c r="F3">
+        <v>1.33490634260186E-2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>3229</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F4">
+        <v>1.46464985119973E-2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>3258</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3183</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F7">
+        <v>2.81001491393628E-2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>3237</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F8">
+        <v>3.3883544610028198E-3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>3256</v>
+      </c>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2662</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>3205</v>
+      </c>
+      <c r="F11">
+        <v>7.8037725959192398E-3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>3210</v>
+      </c>
+      <c r="F12">
+        <v>9.4423295117535E-3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="F13">
+        <v>4.0891446032217298E-3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>3255</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3186</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>3216</v>
+      </c>
+      <c r="F16">
+        <v>4.2217558218557598E-2</v>
+      </c>
+      <c r="H16" t="s">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F17">
+        <v>5.4140208716287799E-3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>3254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3178</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F20">
+        <v>1.22736322300037E-2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>3233</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3181</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>3211</v>
+      </c>
+      <c r="F21">
+        <v>1.43289468850389E-2</v>
+      </c>
+      <c r="H21" t="s">
+        <v>3235</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3214</v>
+      </c>
+      <c r="F22">
+        <v>3.1617811564529599E-2</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F23">
+        <v>1.22736322300037E-2</v>
+      </c>
+      <c r="H23" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F24">
+        <v>3.3306447492353801E-3</v>
+      </c>
+      <c r="H24" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>3253</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3185</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>3215</v>
+      </c>
+      <c r="F27">
+        <v>4.49809690654056E-2</v>
+      </c>
+      <c r="H27" t="s">
+        <v>3245</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F28">
+        <v>2.7868451654255999E-5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F29">
+        <v>2.37462344964505E-2</v>
+      </c>
+      <c r="H29" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>3250</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>3227</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>3208</v>
+      </c>
+      <c r="F32">
+        <v>1.46464985119973E-2</v>
+      </c>
+      <c r="H32" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>3229</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>3209</v>
+      </c>
+      <c r="F33">
+        <v>4.6801549636547903E-2</v>
+      </c>
+      <c r="H33" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>3225</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3179</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>3207</v>
+      </c>
+      <c r="F34">
+        <v>3.4528881604103903E-2</v>
+      </c>
+      <c r="H34" t="s">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="2" t="s">
+        <v>3251</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>3213</v>
+      </c>
+      <c r="F37">
+        <v>2.7868451654255999E-5</v>
+      </c>
+      <c r="H37" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3184</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>3206</v>
+      </c>
+      <c r="F38">
+        <v>1.22736322300037E-2</v>
+      </c>
+      <c r="H38" t="s">
+        <v>3238</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="2" t="s">
+        <v>3252</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>3232</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>3219</v>
+      </c>
+      <c r="F41">
+        <v>3.3306447492353801E-3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>3228</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>3217</v>
+      </c>
+      <c r="F42">
+        <v>3.3883544610028198E-3</v>
+      </c>
+      <c r="H42" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>3230</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2660</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>3218</v>
+      </c>
+      <c r="F43">
+        <v>4.0891446032217298E-3</v>
+      </c>
+      <c r="H43" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>3238</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3184</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>3222</v>
+      </c>
+      <c r="F44">
+        <v>5.4140208716287799E-3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>3235</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3181</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>3221</v>
+      </c>
+      <c r="F45">
+        <v>1.1901248743103899E-2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>3233</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3178</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>3220</v>
+      </c>
+      <c r="F46">
+        <v>2.37462344964505E-2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>3226</v>
+      </c>
+      <c r="C47" t="s">
+        <v>831</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3187</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>3212</v>
+      </c>
+      <c r="F47">
+        <v>2.83279179119276E-2</v>
+      </c>
+      <c r="H47" t="s">
+        <v>3241</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:N14" xr:uid="{B1E24053-4CC3-A649-8013-19B421ADCE0C}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:N14">
+      <sortCondition ref="C1:C14"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36D3713-977A-D74F-B599-9BA2073A9D6C}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
